--- a/balance.xlsx
+++ b/balance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="electrical" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="comms" sheetId="2" r:id="rId3"/>
     <sheet name="launches" sheetId="5" r:id="rId4"/>
     <sheet name="fuel" sheetId="6" r:id="rId5"/>
+    <sheet name="CMG" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="dish_names">comms!$K$2:$K$11</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="144">
   <si>
     <t>W/m2</t>
   </si>
@@ -385,6 +386,75 @@
   </si>
   <si>
     <t>at 1.25</t>
+  </si>
+  <si>
+    <t>e/min</t>
+  </si>
+  <si>
+    <t>2x</t>
+  </si>
+  <si>
+    <t>plus cpu</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>body R</t>
+  </si>
+  <si>
+    <t>R/ra</t>
+  </si>
+  <si>
+    <t>ra</t>
+  </si>
+  <si>
+    <t>sin</t>
+  </si>
+  <si>
+    <t>2ra^2</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>KTO</t>
+  </si>
+  <si>
+    <t>Wildcat5</t>
+  </si>
+  <si>
+    <t>thrust</t>
+  </si>
+  <si>
+    <t>burn</t>
+  </si>
+  <si>
+    <t>g loss</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>upward</t>
+  </si>
+  <si>
+    <t>accel</t>
+  </si>
+  <si>
+    <t>burnout</t>
+  </si>
+  <si>
+    <t>power</t>
   </si>
 </sst>
 </file>
@@ -392,11 +462,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="174" formatCode="#,##0.0"/>
-    <numFmt numFmtId="175" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -428,7 +498,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,6 +553,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -496,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,25 +580,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -533,9 +609,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -591,13 +664,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -901,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,8 +1003,8 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1005,7 +1096,7 @@
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="28">
         <f>D8</f>
         <v>6.9444444444444448E-2</v>
       </c>
@@ -1205,11 +1296,25 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="K14" s="1">
         <v>4000</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D15" s="35">
+        <f>600000</f>
+        <v>600000</v>
+      </c>
+      <c r="E15" s="16">
+        <f>D15+D17</f>
+        <v>3468750</v>
+      </c>
       <c r="K15" s="1">
         <f>K13*K14</f>
         <v>56000</v>
@@ -1222,6 +1327,12 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="K16" s="1">
         <f>K15*L18</f>
         <v>875</v>
@@ -1233,7 +1344,14 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D17" s="35">
+        <v>2868750</v>
+      </c>
+      <c r="E17" s="1">
+        <f>D15/E15</f>
+        <v>0.17297297297297298</v>
+      </c>
       <c r="L17" s="1">
         <f>L16/2.5</f>
         <v>0.25</v>
@@ -1246,7 +1364,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="L18" s="1">
         <f>L17^3</f>
         <v>1.5625E-2</v>
@@ -1259,13 +1383,26 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="19" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D19" s="36">
+        <v>3531600000000</v>
+      </c>
+      <c r="E19" s="19">
+        <f>ASIN(E17)</f>
+        <v>0.17384734576954017</v>
+      </c>
       <c r="O19" s="1">
         <f>2.5</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D20" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="K20" s="1">
         <v>9</v>
       </c>
@@ -1274,7 +1411,14 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D21" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="19">
+        <f>2*E15^2</f>
+        <v>24064453125000</v>
+      </c>
       <c r="K21" s="1">
         <v>4000</v>
       </c>
@@ -1283,7 +1427,14 @@
         <v>3.375</v>
       </c>
     </row>
-    <row r="22" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D22" s="26">
+        <f>E21/E23*E19</f>
+        <v>1195.2859282940951</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="K22" s="1">
         <f>K20*K21</f>
         <v>36000</v>
@@ -1292,7 +1443,14 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="19">
+        <f>SQRT(E15*D19)</f>
+        <v>3500033928.4069805</v>
+      </c>
       <c r="K23" s="1">
         <f>K22*L25</f>
         <v>4500</v>
@@ -1301,16 +1459,33 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L24" s="1">
         <f>L23/1.25</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="11:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D25" s="39">
+        <v>0.19</v>
+      </c>
       <c r="L25" s="1">
         <f>L24^3</f>
         <v>0.125</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D27" s="1">
+        <f>D25*D22</f>
+        <v>227.10432637587809</v>
       </c>
     </row>
   </sheetData>
@@ -1320,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AP13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3:AC3"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AN13" sqref="AN13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,146 +1535,146 @@
     <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="G1" s="13" t="s">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="G1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="O1" s="13" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="O1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="W1" s="13" t="s">
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="W1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AE1" s="13" t="s">
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AE1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
-    </row>
-    <row r="2" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+    </row>
+    <row r="2" spans="1:42" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="Z2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AA2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AB2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AC2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AE2" s="14" t="s">
+      <c r="AE2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AF2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AG2" s="14" t="s">
+      <c r="AG2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="14" t="s">
+      <c r="AH2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="14" t="s">
+      <c r="AI2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="14" t="s">
+      <c r="AJ2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AK2" s="14" t="s">
+      <c r="AK2" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1522,11 +1697,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <f>D3</f>
+        <f t="shared" ref="J3:K5" si="0">D3</f>
         <v>3917</v>
       </c>
       <c r="K3" s="1">
-        <f>E3</f>
+        <f t="shared" si="0"/>
         <v>4352</v>
       </c>
       <c r="L3" s="12" t="e">
@@ -1612,8 +1787,14 @@
         <f>$AI3/9.81/LN(AE3/AF3)</f>
         <v>242.73387453054951</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN3" s="39">
+        <v>12.815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -1640,11 +1821,11 @@
         <v>3282</v>
       </c>
       <c r="J4" s="1">
-        <f>D4</f>
+        <f t="shared" si="0"/>
         <v>1191</v>
       </c>
       <c r="K4" s="1">
-        <f>E4</f>
+        <f t="shared" si="0"/>
         <v>4835</v>
       </c>
       <c r="L4" s="12">
@@ -1714,11 +1895,11 @@
         <v>0</v>
       </c>
       <c r="AH4" s="6">
-        <f t="shared" ref="AH4:AH5" si="0">0.8*Z4</f>
+        <f t="shared" ref="AH4:AH5" si="1">0.8*Z4</f>
         <v>859.90200000000004</v>
       </c>
       <c r="AI4" s="6">
-        <f t="shared" ref="AI4:AI5" si="1">0.85*K4</f>
+        <f t="shared" ref="AI4:AI5" si="2">0.85*K4</f>
         <v>4109.75</v>
       </c>
       <c r="AJ4" s="12" t="e">
@@ -1729,8 +1910,21 @@
         <f>$AI4/9.81/LN(AE4/AF4)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN4" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP4" s="4">
+        <f>AN6/AN4/9.81</f>
+        <v>15.630309208290861</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -1757,11 +1951,11 @@
         <v>70035</v>
       </c>
       <c r="J5" s="1">
-        <f>D5</f>
+        <f t="shared" si="0"/>
         <v>4789</v>
       </c>
       <c r="K5" s="1">
-        <f>E5</f>
+        <f t="shared" si="0"/>
         <v>5209</v>
       </c>
       <c r="L5" s="12">
@@ -1827,11 +2021,11 @@
         <v>0</v>
       </c>
       <c r="AH5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3457.6580000000004</v>
       </c>
       <c r="AI5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4427.6499999999996</v>
       </c>
       <c r="AJ5" s="12" t="e">
@@ -1841,6 +2035,198 @@
       <c r="AK5" s="12" t="e">
         <f>$AI5/9.81/LN(AE5/AF5)</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN5" s="1">
+        <f>AN3+AN4</f>
+        <v>14.315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="2">
+        <v>78070</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4789</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5209</v>
+      </c>
+      <c r="G6" s="11">
+        <v>78271</v>
+      </c>
+      <c r="H6" s="11">
+        <v>8236</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6-H6</f>
+        <v>70035</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" ref="J6" si="3">D6</f>
+        <v>4789</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" ref="K6" si="4">E6</f>
+        <v>5209</v>
+      </c>
+      <c r="L6" s="12">
+        <f>$J6/9.81/LN(G6/H6)</f>
+        <v>216.8066299574084</v>
+      </c>
+      <c r="M6" s="12">
+        <f>$K6/9.81/LN(G6/H6)</f>
+        <v>235.82078418211324</v>
+      </c>
+      <c r="O6" s="11">
+        <v>79450</v>
+      </c>
+      <c r="P6" s="11">
+        <v>10736</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>O6-P6</f>
+        <v>68714</v>
+      </c>
+      <c r="R6" s="6">
+        <f>0.95*J6</f>
+        <v>4549.55</v>
+      </c>
+      <c r="S6" s="6">
+        <f>1.01*K6</f>
+        <v>5261.09</v>
+      </c>
+      <c r="T6" s="12">
+        <f>$R6/9.81/LN(O6/P6)</f>
+        <v>231.70656987189776</v>
+      </c>
+      <c r="U6" s="12">
+        <f>$S6/9.81/LN(O6/P6)</f>
+        <v>267.94498745751611</v>
+      </c>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="1">
+        <f>W6-X6</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="6">
+        <f>0.95*R6</f>
+        <v>4322.0725000000002</v>
+      </c>
+      <c r="AA6" s="6">
+        <f>1.01*S6</f>
+        <v>5313.7008999999998</v>
+      </c>
+      <c r="AB6" s="12" t="e">
+        <f>$Z6/9.81/LN(W6/X6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC6" s="12" t="e">
+        <f>$AA6/9.81/LN(W6/X6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="1">
+        <f>AE6-AF6</f>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="6">
+        <f t="shared" ref="AH6" si="5">0.8*Z6</f>
+        <v>3457.6580000000004</v>
+      </c>
+      <c r="AI6" s="6">
+        <f t="shared" ref="AI6" si="6">0.85*K6</f>
+        <v>4427.6499999999996</v>
+      </c>
+      <c r="AJ6" s="12" t="e">
+        <f>$AH6/9.81/LN(AE6/AF6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK6" s="12" t="e">
+        <f>$AI6/9.81/LN(AE6/AF6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN6" s="39">
+        <v>230</v>
+      </c>
+      <c r="AO6" s="1">
+        <f>AN6/9.81/60</f>
+        <v>0.39075773020727145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AM7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN7" s="4">
+        <f>AN6/AN5/9.81</f>
+        <v>1.6378249257727062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AM9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN9" s="39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AM10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN10" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP10" s="4">
+        <f>AN12/AN10/9.81</f>
+        <v>15.630309208290861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AM11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN11" s="1">
+        <f>AN9+AN10</f>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AM12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN12" s="39">
+        <v>230</v>
+      </c>
+      <c r="AO12" s="1">
+        <f>AN12/9.81/60</f>
+        <v>0.39075773020727145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AM13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN13" s="4">
+        <f>AN12/AN11/9.81</f>
+        <v>0.88473448348816186</v>
       </c>
     </row>
   </sheetData>
@@ -1859,8 +2245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,133 +2300,133 @@
     <col min="54" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AB1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AC1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AD1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AE1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AG1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AH1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AI1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AK1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AL1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AM1" s="25">
+      <c r="AM1" s="24">
         <f>AL2</f>
         <v>1</v>
       </c>
-      <c r="AN1" s="25">
+      <c r="AN1" s="24">
         <f>AL3</f>
         <v>4</v>
       </c>
-      <c r="AO1" s="25">
+      <c r="AO1" s="24">
         <f>AL4</f>
         <v>6</v>
       </c>
-      <c r="AP1" s="25">
+      <c r="AP1" s="24">
         <f>AL5</f>
         <v>8</v>
       </c>
-      <c r="AQ1" s="25">
+      <c r="AQ1" s="24">
         <f>AL6</f>
         <v>250</v>
       </c>
-      <c r="AR1" s="25">
+      <c r="AR1" s="24">
         <f>AL7</f>
         <v>10000</v>
       </c>
-      <c r="AS1" s="25">
+      <c r="AS1" s="24">
         <f>AL8</f>
         <v>65000</v>
       </c>
-      <c r="AT1" s="25">
+      <c r="AT1" s="24">
         <f>AL9</f>
         <v>575000</v>
       </c>
-      <c r="AU1" s="25">
+      <c r="AU1" s="24">
         <f>AL10</f>
         <v>1000000</v>
       </c>
@@ -2071,45 +2457,45 @@
       <c r="D2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="17">
-        <f>INDEX(dish_ranges,MATCH(C2,dish_names,))</f>
+      <c r="E2" s="16">
+        <f t="shared" ref="E2:E12" si="0">INDEX(dish_ranges,MATCH(C2,dish_names,))</f>
         <v>1</v>
       </c>
-      <c r="F2" s="17">
-        <f>INDEX(dish_ranges,MATCH(D2,dish_names,))</f>
+      <c r="F2" s="16">
+        <f t="shared" ref="F2:F12" si="1">INDEX(dish_ranges,MATCH(D2,dish_names,))</f>
         <v>1000000</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <f>MIN(E2:F2)+SQRT(E2*F2)</f>
         <v>1001</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <v>1</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <f>MAX(0,H2-G2)</f>
         <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="16">
         <v>1</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="16">
         <v>-1</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="16">
         <v>10</v>
       </c>
-      <c r="O2" s="17"/>
+      <c r="O2" s="16"/>
       <c r="P2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="16">
         <v>5</v>
       </c>
-      <c r="R2" s="18">
+      <c r="R2" s="17">
         <f>Q2</f>
         <v>5</v>
       </c>
@@ -2127,10 +2513,10 @@
       <c r="X2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Y2" s="18">
+      <c r="Y2" s="17">
         <v>3500000</v>
       </c>
-      <c r="Z2" s="20">
+      <c r="Z2" s="19">
         <f>IF(LEFT(X2,1)="o",100,1000)*Y2</f>
         <v>3500000000</v>
       </c>
@@ -2140,58 +2526,58 @@
       <c r="AC2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="18">
+      <c r="AD2" s="17">
         <v>3500000</v>
       </c>
-      <c r="AE2" s="20">
+      <c r="AE2" s="19">
         <f>IF(LEFT(AC2,1)="o",100,1000)*AD2</f>
         <v>3500000000</v>
       </c>
-      <c r="AG2" s="17">
+      <c r="AG2" s="16">
         <f>MIN(Y2,AD2)+SQRT(Y2*AD2)</f>
         <v>7000000</v>
       </c>
-      <c r="AH2" s="19" t="s">
+      <c r="AH2" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="AI2" s="17">
+      <c r="AI2" s="16">
         <f>(2868750+600000)*2</f>
         <v>6937500</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AL2" s="18">
+      <c r="AL2" s="17">
         <v>1</v>
       </c>
-      <c r="AM2" s="17">
+      <c r="AM2" s="16">
         <f>MIN($AL2,AM$1)+SQRT($AL2*AM$1)</f>
         <v>2</v>
       </c>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="17"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
       <c r="AW2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AX2" s="17">
+      <c r="AX2" s="16">
         <f>SUM(AY2:BA2)/1000000</f>
         <v>6.9375</v>
       </c>
-      <c r="AY2" s="17">
+      <c r="AY2" s="16">
         <f>600000+2868750</f>
         <v>3468750</v>
       </c>
-      <c r="AZ2" s="17">
+      <c r="AZ2" s="16">
         <f>600000+2868750</f>
         <v>3468750</v>
       </c>
-      <c r="BA2" s="17"/>
+      <c r="BA2" s="16"/>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2206,35 +2592,35 @@
       <c r="D3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="17">
-        <f>INDEX(dish_ranges,MATCH(C3,dish_names,))</f>
+      <c r="E3" s="16">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F3" s="17">
-        <f>INDEX(dish_ranges,MATCH(D3,dish_names,))</f>
+      <c r="F3" s="16">
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="G3" s="17">
-        <f t="shared" ref="G3:G11" si="0">MIN(E3:F3)+SQRT(E3*F3)</f>
+      <c r="G3" s="16">
+        <f t="shared" ref="G3:G11" si="2">MIN(E3:F3)+SQRT(E3*F3)</f>
         <v>16.811388300841898</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <v>15.668749999999999</v>
       </c>
-      <c r="I3" s="17">
-        <f t="shared" ref="I3:I12" si="1">MAX(0,H3-G3)</f>
+      <c r="I3" s="16">
+        <f t="shared" ref="I3:I12" si="3">MAX(0,H3-G3)</f>
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="16">
         <v>4</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="16">
         <v>-1</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="16">
         <v>100</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -2243,20 +2629,20 @@
       <c r="P3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="16">
         <f>(L3/L2)^2*Q2</f>
         <v>80</v>
       </c>
-      <c r="R3" s="18">
-        <f t="shared" ref="R3:R9" si="2">Q3</f>
+      <c r="R3" s="17">
+        <f t="shared" ref="R3:R9" si="4">Q3</f>
         <v>80</v>
       </c>
       <c r="S3" s="4">
-        <f t="shared" ref="S3:S9" si="3">R3*0.000277778</f>
+        <f t="shared" ref="S3:S9" si="5">R3*0.000277778</f>
         <v>2.2222240000000001E-2</v>
       </c>
       <c r="T3" s="5">
-        <f t="shared" ref="T3:T9" si="4">60*S3</f>
+        <f t="shared" ref="T3:T9" si="6">60*S3</f>
         <v>1.3333344</v>
       </c>
       <c r="V3" s="2" t="s">
@@ -2265,10 +2651,10 @@
       <c r="X3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Y3" s="18">
+      <c r="Y3" s="17">
         <v>50000000</v>
       </c>
-      <c r="Z3" s="20">
+      <c r="Z3" s="19">
         <f>IF(LEFT(X3,1)="o",100,1000)*Y3</f>
         <v>50000000000</v>
       </c>
@@ -2278,60 +2664,60 @@
       <c r="AC3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AD3" s="18">
+      <c r="AD3" s="17">
         <v>3500000</v>
       </c>
-      <c r="AE3" s="20">
+      <c r="AE3" s="19">
         <f>IF(LEFT(AC3,1)="o",100,1000)*AD3</f>
         <v>3500000000</v>
       </c>
-      <c r="AG3" s="17">
+      <c r="AG3" s="16">
         <f>MIN(Y3,AD3)+SQRT(Y3*AD3)</f>
         <v>16728756.555322953</v>
       </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AH3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="AI3" s="17">
+      <c r="AI3" s="16">
         <f>(2868750+600000)+12000000</f>
         <v>15468750</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AL3" s="18">
+      <c r="AL3" s="17">
         <v>4</v>
       </c>
-      <c r="AM3" s="17">
-        <f t="shared" ref="AM3:AU10" si="5">MIN($AL3,AM$1)+SQRT($AL3*AM$1)</f>
+      <c r="AM3" s="16">
+        <f t="shared" ref="AM3:AM10" si="7">MIN($AL3,AM$1)+SQRT($AL3*AM$1)</f>
         <v>3</v>
       </c>
-      <c r="AN3" s="27">
-        <f>MIN($AL3,AN$1)+SQRT($AL3*AN$1)</f>
+      <c r="AN3" s="26">
+        <f t="shared" ref="AN3:AN10" si="8">MIN($AL3,AN$1)+SQRT($AL3*AN$1)</f>
         <v>8</v>
       </c>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="17"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="17"/>
-      <c r="AS3" s="17"/>
-      <c r="AT3" s="17"/>
-      <c r="AU3" s="17"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
       <c r="AW3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AX3" s="17">
-        <f t="shared" ref="AX3:AX7" si="6">SUM(AY3:BA3)/1000000</f>
+      <c r="AX3" s="16">
+        <f t="shared" ref="AX3:AX7" si="9">SUM(AY3:BA3)/1000000</f>
         <v>15.668749999999999</v>
       </c>
-      <c r="AY3" s="17">
+      <c r="AY3" s="16">
         <f>600000+2868750</f>
         <v>3468750</v>
       </c>
-      <c r="AZ3" s="17">
+      <c r="AZ3" s="16">
         <v>12000000</v>
       </c>
-      <c r="BA3" s="17">
+      <c r="BA3" s="16">
         <v>200000</v>
       </c>
     </row>
@@ -2348,57 +2734,57 @@
       <c r="D4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="17">
-        <f>INDEX(dish_ranges,MATCH(C4,dish_names,))</f>
+      <c r="E4" s="16">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F4" s="17">
-        <f>INDEX(dish_ranges,MATCH(D4,dish_names,))</f>
+      <c r="F4" s="16">
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
-      <c r="G4" s="17">
-        <f t="shared" si="0"/>
+      <c r="G4" s="16">
+        <f t="shared" si="2"/>
         <v>2004</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>4</v>
       </c>
-      <c r="I4" s="17">
-        <f t="shared" si="1"/>
+      <c r="I4" s="16">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="16">
         <v>6</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="16">
         <v>15</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="16">
         <v>30</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="16" t="s">
         <v>101</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="16">
         <f>(L4/L3)^2*Q3</f>
         <v>180</v>
       </c>
-      <c r="R4" s="18">
-        <f t="shared" si="2"/>
+      <c r="R4" s="17">
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="S4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.0000040000000003E-2</v>
       </c>
       <c r="T4" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.0000024000000001</v>
       </c>
       <c r="V4" s="2" t="s">
@@ -2407,10 +2793,10 @@
       <c r="X4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Y4" s="18">
+      <c r="Y4" s="17">
         <v>50000000</v>
       </c>
-      <c r="Z4" s="20">
+      <c r="Z4" s="19">
         <f>IF(LEFT(X4,1)="o",100,1000)*Y4</f>
         <v>50000000000</v>
       </c>
@@ -2420,60 +2806,60 @@
       <c r="AC4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AD4" s="18">
+      <c r="AD4" s="17">
         <v>50000000</v>
       </c>
-      <c r="AE4" s="20">
+      <c r="AE4" s="19">
         <f>IF(LEFT(AC4,1)="o",100,1000)*AD4</f>
         <v>50000000000</v>
       </c>
-      <c r="AG4" s="17">
+      <c r="AG4" s="16">
         <f>MIN(Y4,AD4)+SQRT(Y4*AD4)</f>
         <v>100000000</v>
       </c>
-      <c r="AH4" s="19" t="s">
+      <c r="AH4" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="AI4" s="17">
+      <c r="AI4" s="16">
         <f>(2868750+600000)+47000000</f>
         <v>50468750</v>
       </c>
-      <c r="AL4" s="18">
+      <c r="AL4" s="17">
         <v>6</v>
       </c>
-      <c r="AM4" s="17">
-        <f t="shared" si="5"/>
+      <c r="AM4" s="16">
+        <f t="shared" si="7"/>
         <v>3.4494897427831779</v>
       </c>
-      <c r="AN4" s="17">
-        <f>MIN($AL4,AN$1)+SQRT($AL4*AN$1)</f>
+      <c r="AN4" s="16">
+        <f t="shared" si="8"/>
         <v>8.8989794855663558</v>
       </c>
-      <c r="AO4" s="17">
-        <f>MIN($AL4,AO$1)+SQRT($AL4*AO$1)</f>
+      <c r="AO4" s="16">
+        <f t="shared" ref="AO4:AO10" si="10">MIN($AL4,AO$1)+SQRT($AL4*AO$1)</f>
         <v>12</v>
       </c>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="17"/>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
       <c r="AW4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AX4" s="17">
-        <f t="shared" si="6"/>
+      <c r="AX4" s="16">
+        <f t="shared" si="9"/>
         <v>50.528750000000002</v>
       </c>
-      <c r="AY4" s="17">
+      <c r="AY4" s="16">
         <f>600000+2868750</f>
         <v>3468750</v>
       </c>
-      <c r="AZ4" s="17">
+      <c r="AZ4" s="16">
         <v>47000000</v>
       </c>
-      <c r="BA4" s="17">
+      <c r="BA4" s="16">
         <v>60000</v>
       </c>
     </row>
@@ -2490,98 +2876,98 @@
       <c r="D5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="17">
-        <f>INDEX(dish_ranges,MATCH(C5,dish_names,))</f>
+      <c r="E5" s="16">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F5" s="17">
-        <f>INDEX(dish_ranges,MATCH(D5,dish_names,))</f>
+      <c r="F5" s="16">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G5" s="17">
-        <f t="shared" si="0"/>
+      <c r="G5" s="16">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>16</v>
       </c>
-      <c r="I5" s="17">
-        <f t="shared" si="1"/>
+      <c r="I5" s="16">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="16">
         <v>8</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="16">
         <v>10</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="16">
         <v>50</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="16">
         <f>(L5/L4)^2*Q4</f>
         <v>320</v>
       </c>
-      <c r="R5" s="18">
-        <f t="shared" si="2"/>
+      <c r="R5" s="17">
+        <f t="shared" si="4"/>
         <v>320</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.8888960000000003E-2</v>
       </c>
       <c r="T5" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.3333376000000001</v>
       </c>
-      <c r="AL5" s="18">
+      <c r="AL5" s="17">
         <v>8</v>
       </c>
-      <c r="AM5" s="17">
-        <f t="shared" si="5"/>
+      <c r="AM5" s="16">
+        <f t="shared" si="7"/>
         <v>3.8284271247461903</v>
       </c>
-      <c r="AN5" s="17">
-        <f>MIN($AL5,AN$1)+SQRT($AL5*AN$1)</f>
+      <c r="AN5" s="16">
+        <f t="shared" si="8"/>
         <v>9.6568542494923797</v>
       </c>
-      <c r="AO5" s="17">
-        <f>MIN($AL5,AO$1)+SQRT($AL5*AO$1)</f>
+      <c r="AO5" s="16">
+        <f t="shared" si="10"/>
         <v>12.928203230275509</v>
       </c>
-      <c r="AP5" s="26">
-        <f>MIN($AL5,AP$1)+SQRT($AL5*AP$1)</f>
+      <c r="AP5" s="25">
+        <f t="shared" ref="AP5:AP10" si="11">MIN($AL5,AP$1)+SQRT($AL5*AP$1)</f>
         <v>16</v>
       </c>
-      <c r="AQ5" s="17"/>
-      <c r="AR5" s="17"/>
-      <c r="AS5" s="17"/>
-      <c r="AT5" s="17"/>
-      <c r="AU5" s="17"/>
+      <c r="AQ5" s="16"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="16"/>
       <c r="AW5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AX5" s="17">
-        <f t="shared" si="6"/>
+      <c r="AX5" s="16">
+        <f t="shared" si="9"/>
         <v>35386.498168999999</v>
       </c>
-      <c r="AY5" s="17">
+      <c r="AY5" s="16">
         <f>600000+2868750</f>
         <v>3468750</v>
       </c>
-      <c r="AZ5" s="17">
+      <c r="AZ5" s="16">
         <v>21783189163</v>
       </c>
-      <c r="BA5" s="17">
+      <c r="BA5" s="16">
         <v>13599840256</v>
       </c>
     </row>
@@ -2598,104 +2984,104 @@
       <c r="D6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="17">
-        <f>INDEX(dish_ranges,MATCH(C6,dish_names,))</f>
+      <c r="E6" s="16">
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="F6" s="17">
-        <f>INDEX(dish_ranges,MATCH(D6,dish_names,))</f>
+      <c r="F6" s="16">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G6" s="17">
-        <f t="shared" si="0"/>
+      <c r="G6" s="16">
+        <f t="shared" si="2"/>
         <v>290.84271247461902</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <v>90</v>
       </c>
-      <c r="I6" s="17">
-        <f t="shared" si="1"/>
+      <c r="I6" s="16">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="16">
         <v>250</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="16">
         <v>5</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="16">
         <v>120</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="16">
         <f>1.5*Q5</f>
         <v>480</v>
       </c>
-      <c r="R6" s="18">
-        <f t="shared" si="2"/>
+      <c r="R6" s="17">
+        <f t="shared" si="4"/>
         <v>480</v>
       </c>
       <c r="S6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.13333344</v>
       </c>
       <c r="T6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.0000064000000002</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AL6" s="18">
+      <c r="AL6" s="17">
         <v>250</v>
       </c>
-      <c r="AM6" s="26">
-        <f t="shared" si="5"/>
+      <c r="AM6" s="25">
+        <f t="shared" si="7"/>
         <v>16.811388300841898</v>
       </c>
-      <c r="AN6" s="17">
-        <f>MIN($AL6,AN$1)+SQRT($AL6*AN$1)</f>
+      <c r="AN6" s="16">
+        <f t="shared" si="8"/>
         <v>35.622776601683796</v>
       </c>
-      <c r="AO6" s="17">
-        <f>MIN($AL6,AO$1)+SQRT($AL6*AO$1)</f>
+      <c r="AO6" s="16">
+        <f t="shared" si="10"/>
         <v>44.729833462074168</v>
       </c>
-      <c r="AP6" s="23">
-        <f>MIN($AL6,AP$1)+SQRT($AL6*AP$1)</f>
+      <c r="AP6" s="22">
+        <f t="shared" si="11"/>
         <v>52.721359549995796</v>
       </c>
-      <c r="AQ6" s="17">
+      <c r="AQ6" s="16">
         <f>MIN($AL6,AQ$1)+SQRT($AL6*AQ$1)</f>
         <v>500</v>
       </c>
-      <c r="AR6" s="17"/>
-      <c r="AS6" s="17"/>
-      <c r="AT6" s="17"/>
-      <c r="AU6" s="17"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16"/>
       <c r="AW6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AX6" s="17">
-        <f t="shared" si="6"/>
+      <c r="AX6" s="16">
+        <f t="shared" si="9"/>
         <v>85815.547393000001</v>
       </c>
-      <c r="AY6" s="17">
+      <c r="AY6" s="16">
         <f>600000+2868750</f>
         <v>3468750</v>
       </c>
-      <c r="AZ6" s="17">
+      <c r="AZ6" s="16">
         <v>72212238387</v>
       </c>
-      <c r="BA6" s="17">
+      <c r="BA6" s="16">
         <v>13599840256</v>
       </c>
     </row>
@@ -2712,106 +3098,106 @@
       <c r="D7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="17">
-        <f>INDEX(dish_ranges,MATCH(C7,dish_names,))</f>
+      <c r="E7" s="16">
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="F7" s="17">
-        <f>INDEX(dish_ranges,MATCH(D7,dish_names,))</f>
+      <c r="F7" s="16">
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="G7" s="17">
-        <f t="shared" si="0"/>
+      <c r="G7" s="16">
+        <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <v>20000</v>
       </c>
-      <c r="I7" s="17">
-        <f t="shared" si="1"/>
+      <c r="I7" s="16">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="16">
         <v>10000</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="16">
         <v>1</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="16">
         <f>N6*1.5</f>
         <v>180</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17" t="s">
+      <c r="O7" s="16"/>
+      <c r="P7" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="16">
         <f>1.5*Q6</f>
         <v>720</v>
       </c>
-      <c r="R7" s="18">
-        <f t="shared" si="2"/>
+      <c r="R7" s="17">
+        <f t="shared" si="4"/>
         <v>720</v>
       </c>
       <c r="S7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.20000016000000001</v>
       </c>
       <c r="T7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12.0000096</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AL7" s="18">
+      <c r="AL7" s="17">
         <v>10000</v>
       </c>
-      <c r="AM7" s="23">
-        <f t="shared" si="5"/>
+      <c r="AM7" s="22">
+        <f t="shared" si="7"/>
         <v>101</v>
       </c>
-      <c r="AN7" s="17">
-        <f>MIN($AL7,AN$1)+SQRT($AL7*AN$1)</f>
+      <c r="AN7" s="16">
+        <f t="shared" si="8"/>
         <v>204</v>
       </c>
-      <c r="AO7" s="17">
-        <f>MIN($AL7,AO$1)+SQRT($AL7*AO$1)</f>
+      <c r="AO7" s="16">
+        <f t="shared" si="10"/>
         <v>250.94897427831782</v>
       </c>
-      <c r="AP7" s="17">
-        <f>MIN($AL7,AP$1)+SQRT($AL7*AP$1)</f>
+      <c r="AP7" s="16">
+        <f t="shared" si="11"/>
         <v>290.84271247461902</v>
       </c>
-      <c r="AQ7" s="17">
+      <c r="AQ7" s="16">
         <f>MIN($AL7,AQ$1)+SQRT($AL7*AQ$1)</f>
         <v>1831.1388300841897</v>
       </c>
-      <c r="AR7" s="17">
+      <c r="AR7" s="16">
         <f>MIN($AL7,AR$1)+SQRT($AL7*AR$1)</f>
         <v>20000</v>
       </c>
-      <c r="AS7" s="17"/>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="17"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
       <c r="AW7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AX7" s="17">
-        <f t="shared" si="6"/>
+      <c r="AX7" s="16">
+        <f t="shared" si="9"/>
         <v>127153.02220599999</v>
       </c>
-      <c r="AY7" s="17">
+      <c r="AY7" s="16">
         <f>600000+2868750</f>
         <v>3468750</v>
       </c>
-      <c r="AZ7" s="17">
+      <c r="AZ7" s="16">
         <v>113549713200</v>
       </c>
-      <c r="BA7" s="17">
+      <c r="BA7" s="16">
         <v>13599840256</v>
       </c>
     </row>
@@ -2828,94 +3214,94 @@
       <c r="D8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="17">
-        <f>INDEX(dish_ranges,MATCH(C8,dish_names,))</f>
+      <c r="E8" s="16">
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="F8" s="17">
-        <f>INDEX(dish_ranges,MATCH(D8,dish_names,))</f>
+      <c r="F8" s="16">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G8" s="17">
-        <f t="shared" si="0"/>
+      <c r="G8" s="16">
+        <f t="shared" si="2"/>
         <v>44.729833462074168</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <v>15.668749999999999</v>
       </c>
-      <c r="I8" s="17">
-        <f t="shared" si="1"/>
+      <c r="I8" s="16">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="16">
         <v>65000</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="31">
         <v>0.1</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="16">
         <v>275</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17" t="s">
+      <c r="O8" s="16"/>
+      <c r="P8" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="16">
         <f>1.5*Q7</f>
         <v>1080</v>
       </c>
-      <c r="R8" s="18">
-        <f t="shared" si="2"/>
+      <c r="R8" s="17">
+        <f t="shared" si="4"/>
         <v>1080</v>
       </c>
       <c r="S8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.30000024000000003</v>
       </c>
       <c r="T8" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18.000014400000001</v>
       </c>
       <c r="V8" s="1">
         <f>1/3600</f>
         <v>2.7777777777777778E-4</v>
       </c>
-      <c r="AL8" s="18">
+      <c r="AL8" s="17">
         <v>65000</v>
       </c>
-      <c r="AM8" s="17">
-        <f t="shared" si="5"/>
+      <c r="AM8" s="16">
+        <f t="shared" si="7"/>
         <v>255.95097567963924</v>
       </c>
-      <c r="AN8" s="17">
-        <f>MIN($AL8,AN$1)+SQRT($AL8*AN$1)</f>
+      <c r="AN8" s="16">
+        <f t="shared" si="8"/>
         <v>513.90195135927843</v>
       </c>
-      <c r="AO8" s="17">
-        <f>MIN($AL8,AO$1)+SQRT($AL8*AO$1)</f>
+      <c r="AO8" s="16">
+        <f t="shared" si="10"/>
         <v>630.49979983983985</v>
       </c>
-      <c r="AP8" s="17">
-        <f>MIN($AL8,AP$1)+SQRT($AL8*AP$1)</f>
+      <c r="AP8" s="16">
+        <f t="shared" si="11"/>
         <v>729.11025509279784</v>
       </c>
-      <c r="AQ8" s="17">
+      <c r="AQ8" s="16">
         <f>MIN($AL8,AQ$1)+SQRT($AL8*AQ$1)</f>
         <v>4281.1288741492754</v>
       </c>
-      <c r="AR8" s="24">
+      <c r="AR8" s="23">
         <f>MIN($AL8,AR$1)+SQRT($AL8*AR$1)</f>
         <v>35495.097567963923</v>
       </c>
-      <c r="AS8" s="17">
+      <c r="AS8" s="16">
         <f>MIN($AL8,AS$1)+SQRT($AL8*AS$1)</f>
         <v>130000</v>
       </c>
-      <c r="AT8" s="17"/>
-      <c r="AU8" s="17"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2930,93 +3316,93 @@
       <c r="D9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="17">
-        <f>INDEX(dish_ranges,MATCH(C9,dish_names,))</f>
+      <c r="E9" s="16">
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="F9" s="17">
-        <f>INDEX(dish_ranges,MATCH(D9,dish_names,))</f>
+      <c r="F9" s="16">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G9" s="17">
-        <f t="shared" si="0"/>
+      <c r="G9" s="16">
+        <f t="shared" si="2"/>
         <v>250.94897427831782</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <v>50.528750000000002</v>
       </c>
-      <c r="I9" s="17">
-        <f t="shared" si="1"/>
+      <c r="I9" s="16">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="16">
         <v>575000</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="32">
         <v>0.01</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="16">
         <v>400</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17" t="s">
+      <c r="O9" s="16"/>
+      <c r="P9" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="16">
         <f>1.5*Q8</f>
         <v>1620</v>
       </c>
-      <c r="R9" s="18">
-        <f t="shared" si="2"/>
+      <c r="R9" s="17">
+        <f t="shared" si="4"/>
         <v>1620</v>
       </c>
       <c r="S9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.45000035999999999</v>
       </c>
       <c r="T9" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>27.0000216</v>
       </c>
-      <c r="AL9" s="18">
+      <c r="AL9" s="17">
         <v>575000</v>
       </c>
-      <c r="AM9" s="17">
-        <f t="shared" si="5"/>
+      <c r="AM9" s="16">
+        <f t="shared" si="7"/>
         <v>759.28754440515502</v>
       </c>
-      <c r="AN9" s="17">
-        <f>MIN($AL9,AN$1)+SQRT($AL9*AN$1)</f>
+      <c r="AN9" s="16">
+        <f t="shared" si="8"/>
         <v>1520.57508881031</v>
       </c>
-      <c r="AO9" s="17">
-        <f>MIN($AL9,AO$1)+SQRT($AL9*AO$1)</f>
+      <c r="AO9" s="16">
+        <f t="shared" si="10"/>
         <v>1863.4175621006709</v>
       </c>
-      <c r="AP9" s="17">
-        <f>MIN($AL9,AP$1)+SQRT($AL9*AP$1)</f>
+      <c r="AP9" s="16">
+        <f t="shared" si="11"/>
         <v>2152.7610589527217</v>
       </c>
-      <c r="AQ9" s="17">
+      <c r="AQ9" s="16">
         <f>MIN($AL9,AQ$1)+SQRT($AL9*AQ$1)</f>
         <v>12239.578808281798</v>
       </c>
-      <c r="AR9" s="28">
+      <c r="AR9" s="27">
         <f>MIN($AL9,AR$1)+SQRT($AL9*AR$1)</f>
         <v>85828.754440515506</v>
       </c>
-      <c r="AS9" s="17">
+      <c r="AS9" s="16">
         <f>MIN($AL9,AS$1)+SQRT($AL9*AS$1)</f>
         <v>258326.14929181203</v>
       </c>
-      <c r="AT9" s="17">
+      <c r="AT9" s="16">
         <f>MIN($AL9,AT$1)+SQRT($AL9*AT$1)</f>
         <v>1150000</v>
       </c>
-      <c r="AU9" s="17"/>
+      <c r="AU9" s="16"/>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -3031,68 +3417,68 @@
       <c r="D10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="17">
-        <f>INDEX(dish_ranges,MATCH(C10,dish_names,))</f>
+      <c r="E10" s="16">
+        <f t="shared" si="0"/>
         <v>65000</v>
       </c>
-      <c r="F10" s="17">
-        <f>INDEX(dish_ranges,MATCH(D10,dish_names,))</f>
+      <c r="F10" s="16">
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="G10" s="17">
-        <f t="shared" si="0"/>
+      <c r="G10" s="16">
+        <f t="shared" si="2"/>
         <v>35495.097567963923</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <v>35386.498168999999</v>
       </c>
-      <c r="I10" s="17">
-        <f t="shared" si="1"/>
+      <c r="I10" s="16">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="31"/>
-      <c r="AL10" s="18">
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="30"/>
+      <c r="AL10" s="17">
         <v>1000000</v>
       </c>
-      <c r="AM10" s="17">
-        <f t="shared" si="5"/>
+      <c r="AM10" s="16">
+        <f t="shared" si="7"/>
         <v>1001</v>
       </c>
-      <c r="AN10" s="17">
-        <f>MIN($AL10,AN$1)+SQRT($AL10*AN$1)</f>
+      <c r="AN10" s="16">
+        <f t="shared" si="8"/>
         <v>2004</v>
       </c>
-      <c r="AO10" s="17">
-        <f>MIN($AL10,AO$1)+SQRT($AL10*AO$1)</f>
+      <c r="AO10" s="16">
+        <f t="shared" si="10"/>
         <v>2455.4897427831779</v>
       </c>
-      <c r="AP10" s="17">
-        <f>MIN($AL10,AP$1)+SQRT($AL10*AP$1)</f>
+      <c r="AP10" s="16">
+        <f t="shared" si="11"/>
         <v>2836.4271247461902</v>
       </c>
-      <c r="AQ10" s="17">
+      <c r="AQ10" s="16">
         <f>MIN($AL10,AQ$1)+SQRT($AL10*AQ$1)</f>
         <v>16061.388300841896</v>
       </c>
-      <c r="AR10" s="17">
+      <c r="AR10" s="16">
         <f>MIN($AL10,AR$1)+SQRT($AL10*AR$1)</f>
         <v>110000</v>
       </c>
-      <c r="AS10" s="17">
+      <c r="AS10" s="16">
         <f>MIN($AL10,AS$1)+SQRT($AL10*AS$1)</f>
         <v>319950.97567963926</v>
       </c>
-      <c r="AT10" s="17">
+      <c r="AT10" s="16">
         <f>MIN($AL10,AT$1)+SQRT($AL10*AT$1)</f>
         <v>1333287.5444051549</v>
       </c>
-      <c r="AU10" s="17">
+      <c r="AU10" s="16">
         <f>MIN($AL10,AU$1)+SQRT($AL10*AU$1)</f>
         <v>2000000</v>
       </c>
@@ -3110,37 +3496,37 @@
       <c r="D11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="17">
-        <f>INDEX(dish_ranges,MATCH(C11,dish_names,))</f>
+      <c r="E11" s="16">
+        <f t="shared" si="0"/>
         <v>575000</v>
       </c>
-      <c r="F11" s="17">
-        <f>INDEX(dish_ranges,MATCH(D11,dish_names,))</f>
+      <c r="F11" s="16">
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="G11" s="17">
-        <f t="shared" si="0"/>
+      <c r="G11" s="16">
+        <f t="shared" si="2"/>
         <v>85828.754440515506</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <v>85815.547393000001</v>
       </c>
-      <c r="I11" s="17">
-        <f t="shared" si="1"/>
+      <c r="I11" s="16">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="16">
         <v>1000000</v>
       </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -3155,23 +3541,23 @@
       <c r="D12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="17">
-        <f>INDEX(dish_ranges,MATCH(C12,dish_names,))</f>
+      <c r="E12" s="16">
+        <f t="shared" si="0"/>
         <v>575000</v>
       </c>
-      <c r="F12" s="17">
-        <f>INDEX(dish_ranges,MATCH(D12,dish_names,))</f>
+      <c r="F12" s="16">
+        <f t="shared" si="1"/>
         <v>65000</v>
       </c>
-      <c r="G12" s="17">
-        <f t="shared" ref="G12" si="7">MIN(E12:F12)+SQRT(E12*F12)</f>
+      <c r="G12" s="16">
+        <f t="shared" ref="G12" si="12">MIN(E12:F12)+SQRT(E12*F12)</f>
         <v>258326.14929181203</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <v>127153.02220599999</v>
       </c>
-      <c r="I12" s="17">
-        <f t="shared" si="1"/>
+      <c r="I12" s="16">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R12" s="1" t="s">
@@ -3179,10 +3565,10 @@
       </c>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
       <c r="Q13" s="1" t="s">
         <v>117</v>
       </c>
@@ -3194,11 +3580,17 @@
       </c>
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="Q14" s="34">
+      <c r="B14" s="2">
+        <v>4.51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="Q14" s="33">
         <v>0.01</v>
       </c>
       <c r="R14" s="1">
@@ -3210,140 +3602,211 @@
       </c>
     </row>
     <row r="15" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="B15" s="1">
+        <f>B14*3600</f>
+        <v>16236</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>K5</f>
+        <v>dish 2</v>
+      </c>
+      <c r="G15" s="1">
+        <f>2*R5</f>
+        <v>640</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
       <c r="R15" s="1">
         <v>16</v>
       </c>
       <c r="S15" s="5">
-        <f t="shared" ref="S15:S21" si="8">R15*TAN(RADIANS(Q$14))</f>
+        <f t="shared" ref="S15:S21" si="13">R15*TAN(RADIANS(Q$14))</f>
         <v>2.7925268315460048E-3</v>
       </c>
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="E16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" ref="F16:F17" si="14">K6</f>
+        <v>dish 3</v>
+      </c>
+      <c r="G16" s="1">
+        <f>2*R6</f>
+        <v>960</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
       <c r="R16" s="1">
         <v>50</v>
       </c>
       <c r="S16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>8.7266463485812656E-3</v>
       </c>
     </row>
-    <row r="17" spans="12:38" x14ac:dyDescent="0.25">
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>dish 4</v>
+      </c>
+      <c r="G17" s="1">
+        <f>2*R7</f>
+        <v>1440</v>
+      </c>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
       <c r="R17" s="1">
         <v>90</v>
       </c>
       <c r="S17" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.5707963427446278E-2</v>
       </c>
     </row>
-    <row r="18" spans="12:38" x14ac:dyDescent="0.25">
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <f>60*B17</f>
+        <v>450</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="1">
+        <f>SUM(G15:G17)</f>
+        <v>3040</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
       <c r="R18" s="1">
         <v>20000</v>
       </c>
       <c r="S18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3.490658539432506</v>
       </c>
     </row>
-    <row r="19" spans="12:38" x14ac:dyDescent="0.25">
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="1">
+        <f>G18+450</f>
+        <v>3490</v>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
       <c r="R19" s="1">
         <v>36000</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6.2831853709785106</v>
       </c>
     </row>
-    <row r="20" spans="12:38" x14ac:dyDescent="0.25">
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="4">
+        <f>G19/3600</f>
+        <v>0.96944444444444444</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
       <c r="R20" s="1">
         <v>86000</v>
       </c>
       <c r="S20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>15.009831719559775</v>
       </c>
     </row>
-    <row r="21" spans="12:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="R21" s="1">
         <v>128000</v>
       </c>
       <c r="S21" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>22.34021465236804</v>
       </c>
     </row>
-    <row r="22" spans="12:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
       <c r="S22" s="5"/>
     </row>
-    <row r="23" spans="12:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
       <c r="S23" s="5"/>
-      <c r="AJ23" s="17"/>
-      <c r="AK23" s="17"/>
-    </row>
-    <row r="24" spans="12:38" x14ac:dyDescent="0.25">
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="16"/>
+    </row>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
       <c r="S24" s="5"/>
     </row>
-    <row r="25" spans="12:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="S25" s="5"/>
     </row>
-    <row r="26" spans="12:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
       <c r="S26" s="5"/>
     </row>
-    <row r="27" spans="12:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
       <c r="S27" s="5"/>
     </row>
-    <row r="28" spans="12:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
       <c r="S28" s="5"/>
     </row>
-    <row r="29" spans="12:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
       <c r="S29" s="5"/>
     </row>
-    <row r="30" spans="12:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
       <c r="S30" s="5"/>
     </row>
-    <row r="31" spans="12:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
       <c r="S31" s="5"/>
-      <c r="AL31" s="17"/>
-    </row>
-    <row r="32" spans="12:38" x14ac:dyDescent="0.25">
+      <c r="AL31" s="16"/>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="S32" s="5"/>
-      <c r="AL32" s="17"/>
+      <c r="AL32" s="16"/>
     </row>
     <row r="33" spans="38:38" x14ac:dyDescent="0.25">
-      <c r="AL33" s="17"/>
+      <c r="AL33" s="16"/>
     </row>
     <row r="34" spans="38:38" x14ac:dyDescent="0.25">
-      <c r="AL34" s="17"/>
+      <c r="AL34" s="16"/>
     </row>
     <row r="35" spans="38:38" x14ac:dyDescent="0.25">
-      <c r="AL35" s="17"/>
+      <c r="AL35" s="16"/>
     </row>
     <row r="36" spans="38:38" x14ac:dyDescent="0.25">
-      <c r="AL36" s="17"/>
+      <c r="AL36" s="16"/>
     </row>
   </sheetData>
   <sortState ref="AL24:AL36">
@@ -3355,10 +3818,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3377,7 +3840,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -3421,127 +3884,145 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <f>N2+O2</f>
         <v>3321.9595450249772</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <f>C2</f>
         <v>3321.9595450249772</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <v>600000</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="17">
         <v>670000</v>
       </c>
       <c r="H2" s="1">
         <f>AVERAGE(F2:G2)</f>
         <v>635000</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="20">
         <v>3531600000000</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="16">
         <f>SQRT(I2*(2/F2-1/H2))</f>
         <v>2492.0724702244102</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="16">
         <f>SQRT(I2*(2/G2-1/H2))</f>
         <v>2231.7066897532031</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="17">
         <v>174.53292519943295</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="17">
         <f>J2</f>
         <v>2492.0724702244102</v>
       </c>
-      <c r="N2" s="17">
+      <c r="N2" s="16">
         <f>M2-L2</f>
         <v>2317.5395450249771</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="17">
         <f>200+9.81*82</f>
         <v>1004.4200000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <f t="shared" ref="C3:C5" si="0">N3+O3</f>
         <v>64.168911432410368</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <f>C3+D2</f>
         <v>3386.1284564573875</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>670000</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="17">
         <v>670000</v>
       </c>
       <c r="H3" s="1">
         <f>AVERAGE(F3:G3)</f>
         <v>670000</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="20">
         <v>3531600000000</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="16">
         <f>SQRT(I3*(2/F3-1/H3))</f>
         <v>2295.8756011856135</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="16">
         <f>SQRT(I3*(2/G3-1/H3))</f>
         <v>2295.8756011856135</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="17">
         <f>K2</f>
         <v>2231.7066897532031</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="17">
         <f>K3</f>
         <v>2295.8756011856135</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="16">
         <f>M3-L3</f>
         <v>64.168911432410368</v>
       </c>
-      <c r="O3" s="18"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3" s="17"/>
+      <c r="Q3" s="39">
+        <v>2223</v>
+      </c>
+      <c r="R3" s="39">
+        <v>71</v>
+      </c>
+      <c r="S3" s="39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <f t="shared" si="0"/>
         <v>676.5791616769734</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <f>C4+D3</f>
         <v>4062.7076181343609</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>670000</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="17">
         <f>600000+2868750</f>
         <v>3468750</v>
       </c>
@@ -3549,51 +4030,60 @@
         <f>AVERAGE(F4:G4)</f>
         <v>2069375</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="20">
         <v>3531600000000</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="16">
         <f>SQRT(I4*(2/F4-1/H4))</f>
         <v>2972.4547628625869</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="16">
         <f>SQRT(I4*(2/G4-1/H4))</f>
         <v>574.1390100520166</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="17">
         <f>J3</f>
         <v>2295.8756011856135</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="17">
         <f>J4</f>
         <v>2972.4547628625869</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="16">
         <f>M4-L4</f>
         <v>676.5791616769734</v>
       </c>
-      <c r="O4" s="18"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="17"/>
+      <c r="Q4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <f t="shared" si="0"/>
         <v>434.87978011936514</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <f>C5+D4</f>
         <v>4497.587398253726</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <f>600000+2868750</f>
         <v>3468750</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <f>600000+2868750</f>
         <v>3468750</v>
       </c>
@@ -3601,283 +4091,409 @@
         <f>AVERAGE(F5:G5)</f>
         <v>3468750</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <v>3531600000000</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <f>SQRT(I5*(2/F5-1/H5))</f>
         <v>1009.0187901713817</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="16">
         <f>SQRT(I5*(2/G5-1/H5))</f>
         <v>1009.0187901713817</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="17">
         <f>K4</f>
         <v>574.1390100520166</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="17">
         <f>J5</f>
         <v>1009.0187901713817</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="16">
         <f>M5-L5</f>
         <v>434.87978011936514</v>
       </c>
-      <c r="O5" s="18"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="17"/>
+      <c r="Q5" s="6">
+        <f>9.81*R3*98%</f>
+        <v>682.57979999999998</v>
+      </c>
+      <c r="R5" s="6">
+        <f>Q3-Q5</f>
+        <v>1540.4202</v>
+      </c>
+      <c r="S5" s="6">
+        <f>70%*R5</f>
+        <v>1078.29414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q6" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <f>N7+O7</f>
         <v>863.96857272284706</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <f>C7</f>
         <v>863.96857272284706</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>670000</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>12000000</v>
       </c>
       <c r="H7" s="1">
         <f>AVERAGE(F7:G7)</f>
         <v>6335000</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="20">
         <v>3531600000000</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="16">
         <f>SQRT(I7*(2/F7-1/H7))</f>
         <v>3159.8441739084606</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="16">
         <f>SQRT(I7*(2/G7-1/H7))</f>
         <v>176.42463304322249</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="17">
         <f>J3</f>
         <v>2295.8756011856135</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="17">
         <f>J7</f>
         <v>3159.8441739084606</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="16">
         <f>M7-L7</f>
         <v>863.96857272284706</v>
       </c>
-      <c r="O7" s="18"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O7" s="17"/>
+      <c r="Q7" s="37">
+        <f>S3*R3^2</f>
+        <v>50410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <f t="shared" ref="C9:C10" si="1">N9+O9</f>
         <v>603.612064514905</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <f>C9</f>
         <v>603.612064514905</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>200000</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <v>210000</v>
       </c>
       <c r="H9" s="1">
         <f>AVERAGE(F9:G9)</f>
         <v>205000</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="20">
         <v>65138398000</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="16">
         <f>SQRT(I9*(2/F9-1/H9))</f>
         <v>577.612064514905</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="16">
         <f>SQRT(I9*(2/G9-1/H9))</f>
         <v>550.10672810943322</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="17">
         <v>9</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="17">
         <f>J9</f>
         <v>577.612064514905</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="16">
         <f>M9-L9</f>
         <v>568.612064514905</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="17">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <f t="shared" si="1"/>
         <v>6.8338859770666431</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <f>C10+D9</f>
         <v>610.44595049197164</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>210000</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <v>210000</v>
       </c>
       <c r="H10" s="1">
         <f>AVERAGE(F10:G10)</f>
         <v>210000</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="20">
         <v>65138398000</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="16">
         <f>SQRT(I10*(2/F10-1/H10))</f>
         <v>556.94061408649986</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="16">
         <f>SQRT(I10*(2/G10-1/H10))</f>
         <v>556.94061408649986</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="17">
         <f>K9</f>
         <v>550.10672810943322</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="17">
         <f>J10</f>
         <v>556.94061408649986</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="16">
         <f>M10-L10</f>
         <v>6.8338859770666431</v>
       </c>
-      <c r="O10" s="18"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="17"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="22">
-        <f t="shared" ref="C12:C13" si="2">N12+O12</f>
+      <c r="C12" s="21">
+        <f t="shared" ref="C12" si="2">N12+O12</f>
         <v>6077.7618656919749</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <f>C12</f>
         <v>6077.7618656919749</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <v>700000</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>800000</v>
       </c>
       <c r="H12" s="1">
         <f>AVERAGE(F12:G12)</f>
         <v>750000</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="20">
         <v>8171730200000</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="16">
         <f>SQRT(I12*(2/F12-1/H12))</f>
         <v>3528.7618656919744</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="16">
         <f>SQRT(I12*(2/G12-1/H12))</f>
         <v>3087.6666324804778</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="17">
         <v>55</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="17">
         <f>J12</f>
         <v>3528.7618656919744</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="16">
         <f>M12-L12</f>
         <v>3473.7618656919744</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="17">
         <f>200*3+16.7*120</f>
         <v>2604</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <f t="shared" ref="C13" si="3">N13+O13</f>
         <v>108.37197022756845</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <f>C13+D12</f>
         <v>6186.1338359195433</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <v>800000</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <v>800000</v>
       </c>
       <c r="H13" s="1">
         <f>AVERAGE(F13:G13)</f>
         <v>800000</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="20">
         <v>8171730200000</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="16">
         <f>SQRT(I13*(2/F13-1/H13))</f>
         <v>3196.0386027080463</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="16">
         <f>SQRT(I13*(2/G13-1/H13))</f>
         <v>3196.0386027080463</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="17">
         <f>K12</f>
         <v>3087.6666324804778</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="17">
         <f>J13</f>
         <v>3196.0386027080463</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="16">
         <f>M13-L13</f>
         <v>108.37197022756845</v>
       </c>
-      <c r="O13" s="18"/>
+      <c r="O13" s="17"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="21">
+        <f>N15+O15</f>
+        <v>3997.8575396817419</v>
+      </c>
+      <c r="D15" s="21">
+        <f>C15</f>
+        <v>3997.8575396817419</v>
+      </c>
+      <c r="F15" s="17">
+        <v>600000</v>
+      </c>
+      <c r="G15" s="17">
+        <f>600000+2868750</f>
+        <v>3468750</v>
+      </c>
+      <c r="H15" s="1">
+        <f>AVERAGE(F15:G15)</f>
+        <v>2034375</v>
+      </c>
+      <c r="I15" s="20">
+        <v>3531600000000</v>
+      </c>
+      <c r="J15" s="16">
+        <f>SQRT(I15*(2/F15-1/H15))</f>
+        <v>3167.9704648811748</v>
+      </c>
+      <c r="K15" s="16">
+        <f>SQRT(I15*(2/G15-1/H15))</f>
+        <v>547.97326960106784</v>
+      </c>
+      <c r="L15" s="17">
+        <v>174.53292519943295</v>
+      </c>
+      <c r="M15" s="17">
+        <f>J15</f>
+        <v>3167.9704648811748</v>
+      </c>
+      <c r="N15" s="16">
+        <f>M15-L15</f>
+        <v>2993.4375396817418</v>
+      </c>
+      <c r="O15" s="17">
+        <f>200+9.81*82</f>
+        <v>1004.4200000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="21">
+        <f>N16+O16</f>
+        <v>461.0455205703139</v>
+      </c>
+      <c r="D16" s="21">
+        <f>C16</f>
+        <v>461.0455205703139</v>
+      </c>
+      <c r="F16" s="17">
+        <f>600000+2868750</f>
+        <v>3468750</v>
+      </c>
+      <c r="G16" s="17">
+        <f>600000+2868750</f>
+        <v>3468750</v>
+      </c>
+      <c r="H16" s="1">
+        <f>AVERAGE(F16:G16)</f>
+        <v>3468750</v>
+      </c>
+      <c r="I16" s="20">
+        <v>3531600000000</v>
+      </c>
+      <c r="J16" s="16">
+        <f>SQRT(I16*(2/F16-1/H16))</f>
+        <v>1009.0187901713817</v>
+      </c>
+      <c r="K16" s="16">
+        <f>SQRT(I16*(2/G16-1/H16))</f>
+        <v>1009.0187901713817</v>
+      </c>
+      <c r="L16" s="17">
+        <f>K15</f>
+        <v>547.97326960106784</v>
+      </c>
+      <c r="M16" s="17">
+        <f>J16</f>
+        <v>1009.0187901713817</v>
+      </c>
+      <c r="N16" s="16">
+        <f>M16-L16</f>
+        <v>461.0455205703139</v>
+      </c>
+      <c r="O16" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3886,10 +4502,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="R7" sqref="Q2:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3910,35 +4526,35 @@
       <c r="D1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="30">
+      <c r="E1" s="29">
         <v>0.6</v>
       </c>
-      <c r="F1" s="30">
-        <f>5%+E1</f>
+      <c r="F1" s="29">
+        <f t="shared" ref="F1:L1" si="0">5%+E1</f>
         <v>0.65</v>
       </c>
-      <c r="G1" s="30">
-        <f>5%+F1</f>
+      <c r="G1" s="29">
+        <f t="shared" si="0"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="H1" s="30">
-        <f>5%+G1</f>
+      <c r="H1" s="29">
+        <f t="shared" si="0"/>
         <v>0.75000000000000011</v>
       </c>
-      <c r="I1" s="30">
-        <f>5%+H1</f>
+      <c r="I1" s="29">
+        <f t="shared" si="0"/>
         <v>0.80000000000000016</v>
       </c>
-      <c r="J1" s="30">
-        <f>5%+I1</f>
+      <c r="J1" s="29">
+        <f t="shared" si="0"/>
         <v>0.8500000000000002</v>
       </c>
-      <c r="K1" s="30">
-        <f>5%+J1</f>
+      <c r="K1" s="29">
+        <f t="shared" si="0"/>
         <v>0.90000000000000024</v>
       </c>
-      <c r="L1" s="30">
-        <f>5%+K1</f>
+      <c r="L1" s="29">
+        <f t="shared" si="0"/>
         <v>0.95000000000000029</v>
       </c>
     </row>
@@ -3958,41 +4574,89 @@
         <v>613.59231515425654</v>
       </c>
       <c r="E2" s="6">
-        <f>$D2*E1</f>
+        <f>$D2*E$1</f>
         <v>368.15538909255389</v>
       </c>
       <c r="F2" s="6">
-        <f t="shared" ref="F2:K2" si="0">$D2*F1</f>
+        <f t="shared" ref="F2:L3" si="1">$D2*F$1</f>
         <v>398.83500485026678</v>
       </c>
       <c r="G2" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>429.51462060797962</v>
       </c>
       <c r="H2" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>460.19423636569246</v>
       </c>
       <c r="I2" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>490.8738521234053</v>
       </c>
       <c r="J2" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>521.55346788111819</v>
       </c>
       <c r="K2" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>552.23308363883109</v>
       </c>
       <c r="L2" s="6">
-        <f>$D2*L1</f>
+        <f t="shared" si="1"/>
         <v>582.91269939654387</v>
       </c>
     </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="C3" s="1">
+        <f>A3/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="D3" s="6">
+        <f>PI()*C3^2*B3*1000</f>
+        <v>23316.507975861747</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:L3" si="2">$D3*E$1</f>
+        <v>13989.904785517048</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="1"/>
+        <v>15155.730184310136</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="1"/>
+        <v>16321.555583103223</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="1"/>
+        <v>17487.380981896313</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" si="1"/>
+        <v>18653.2063806894</v>
+      </c>
+      <c r="J3" s="12">
+        <f t="shared" si="1"/>
+        <v>19819.031779482488</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" si="1"/>
+        <v>20984.857178275579</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" si="1"/>
+        <v>22150.682577068666</v>
+      </c>
+    </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>114</v>
+      <c r="A5" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -4000,52 +4664,40 @@
         <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="30">
+      <c r="D6" s="29">
         <v>0.6</v>
       </c>
-      <c r="I6" s="30">
-        <f>5%+H6</f>
+      <c r="E6" s="29">
+        <f t="shared" ref="E6:K6" si="3">5%+D6</f>
         <v>0.65</v>
       </c>
-      <c r="J6" s="30">
-        <f>5%+I6</f>
+      <c r="F6" s="29">
+        <f t="shared" si="3"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="K6" s="30">
-        <f>5%+J6</f>
+      <c r="G6" s="29">
+        <f t="shared" si="3"/>
         <v>0.75000000000000011</v>
       </c>
-      <c r="L6" s="30">
-        <f>5%+K6</f>
+      <c r="H6" s="29">
+        <f t="shared" si="3"/>
         <v>0.80000000000000016</v>
       </c>
-      <c r="M6" s="30">
-        <f>5%+L6</f>
+      <c r="I6" s="29">
+        <f t="shared" si="3"/>
         <v>0.8500000000000002</v>
       </c>
-      <c r="N6" s="30">
-        <f>5%+M6</f>
+      <c r="J6" s="29">
+        <f t="shared" si="3"/>
         <v>0.90000000000000024</v>
       </c>
-      <c r="O6" s="30">
-        <f>5%+N6</f>
+      <c r="K6" s="29">
+        <f t="shared" si="3"/>
         <v>0.95000000000000029</v>
       </c>
     </row>
@@ -4053,212 +4705,664 @@
       <c r="A7" s="2">
         <v>0.5</v>
       </c>
-      <c r="B7" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="1">
         <f>A7/2</f>
         <v>0.25</v>
       </c>
-      <c r="D7" s="1">
-        <f>B7-C7-C7</f>
+      <c r="C7" s="6">
+        <f>4/3*PI()*B7^3*1000</f>
+        <v>65.449846949787357</v>
+      </c>
+      <c r="D7" s="6">
+        <f>$C7*D6</f>
+        <v>39.269908169872416</v>
+      </c>
+      <c r="E7" s="6">
+        <f>$C7*E6</f>
+        <v>42.542400517361784</v>
+      </c>
+      <c r="F7" s="6">
+        <f>$C7*F6</f>
+        <v>45.814892864851153</v>
+      </c>
+      <c r="G7" s="6">
+        <f>$C7*G6</f>
+        <v>49.087385212340529</v>
+      </c>
+      <c r="H7" s="6">
+        <f>$C7*H6</f>
+        <v>52.359877559829897</v>
+      </c>
+      <c r="I7" s="12">
+        <f>$C7*I6</f>
+        <v>55.632369907319266</v>
+      </c>
+      <c r="J7" s="6">
+        <f>$C7*J6</f>
+        <v>58.904862254808634</v>
+      </c>
+      <c r="K7" s="6">
+        <f>$C7*K6</f>
+        <v>62.17735460229801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="I10" s="29">
+        <f t="shared" ref="I10:O10" si="4">5%+H10</f>
+        <v>0.65</v>
+      </c>
+      <c r="J10" s="29">
+        <f t="shared" si="4"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="K10" s="29">
+        <f t="shared" si="4"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="L10" s="29">
+        <f t="shared" si="4"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="M10" s="29">
+        <f t="shared" si="4"/>
+        <v>0.8500000000000002</v>
+      </c>
+      <c r="N10" s="29">
+        <f t="shared" si="4"/>
+        <v>0.90000000000000024</v>
+      </c>
+      <c r="O10" s="29">
+        <f t="shared" si="4"/>
+        <v>0.95000000000000029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C11" s="1">
+        <f>A11/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="1">
+        <f>B11-C11-C11</f>
         <v>1</v>
       </c>
-      <c r="E7" s="6">
-        <f>4/3*PI()*C7^3*1000</f>
+      <c r="E11" s="6">
+        <f>4/3*PI()*C11^3*1000</f>
         <v>65.449846949787357</v>
       </c>
-      <c r="F7" s="6">
-        <f>PI()*C7^2*D7*1000</f>
+      <c r="F11" s="6">
+        <f>PI()*C11^2*D11*1000</f>
         <v>196.34954084936206</v>
       </c>
-      <c r="G7" s="6">
-        <f>E7+F7</f>
+      <c r="G11" s="6">
+        <f>E11+F11</f>
         <v>261.79938779914943</v>
       </c>
-      <c r="H7" s="6">
-        <f>$G7*H$6</f>
+      <c r="H11" s="6">
+        <f>$G11*H$10</f>
         <v>157.07963267948966</v>
       </c>
-      <c r="I7" s="6">
-        <f t="shared" ref="I7:O8" si="1">$G7*I$6</f>
+      <c r="I11" s="6">
+        <f t="shared" ref="I11:O18" si="5">$G11*I$10</f>
         <v>170.16960206944714</v>
       </c>
-      <c r="J7" s="6">
-        <f t="shared" si="1"/>
+      <c r="J11" s="6">
+        <f t="shared" si="5"/>
         <v>183.25957145940461</v>
       </c>
-      <c r="K7" s="6">
-        <f t="shared" si="1"/>
+      <c r="K11" s="6">
+        <f t="shared" si="5"/>
         <v>196.34954084936211</v>
       </c>
-      <c r="L7" s="6">
-        <f t="shared" si="1"/>
+      <c r="L11" s="6">
+        <f t="shared" si="5"/>
         <v>209.43951023931959</v>
       </c>
-      <c r="M7" s="12">
-        <f t="shared" si="1"/>
+      <c r="M11" s="12">
+        <f t="shared" si="5"/>
         <v>222.52947962927706</v>
       </c>
-      <c r="N7" s="6">
-        <f t="shared" si="1"/>
+      <c r="N11" s="6">
+        <f t="shared" si="5"/>
         <v>235.61944901923454</v>
       </c>
-      <c r="O7" s="6">
-        <f t="shared" si="1"/>
+      <c r="O11" s="6">
+        <f t="shared" si="5"/>
         <v>248.70941840919204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="C8" s="1">
-        <f>A8/2</f>
-        <v>0.25</v>
-      </c>
-      <c r="D8" s="1">
-        <f>B8-C8-C8</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="E8" s="6">
-        <f>4/3*PI()*C8^3*1000</f>
-        <v>65.449846949787357</v>
-      </c>
-      <c r="F8" s="6">
-        <f>PI()*C8^2*D8*1000</f>
-        <v>19.634954084936204</v>
-      </c>
-      <c r="G8" s="6">
-        <f>E8+F8</f>
-        <v>85.084801034723569</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" ref="H8:L8" si="2">$G8*H$6</f>
-        <v>51.050880620834143</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" si="1"/>
-        <v>55.305120672570318</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="1"/>
-        <v>59.559360724306501</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="1"/>
-        <v>63.813600776042684</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" si="1"/>
-        <v>68.067840827778866</v>
-      </c>
-      <c r="M8" s="12">
-        <f t="shared" si="1"/>
-        <v>72.322080879515056</v>
-      </c>
-      <c r="N8" s="6">
-        <f t="shared" si="1"/>
-        <v>76.576320931251232</v>
-      </c>
-      <c r="O8" s="6">
-        <f t="shared" si="1"/>
-        <v>80.830560982987421</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="30">
-        <v>0.6</v>
-      </c>
-      <c r="E11" s="30">
-        <f>5%+D11</f>
-        <v>0.65</v>
-      </c>
-      <c r="F11" s="30">
-        <f>5%+E11</f>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="G11" s="30">
-        <f>5%+F11</f>
-        <v>0.75000000000000011</v>
-      </c>
-      <c r="H11" s="30">
-        <f>5%+G11</f>
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="I11" s="30">
-        <f>5%+H11</f>
-        <v>0.8500000000000002</v>
-      </c>
-      <c r="J11" s="30">
-        <f>5%+I11</f>
-        <v>0.90000000000000024</v>
-      </c>
-      <c r="K11" s="30">
-        <f>5%+J11</f>
-        <v>0.95000000000000029</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>0.5</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C12" s="1">
         <f>A12/2</f>
         <v>0.25</v>
       </c>
-      <c r="C12" s="6">
-        <f>4/3*PI()*B12^3*1000</f>
+      <c r="D12" s="1">
+        <f>B12-C12-C12</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <f>4/3*PI()*C12^3*1000</f>
         <v>65.449846949787357</v>
       </c>
-      <c r="D12" s="6">
-        <f>$C12*D11</f>
-        <v>39.269908169872416</v>
-      </c>
-      <c r="E12" s="6">
-        <f>$C12*E11</f>
-        <v>42.542400517361784</v>
-      </c>
       <c r="F12" s="6">
-        <f>$C12*F11</f>
-        <v>45.814892864851153</v>
+        <f>PI()*C12^2*D12*1000</f>
+        <v>19.634954084936204</v>
       </c>
       <c r="G12" s="6">
-        <f>$C12*G11</f>
-        <v>49.087385212340529</v>
+        <f>E12+F12</f>
+        <v>85.084801034723569</v>
       </c>
       <c r="H12" s="6">
-        <f>$C12*H11</f>
-        <v>52.359877559829897</v>
-      </c>
-      <c r="I12" s="12">
-        <f>$C12*I11</f>
-        <v>55.632369907319266</v>
+        <f t="shared" ref="H12:H18" si="6">$G12*H$10</f>
+        <v>51.050880620834143</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="5"/>
+        <v>55.305120672570318</v>
       </c>
       <c r="J12" s="6">
-        <f>$C12*J11</f>
-        <v>58.904862254808634</v>
+        <f t="shared" si="5"/>
+        <v>59.559360724306501</v>
       </c>
       <c r="K12" s="6">
-        <f>$C12*K11</f>
-        <v>62.17735460229801</v>
+        <f t="shared" si="5"/>
+        <v>63.813600776042684</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="5"/>
+        <v>68.067840827778866</v>
+      </c>
+      <c r="M12" s="12">
+        <f t="shared" si="5"/>
+        <v>72.322080879515056</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="5"/>
+        <v>76.576320931251232</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="5"/>
+        <v>80.830560982987421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C13" s="1">
+        <f>A13/2</f>
+        <v>0.15</v>
+      </c>
+      <c r="D13" s="1">
+        <f>B13-C13-C13</f>
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="E13" s="6">
+        <f>4/3*PI()*C13^3*1000</f>
+        <v>14.137166941154067</v>
+      </c>
+      <c r="F13" s="6">
+        <f>PI()*C13^2*D13*1000</f>
+        <v>21.205750411731099</v>
+      </c>
+      <c r="G13" s="6">
+        <f>E13+F13</f>
+        <v>35.342917352885166</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="6"/>
+        <v>21.205750411731099</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="5"/>
+        <v>22.972896279375359</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="5"/>
+        <v>24.740042147019619</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="5"/>
+        <v>26.507188014663878</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="5"/>
+        <v>28.274333882308138</v>
+      </c>
+      <c r="M13" s="12">
+        <f t="shared" si="5"/>
+        <v>30.041479749952398</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="5"/>
+        <v>31.808625617596658</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="5"/>
+        <v>33.575771485240921</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="C14" s="1">
+        <f>A14/2</f>
+        <v>1.875</v>
+      </c>
+      <c r="D14" s="1">
+        <f>B14-C14-C14</f>
+        <v>-0.25</v>
+      </c>
+      <c r="E14" s="6">
+        <f>4/3*PI()*C14^3*1000</f>
+        <v>27611.65418194154</v>
+      </c>
+      <c r="F14" s="6">
+        <f>PI()*C14^2*D14*1000</f>
+        <v>-2761.165418194154</v>
+      </c>
+      <c r="G14" s="6">
+        <f>E14+F14</f>
+        <v>24850.488763747388</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="6"/>
+        <v>14910.293258248432</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="5"/>
+        <v>16152.817696435803</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="5"/>
+        <v>17395.342134623173</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="5"/>
+        <v>18637.866572810544</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="5"/>
+        <v>19880.391010997915</v>
+      </c>
+      <c r="M14" s="12">
+        <f t="shared" si="5"/>
+        <v>21122.915449185286</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="5"/>
+        <v>22365.439887372653</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="5"/>
+        <v>23607.964325560024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="C15" s="1">
+        <f>A15/2</f>
+        <v>1.875</v>
+      </c>
+      <c r="D15" s="1">
+        <f>B15-C15-C15</f>
+        <v>-0.25</v>
+      </c>
+      <c r="E15" s="6">
+        <f>4/3*PI()*C15^3*1000</f>
+        <v>27611.65418194154</v>
+      </c>
+      <c r="F15" s="6">
+        <f>PI()*C15^2*D15*1000</f>
+        <v>-2761.165418194154</v>
+      </c>
+      <c r="G15" s="6">
+        <f>E15+F15</f>
+        <v>24850.488763747388</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="6"/>
+        <v>14910.293258248432</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="5"/>
+        <v>16152.817696435803</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="5"/>
+        <v>17395.342134623173</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="5"/>
+        <v>18637.866572810544</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="5"/>
+        <v>19880.391010997915</v>
+      </c>
+      <c r="M15" s="12">
+        <f t="shared" si="5"/>
+        <v>21122.915449185286</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="5"/>
+        <v>22365.439887372653</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="5"/>
+        <v>23607.964325560024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="B16" s="2">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1">
+        <f>A16/2</f>
+        <v>1.875</v>
+      </c>
+      <c r="D16" s="1">
+        <f>B16-C16-C16</f>
+        <v>5.25</v>
+      </c>
+      <c r="E16" s="6">
+        <f>4/3*PI()*C16^3*1000</f>
+        <v>27611.65418194154</v>
+      </c>
+      <c r="F16" s="6">
+        <f>PI()*C16^2*D16*1000</f>
+        <v>57984.473782077235</v>
+      </c>
+      <c r="G16" s="6">
+        <f>E16+F16</f>
+        <v>85596.127964018771</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="6"/>
+        <v>51357.67677841126</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="5"/>
+        <v>55637.483176612201</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="5"/>
+        <v>59917.289574813149</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="5"/>
+        <v>64197.095973014089</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="5"/>
+        <v>68476.902371215037</v>
+      </c>
+      <c r="M16" s="12">
+        <f t="shared" si="5"/>
+        <v>72756.708769415971</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="5"/>
+        <v>77036.515167616919</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="5"/>
+        <v>81316.321565817852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <f>A17/2</f>
+        <v>1.875</v>
+      </c>
+      <c r="D17" s="1">
+        <f>B17-C17-C17</f>
+        <v>11.25</v>
+      </c>
+      <c r="E17" s="6">
+        <f>4/3*PI()*C17^3*1000</f>
+        <v>27611.65418194154</v>
+      </c>
+      <c r="F17" s="6">
+        <f>PI()*C17^2*D17*1000</f>
+        <v>124252.44381873694</v>
+      </c>
+      <c r="G17" s="6">
+        <f>E17+F17</f>
+        <v>151864.09800067847</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="6"/>
+        <v>91118.458800407083</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="5"/>
+        <v>98711.663700441</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="5"/>
+        <v>106304.86860047493</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="5"/>
+        <v>113898.07350050886</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="5"/>
+        <v>121491.2784005428</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" si="5"/>
+        <v>129084.48330057673</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="5"/>
+        <v>136677.68820061066</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="5"/>
+        <v>144270.89310064458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="C18" s="1">
+        <f>A18/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="D18" s="1">
+        <f>B18-C18-C18</f>
+        <v>-0.7</v>
+      </c>
+      <c r="E18" s="6">
+        <f>4/3*PI()*C18^3*1000</f>
+        <v>8181.2308687234199</v>
+      </c>
+      <c r="F18" s="6">
+        <f>PI()*C18^2*D18*1000</f>
+        <v>-3436.1169648638361</v>
+      </c>
+      <c r="G18" s="6">
+        <f>E18+F18</f>
+        <v>4745.1139038595838</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="6"/>
+        <v>2847.0683423157502</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="5"/>
+        <v>3084.3240375087298</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="5"/>
+        <v>3321.579732701709</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="5"/>
+        <v>3558.8354278946886</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="5"/>
+        <v>3796.0911230876677</v>
+      </c>
+      <c r="M18" s="12">
+        <f t="shared" si="5"/>
+        <v>4033.3468182806473</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="5"/>
+        <v>4270.6025134736265</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" si="5"/>
+        <v>4507.8582086666056</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="37">
+        <v>5</v>
+      </c>
+      <c r="C2" s="37">
+        <f>60*B2</f>
+        <v>300</v>
+      </c>
+      <c r="D2" s="37">
+        <f>250*B2</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="37">
+        <v>8</v>
+      </c>
+      <c r="C3" s="37">
+        <f>60*B3</f>
+        <v>480</v>
+      </c>
+      <c r="D3" s="37">
+        <f>250*B3</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="37">
+        <f>60*B4</f>
+        <v>30</v>
+      </c>
+      <c r="D4" s="37">
+        <f>250*B4</f>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/balance.xlsx
+++ b/balance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="electrical" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="162">
   <si>
     <t>W/m2</t>
   </si>
@@ -382,12 +382,6 @@
     <t>cover</t>
   </si>
   <si>
-    <t>at 2.5</t>
-  </si>
-  <si>
-    <t>at 1.25</t>
-  </si>
-  <si>
     <t>e/min</t>
   </si>
   <si>
@@ -455,18 +449,79 @@
   </si>
   <si>
     <t>power</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>watts is</t>
+  </si>
+  <si>
+    <t>if W is</t>
+  </si>
+  <si>
+    <t>if e/s is</t>
+  </si>
+  <si>
+    <t>e/s is</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>orbital</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Kerolox</t>
+  </si>
+  <si>
+    <t>Hydrolox</t>
+  </si>
+  <si>
+    <t>Hydraz</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>--n/a--</t>
+  </si>
+  <si>
+    <t>plume</t>
+  </si>
+  <si>
+    <t>Hypergolic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
     <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="178" formatCode="0.00000000000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -572,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -673,13 +728,16 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -689,6 +747,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -995,7 +1062,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,8 +1102,11 @@
       <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="2">
-        <v>6</v>
+      <c r="N2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -1044,15 +1114,10 @@
         <v>9</v>
       </c>
       <c r="N3" s="2">
-        <v>3</v>
-      </c>
-      <c r="O3" s="1">
-        <f>N3/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="P3" s="1">
-        <f>O3*P2</f>
-        <v>9</v>
+        <v>1.78</v>
+      </c>
+      <c r="O3" s="2">
+        <v>6400</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -1071,12 +1136,11 @@
       <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="O4" s="1">
-        <f>N4/2</f>
-        <v>0.65</v>
+      <c r="N4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1100,16 +1164,13 @@
         <f>D8</f>
         <v>6.9444444444444448E-2</v>
       </c>
-      <c r="P5" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="1">
-        <f>P5*P6</f>
-        <v>10</v>
-      </c>
-      <c r="R5" s="1">
-        <f>3*Q5</f>
-        <v>30</v>
+      <c r="N5" s="28">
+        <f>N3*3600</f>
+        <v>6408</v>
+      </c>
+      <c r="O5" s="8">
+        <f>O3/3600</f>
+        <v>1.7777777777777777</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -1131,9 +1192,6 @@
       <c r="K6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D7" s="2">
@@ -1156,24 +1214,14 @@
       <c r="K7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="1">
-        <f>2*PI()*(2.5/2)</f>
-        <v>7.8539816339744828</v>
-      </c>
-      <c r="P7" s="1">
-        <f>5/3</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="Q7" s="1">
-        <f>P7*P8</f>
-        <v>2.5</v>
-      </c>
-      <c r="R7" s="1">
-        <f>Q7</f>
-        <v>2.5</v>
-      </c>
-      <c r="T7" s="1">
-        <v>1.25</v>
+      <c r="N7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1198,19 +1246,14 @@
       <c r="K8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="1">
-        <f>N7/4</f>
-        <v>1.9634954084936207</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="R8" s="1">
-        <f>R7+R5</f>
-        <v>32.5</v>
-      </c>
-      <c r="T8" s="1">
-        <v>2</v>
+      <c r="N8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O8" s="1">
+        <v>4800</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1228,13 +1271,12 @@
       <c r="H9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R9" s="1">
-        <f>R8/2/2</f>
-        <v>8.125</v>
-      </c>
-      <c r="T9" s="1">
-        <f>T7/T8</f>
-        <v>0.625</v>
+      <c r="N9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="10">
+        <f>O7*O8</f>
+        <v>8544</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1252,14 +1294,6 @@
       <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="1">
-        <f>4</f>
-        <v>4</v>
-      </c>
-      <c r="T10" s="1">
-        <f>T9*T8</f>
-        <v>1.25</v>
-      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D11" s="9">
@@ -1269,41 +1303,43 @@
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N11" s="1">
-        <v>3.75</v>
-      </c>
-      <c r="P11" s="1">
-        <v>2</v>
+      <c r="N11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N12" s="1">
-        <f>2*PI()*(N11/2)</f>
-        <v>11.780972450961723</v>
-      </c>
-      <c r="P12" s="1">
-        <f>PI()*P11^2</f>
-        <v>12.566370614359172</v>
+      <c r="N12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O12" s="1">
+        <f>10*60</f>
+        <v>600</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K13" s="1">
-        <v>14</v>
-      </c>
-      <c r="P13" s="1">
-        <f>P12/2/2</f>
-        <v>3.1415926535897931</v>
+      <c r="N13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" s="10">
+        <f>O11*O12</f>
+        <v>84.000000000000014</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K14" s="1">
-        <v>4000</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1315,36 +1351,36 @@
         <f>D15+D17</f>
         <v>3468750</v>
       </c>
-      <c r="K15" s="1">
-        <f>K13*K14</f>
-        <v>56000</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N15" s="1">
-        <v>12000</v>
+      <c r="R15" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="T15" s="1">
+        <f>R15*S15</f>
+        <v>0.25080000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K16" s="1">
-        <f>K15*L18</f>
-        <v>875</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="N16" s="1">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="R16" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="T16" s="1">
+        <f>R16*S16</f>
+        <v>3.8000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="35">
         <v>2868750</v>
       </c>
@@ -1352,38 +1388,16 @@
         <f>D15/E15</f>
         <v>0.17297297297297298</v>
       </c>
-      <c r="L17" s="1">
-        <f>L16/2.5</f>
-        <v>0.25</v>
-      </c>
-      <c r="N17" s="1">
-        <f>N15/N16</f>
-        <v>2666.6666666666665</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L18" s="1">
-        <f>L17^3</f>
-        <v>1.5625E-2</v>
-      </c>
-      <c r="N18" s="1">
-        <f>N17*O21</f>
-        <v>9000</v>
-      </c>
-      <c r="O18" s="1">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="36">
         <v>3531600000000</v>
       </c>
@@ -1391,98 +1405,58 @@
         <f>ASIN(E17)</f>
         <v>0.17384734576954017</v>
       </c>
-      <c r="O19" s="1">
-        <f>2.5</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="38" t="s">
-        <v>131</v>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K20" s="1">
-        <v>9</v>
-      </c>
-      <c r="O20" s="1">
-        <f>O18/O19</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D21" s="38" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="39" t="s">
+        <v>130</v>
       </c>
       <c r="E21" s="19">
         <f>2*E15^2</f>
         <v>24064453125000</v>
       </c>
-      <c r="K21" s="1">
-        <v>4000</v>
-      </c>
-      <c r="O21" s="1">
-        <f>O20^3</f>
-        <v>3.375</v>
-      </c>
-    </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="26">
         <f>E21/E23*E19</f>
         <v>1195.2859282940951</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K22" s="1">
-        <f>K20*K21</f>
-        <v>36000</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="38" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="39" t="s">
+        <v>131</v>
       </c>
       <c r="E23" s="19">
         <f>SQRT(E15*D19)</f>
         <v>3500033928.4069805</v>
       </c>
-      <c r="K23" s="1">
-        <f>K22*L25</f>
-        <v>4500</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="1">
-        <f>L23/1.25</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="39">
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="40">
         <v>0.19</v>
       </c>
-      <c r="L25" s="1">
-        <f>L24^3</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D27" s="1">
         <f>D25*D22</f>
         <v>227.10432637587809</v>
@@ -1495,746 +1469,2497 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP13"/>
+  <dimension ref="A1:AU105"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AN13" sqref="AN13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.28515625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.140625" style="1" customWidth="1"/>
-    <col min="15" max="17" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="1.140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="0.7109375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.140625" style="1" customWidth="1"/>
+    <col min="20" max="22" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="1.140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="0.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="G1" s="34" t="s">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="L1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="O1" s="34" t="s">
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="T1" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="W1" s="34" t="s">
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AB1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AE1" s="34" t="s">
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AJ1" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-    </row>
-    <row r="2" spans="1:42" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+    </row>
+    <row r="2" spans="1:47" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="U2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="V2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="W2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="X2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="Y2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="Z2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="AB2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="AC2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="AD2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="AE2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AF2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AG2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AH2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AJ2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AK2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AL2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="13" t="s">
+      <c r="AM2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="13" t="s">
+      <c r="AN2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="13" t="s">
+      <c r="AO2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AK2" s="13" t="s">
+      <c r="AP2" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="2">
+      <c r="G3" s="2">
         <v>1295</v>
       </c>
-      <c r="C3" s="2">
+      <c r="H3" s="2">
         <v>1.42</v>
       </c>
-      <c r="D3" s="2">
+      <c r="I3" s="2">
         <v>3917</v>
       </c>
-      <c r="E3" s="2">
+      <c r="J3" s="2">
         <v>4352</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="1">
-        <f>G3-H3</f>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="1">
+        <f>L3-M3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="1">
-        <f t="shared" ref="J3:K5" si="0">D3</f>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:P5" si="0">I3</f>
         <v>3917</v>
       </c>
-      <c r="K3" s="1">
+      <c r="P3" s="1">
         <f t="shared" si="0"/>
         <v>4352</v>
       </c>
-      <c r="L3" s="12" t="e">
-        <f>$J3/9.81/LN(G3/H3)</f>
+      <c r="Q3" s="12" t="e">
+        <f>$O3/9.81/LN(L3/M3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M3" s="12" t="e">
-        <f>$K3/9.81/LN(G3/H3)</f>
+      <c r="R3" s="12" t="e">
+        <f>$P3/9.81/LN(L3/M3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="1">
-        <f>O3-P3</f>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="1">
+        <f>T3-U3</f>
         <v>0</v>
       </c>
-      <c r="R3" s="6">
-        <f>0.95*J3</f>
+      <c r="W3" s="6">
+        <f>0.95*O3</f>
         <v>3721.1499999999996</v>
       </c>
-      <c r="S3" s="6">
-        <f>1.01*K3</f>
+      <c r="X3" s="6">
+        <f>1.01*P3</f>
         <v>4395.5200000000004</v>
       </c>
-      <c r="T3" s="12" t="e">
-        <f>$R3/9.81/LN(O3/P3)</f>
+      <c r="Y3" s="12" t="e">
+        <f>$W3/9.81/LN(T3/U3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U3" s="12" t="e">
-        <f>$S3/9.81/LN(O3/P3)</f>
+      <c r="Z3" s="12" t="e">
+        <f>$X3/9.81/LN(T3/U3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W3" s="11">
+      <c r="AB3" s="11">
         <v>1280</v>
       </c>
-      <c r="X3" s="11">
+      <c r="AC3" s="11">
         <f>1077/5</f>
         <v>215.4</v>
       </c>
-      <c r="Y3" s="1">
-        <f>W3-X3</f>
+      <c r="AD3" s="1">
+        <f>AB3-AC3</f>
         <v>1064.5999999999999</v>
       </c>
-      <c r="Z3" s="6">
-        <f>0.95*R3</f>
+      <c r="AE3" s="6">
+        <f>0.95*W3</f>
         <v>3535.0924999999993</v>
       </c>
-      <c r="AA3" s="6">
-        <f>1.01*S3</f>
+      <c r="AF3" s="6">
+        <f>1.01*X3</f>
         <v>4439.4752000000008</v>
       </c>
-      <c r="AB3" s="12">
-        <f>$Z3/9.81/LN(W3/X3)</f>
+      <c r="AG3" s="12">
+        <f>$AE3/9.81/LN(AB3/AC3)</f>
         <v>202.20652870695972</v>
       </c>
-      <c r="AC3" s="12">
-        <f>$AA3/9.81/LN(W3/X3)</f>
+      <c r="AH3" s="12">
+        <f>$AF3/9.81/LN(AB3/AC3)</f>
         <v>253.93702412953436</v>
       </c>
-      <c r="AE3" s="11">
+      <c r="AJ3" s="11">
         <v>1286</v>
       </c>
-      <c r="AF3" s="11">
+      <c r="AK3" s="11">
         <v>272</v>
       </c>
-      <c r="AG3" s="1">
-        <f>AE3-AF3</f>
+      <c r="AL3" s="1">
+        <f>AJ3-AK3</f>
         <v>1014</v>
       </c>
-      <c r="AH3" s="6">
-        <f>0.8*Z3</f>
+      <c r="AM3" s="6">
+        <f>0.8*AE3</f>
         <v>2828.0739999999996</v>
       </c>
-      <c r="AI3" s="6">
-        <f>0.85*K3</f>
+      <c r="AN3" s="6">
+        <f>0.85*P3</f>
         <v>3699.2</v>
       </c>
-      <c r="AJ3" s="12">
-        <f>$AH3/9.81/LN(AE3/AF3)</f>
+      <c r="AO3" s="12">
+        <f>$AM3/9.81/LN(AJ3/AK3)</f>
         <v>185.57238307718134</v>
       </c>
-      <c r="AK3" s="12">
-        <f>$AI3/9.81/LN(AE3/AF3)</f>
+      <c r="AP3" s="12">
+        <f>$AN3/9.81/LN(AJ3/AK3)</f>
         <v>242.73387453054951</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AN3" s="39">
+      <c r="AS3" s="40">
         <v>12.815</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="2">
+      <c r="G4" s="2">
         <v>3945</v>
       </c>
-      <c r="C4" s="2">
+      <c r="H4" s="2">
         <v>1.55</v>
       </c>
-      <c r="D4" s="2">
+      <c r="I4" s="2">
         <v>1191</v>
       </c>
-      <c r="E4" s="2">
+      <c r="J4" s="2">
         <v>4835</v>
       </c>
-      <c r="G4" s="11">
+      <c r="L4" s="11">
         <v>3954</v>
       </c>
-      <c r="H4" s="11">
+      <c r="M4" s="11">
         <v>672</v>
       </c>
-      <c r="I4" s="1">
-        <f>G4-H4</f>
+      <c r="N4" s="1">
+        <f>L4-M4</f>
         <v>3282</v>
       </c>
-      <c r="J4" s="1">
+      <c r="O4" s="1">
         <f t="shared" si="0"/>
         <v>1191</v>
       </c>
-      <c r="K4" s="1">
+      <c r="P4" s="1">
         <f t="shared" si="0"/>
         <v>4835</v>
       </c>
-      <c r="L4" s="12">
-        <f>$J4/9.81/LN(G4/H4)</f>
+      <c r="Q4" s="12">
+        <f>$O4/9.81/LN(L4/M4)</f>
         <v>68.505269308814107</v>
       </c>
-      <c r="M4" s="12">
-        <f>$K4/9.81/LN(G4/H4)</f>
+      <c r="R4" s="12">
+        <f>$P4/9.81/LN(L4/M4)</f>
         <v>278.10493459959378</v>
       </c>
-      <c r="O4" s="11">
+      <c r="T4" s="11">
         <v>3896</v>
       </c>
-      <c r="P4" s="11">
+      <c r="U4" s="11">
         <v>773</v>
       </c>
-      <c r="Q4" s="1">
-        <f>O4-P4</f>
+      <c r="V4" s="1">
+        <f>T4-U4</f>
         <v>3123</v>
       </c>
-      <c r="R4" s="6">
-        <f>0.95*J4</f>
+      <c r="W4" s="6">
+        <f>0.95*O4</f>
         <v>1131.45</v>
       </c>
-      <c r="S4" s="6">
-        <f>1.01*K4</f>
+      <c r="X4" s="6">
+        <f>1.01*P4</f>
         <v>4883.3500000000004</v>
       </c>
-      <c r="T4" s="12">
-        <f>$R4/9.81/LN(O4/P4)</f>
+      <c r="Y4" s="12">
+        <f>$W4/9.81/LN(T4/U4)</f>
         <v>71.308577640489133</v>
       </c>
-      <c r="U4" s="12">
-        <f>$S4/9.81/LN(O4/P4)</f>
+      <c r="Z4" s="12">
+        <f>$X4/9.81/LN(T4/U4)</f>
         <v>307.76856478031078</v>
       </c>
-      <c r="W4" s="11">
+      <c r="AB4" s="11">
         <v>3784</v>
       </c>
-      <c r="X4" s="11">
+      <c r="AC4" s="11">
         <v>662</v>
       </c>
-      <c r="Y4" s="1">
-        <f>W4-X4</f>
+      <c r="AD4" s="1">
+        <f>AB4-AC4</f>
         <v>3122</v>
       </c>
-      <c r="Z4" s="6">
-        <f>0.95*R4</f>
+      <c r="AE4" s="6">
+        <f>0.95*W4</f>
         <v>1074.8775000000001</v>
       </c>
-      <c r="AA4" s="6">
-        <f>1.01*S4</f>
+      <c r="AF4" s="6">
+        <f>1.01*X4</f>
         <v>4932.1835000000001</v>
       </c>
-      <c r="AB4" s="12">
-        <f>$Z4/9.81/LN(W4/X4)</f>
+      <c r="AG4" s="12">
+        <f>$AE4/9.81/LN(AB4/AC4)</f>
         <v>62.852848664219529</v>
       </c>
-      <c r="AC4" s="12">
-        <f>$AA4/9.81/LN(W4/X4)</f>
+      <c r="AH4" s="12">
+        <f>$AF4/9.81/LN(AB4/AC4)</f>
         <v>288.40661666995595</v>
       </c>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="1">
-        <f>AE4-AF4</f>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="1">
+        <f>AJ4-AK4</f>
         <v>0</v>
       </c>
-      <c r="AH4" s="6">
-        <f t="shared" ref="AH4:AH5" si="1">0.8*Z4</f>
+      <c r="AM4" s="6">
+        <f t="shared" ref="AM4:AM5" si="1">0.8*AE4</f>
         <v>859.90200000000004</v>
       </c>
-      <c r="AI4" s="6">
-        <f t="shared" ref="AI4:AI5" si="2">0.85*K4</f>
+      <c r="AN4" s="6">
+        <f t="shared" ref="AN4:AN5" si="2">0.85*P4</f>
         <v>4109.75</v>
       </c>
-      <c r="AJ4" s="12" t="e">
-        <f>$AH4/9.81/LN(AE4/AF4)</f>
+      <c r="AO4" s="12" t="e">
+        <f>$AM4/9.81/LN(AJ4/AK4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK4" s="12" t="e">
-        <f>$AI4/9.81/LN(AE4/AF4)</f>
+      <c r="AP4" s="12" t="e">
+        <f>$AN4/9.81/LN(AJ4/AK4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AR4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AN4" s="39">
+      <c r="AS4" s="40">
         <v>1.5</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AT4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AP4" s="4">
-        <f>AN6/AN4/9.81</f>
+      <c r="AU4" s="4">
+        <f>AS6/AS4/9.81</f>
         <v>15.630309208290861</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="2">
+      <c r="G5" s="2">
         <v>78070</v>
       </c>
-      <c r="C5" s="2">
+      <c r="H5" s="2">
         <v>1.96</v>
       </c>
-      <c r="D5" s="2">
+      <c r="I5" s="2">
         <v>4789</v>
       </c>
-      <c r="E5" s="2">
+      <c r="J5" s="2">
         <v>5209</v>
       </c>
-      <c r="G5" s="11">
+      <c r="L5" s="11">
         <v>78271</v>
       </c>
-      <c r="H5" s="11">
+      <c r="M5" s="11">
         <v>8236</v>
       </c>
-      <c r="I5" s="1">
-        <f>G5-H5</f>
+      <c r="N5" s="1">
+        <f>L5-M5</f>
         <v>70035</v>
       </c>
-      <c r="J5" s="1">
+      <c r="O5" s="1">
         <f t="shared" si="0"/>
         <v>4789</v>
       </c>
-      <c r="K5" s="1">
+      <c r="P5" s="1">
         <f t="shared" si="0"/>
         <v>5209</v>
       </c>
-      <c r="L5" s="12">
-        <f>$J5/9.81/LN(G5/H5)</f>
+      <c r="Q5" s="12">
+        <f>$O5/9.81/LN(L5/M5)</f>
         <v>216.8066299574084</v>
       </c>
-      <c r="M5" s="12">
-        <f>$K5/9.81/LN(G5/H5)</f>
+      <c r="R5" s="12">
+        <f>$P5/9.81/LN(L5/M5)</f>
         <v>235.82078418211324</v>
       </c>
-      <c r="O5" s="11">
+      <c r="T5" s="11">
         <v>79450</v>
       </c>
-      <c r="P5" s="11">
+      <c r="U5" s="11">
         <v>10736</v>
       </c>
-      <c r="Q5" s="1">
-        <f>O5-P5</f>
+      <c r="V5" s="1">
+        <f>T5-U5</f>
         <v>68714</v>
       </c>
-      <c r="R5" s="6">
-        <f>0.95*J5</f>
+      <c r="W5" s="6">
+        <f>0.95*O5</f>
         <v>4549.55</v>
       </c>
-      <c r="S5" s="6">
-        <f>1.01*K5</f>
+      <c r="X5" s="6">
+        <f>1.01*P5</f>
         <v>5261.09</v>
       </c>
-      <c r="T5" s="12">
-        <f>$R5/9.81/LN(O5/P5)</f>
+      <c r="Y5" s="12">
+        <f>$W5/9.81/LN(T5/U5)</f>
         <v>231.70656987189776</v>
       </c>
-      <c r="U5" s="12">
-        <f>$S5/9.81/LN(O5/P5)</f>
+      <c r="Z5" s="12">
+        <f>$X5/9.81/LN(T5/U5)</f>
         <v>267.94498745751611</v>
       </c>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="1">
-        <f>W5-X5</f>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="1">
+        <f>AB5-AC5</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="6">
-        <f>0.95*R5</f>
+      <c r="AE5" s="6">
+        <f>0.95*W5</f>
         <v>4322.0725000000002</v>
       </c>
-      <c r="AA5" s="6">
-        <f>1.01*S5</f>
+      <c r="AF5" s="6">
+        <f>1.01*X5</f>
         <v>5313.7008999999998</v>
       </c>
-      <c r="AB5" s="12" t="e">
-        <f>$Z5/9.81/LN(W5/X5)</f>
+      <c r="AG5" s="12" t="e">
+        <f>$AE5/9.81/LN(AB5/AC5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC5" s="12" t="e">
-        <f>$AA5/9.81/LN(W5/X5)</f>
+      <c r="AH5" s="12" t="e">
+        <f>$AF5/9.81/LN(AB5/AC5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="1">
-        <f>AE5-AF5</f>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="1">
+        <f>AJ5-AK5</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="6">
+      <c r="AM5" s="6">
         <f t="shared" si="1"/>
         <v>3457.6580000000004</v>
       </c>
-      <c r="AI5" s="6">
+      <c r="AN5" s="6">
         <f t="shared" si="2"/>
         <v>4427.6499999999996</v>
       </c>
-      <c r="AJ5" s="12" t="e">
-        <f>$AH5/9.81/LN(AE5/AF5)</f>
+      <c r="AO5" s="12" t="e">
+        <f>$AM5/9.81/LN(AJ5/AK5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK5" s="12" t="e">
-        <f>$AI5/9.81/LN(AE5/AF5)</f>
+      <c r="AP5" s="12" t="e">
+        <f>$AN5/9.81/LN(AJ5/AK5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM5" s="1" t="s">
+      <c r="AR5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="1">
-        <f>AN3+AN4</f>
+      <c r="AS5" s="1">
+        <f>AS3+AS4</f>
         <v>14.315</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="2">
         <v>78070</v>
       </c>
-      <c r="C6" s="2">
+      <c r="H6" s="2">
         <v>1.96</v>
       </c>
-      <c r="D6" s="2">
+      <c r="I6" s="2">
         <v>4789</v>
       </c>
-      <c r="E6" s="2">
+      <c r="J6" s="2">
         <v>5209</v>
       </c>
-      <c r="G6" s="11">
+      <c r="L6" s="11">
         <v>78271</v>
       </c>
-      <c r="H6" s="11">
+      <c r="M6" s="11">
         <v>8236</v>
       </c>
-      <c r="I6" s="1">
-        <f>G6-H6</f>
+      <c r="N6" s="1">
+        <f>L6-M6</f>
         <v>70035</v>
       </c>
-      <c r="J6" s="1">
-        <f t="shared" ref="J6" si="3">D6</f>
+      <c r="O6" s="1">
+        <f t="shared" ref="O6" si="3">I6</f>
         <v>4789</v>
       </c>
-      <c r="K6" s="1">
-        <f t="shared" ref="K6" si="4">E6</f>
+      <c r="P6" s="1">
+        <f t="shared" ref="P6" si="4">J6</f>
         <v>5209</v>
       </c>
-      <c r="L6" s="12">
-        <f>$J6/9.81/LN(G6/H6)</f>
+      <c r="Q6" s="12">
+        <f>$O6/9.81/LN(L6/M6)</f>
         <v>216.8066299574084</v>
       </c>
-      <c r="M6" s="12">
-        <f>$K6/9.81/LN(G6/H6)</f>
+      <c r="R6" s="12">
+        <f>$P6/9.81/LN(L6/M6)</f>
         <v>235.82078418211324</v>
       </c>
-      <c r="O6" s="11">
+      <c r="T6" s="11">
         <v>79450</v>
       </c>
-      <c r="P6" s="11">
+      <c r="U6" s="11">
         <v>10736</v>
       </c>
-      <c r="Q6" s="1">
-        <f>O6-P6</f>
+      <c r="V6" s="1">
+        <f>T6-U6</f>
         <v>68714</v>
       </c>
-      <c r="R6" s="6">
-        <f>0.95*J6</f>
+      <c r="W6" s="6">
+        <f>0.95*O6</f>
         <v>4549.55</v>
       </c>
-      <c r="S6" s="6">
-        <f>1.01*K6</f>
+      <c r="X6" s="6">
+        <f>1.01*P6</f>
         <v>5261.09</v>
       </c>
-      <c r="T6" s="12">
-        <f>$R6/9.81/LN(O6/P6)</f>
+      <c r="Y6" s="12">
+        <f>$W6/9.81/LN(T6/U6)</f>
         <v>231.70656987189776</v>
       </c>
-      <c r="U6" s="12">
-        <f>$S6/9.81/LN(O6/P6)</f>
+      <c r="Z6" s="12">
+        <f>$X6/9.81/LN(T6/U6)</f>
         <v>267.94498745751611</v>
       </c>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="1">
-        <f>W6-X6</f>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="1">
+        <f>AB6-AC6</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="6">
-        <f>0.95*R6</f>
+      <c r="AE6" s="6">
+        <f>0.95*W6</f>
         <v>4322.0725000000002</v>
       </c>
-      <c r="AA6" s="6">
-        <f>1.01*S6</f>
+      <c r="AF6" s="6">
+        <f>1.01*X6</f>
         <v>5313.7008999999998</v>
       </c>
-      <c r="AB6" s="12" t="e">
-        <f>$Z6/9.81/LN(W6/X6)</f>
+      <c r="AG6" s="12" t="e">
+        <f>$AE6/9.81/LN(AB6/AC6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC6" s="12" t="e">
-        <f>$AA6/9.81/LN(W6/X6)</f>
+      <c r="AH6" s="12" t="e">
+        <f>$AF6/9.81/LN(AB6/AC6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="1">
-        <f>AE6-AF6</f>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="1">
+        <f>AJ6-AK6</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="6">
-        <f t="shared" ref="AH6" si="5">0.8*Z6</f>
+      <c r="AM6" s="6">
+        <f t="shared" ref="AM6" si="5">0.8*AE6</f>
         <v>3457.6580000000004</v>
       </c>
-      <c r="AI6" s="6">
-        <f t="shared" ref="AI6" si="6">0.85*K6</f>
+      <c r="AN6" s="6">
+        <f t="shared" ref="AN6" si="6">0.85*P6</f>
         <v>4427.6499999999996</v>
       </c>
-      <c r="AJ6" s="12" t="e">
-        <f>$AH6/9.81/LN(AE6/AF6)</f>
+      <c r="AO6" s="12" t="e">
+        <f>$AM6/9.81/LN(AJ6/AK6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK6" s="12" t="e">
-        <f>$AI6/9.81/LN(AE6/AF6)</f>
+      <c r="AP6" s="12" t="e">
+        <f>$AN6/9.81/LN(AJ6/AK6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN6" s="39">
+      <c r="AR6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS6" s="40">
         <v>230</v>
       </c>
-      <c r="AO6" s="1">
-        <f>AN6/9.81/60</f>
+      <c r="AT6" s="1">
+        <f>AS6/9.81/60</f>
         <v>0.39075773020727145</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="AM7" s="1" t="s">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AR7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AN7" s="4">
-        <f>AN6/AN5/9.81</f>
+      <c r="AS7" s="4">
+        <f>AS6/AS5/9.81</f>
         <v>1.6378249257727062</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="AM9" s="1" t="s">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="E9" s="37" t="str">
+        <f t="shared" ref="E9:E11" si="7">IF(D9="--n/a--","",IF(C9="Hyperg","Hypergolic",""))&amp;"-"</f>
+        <v>-</v>
+      </c>
+      <c r="AR9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AN9" s="39">
+      <c r="AS9" s="40">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="AM10" s="1" t="s">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="37" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AR10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AN10" s="39">
+      <c r="AS10" s="40">
         <v>1.5</v>
       </c>
-      <c r="AO10" s="1" t="s">
+      <c r="AT10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AP10" s="4">
-        <f>AN12/AN10/9.81</f>
+      <c r="AU10" s="4">
+        <f>AS12/AS10/9.81</f>
         <v>15.630309208290861</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="AM11" s="1" t="s">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="37" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="AR11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AN11" s="1">
-        <f>AN9+AN10</f>
+      <c r="AS11" s="1">
+        <f>AS9+AS10</f>
         <v>26.5</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="AM12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN12" s="39">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="37" t="str">
+        <f>IF(D12="--n/a--","",IF(C12="Hyperg","Hypergolic",""))&amp;"-"</f>
+        <v>-</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS12" s="40">
         <v>230</v>
       </c>
-      <c r="AO12" s="1">
-        <f>AN12/9.81/60</f>
+      <c r="AT12" s="1">
+        <f>AS12/9.81/60</f>
         <v>0.39075773020727145</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="AM13" s="1" t="s">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="37" t="str">
+        <f t="shared" ref="E13:E76" si="8">IF(D13="--n/a--","",IF(C13="Hyperg","Hypergolic",""))&amp;"-"</f>
+        <v>-</v>
+      </c>
+      <c r="AR13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AN13" s="4">
-        <f>AN12/AN11/9.81</f>
+      <c r="AS13" s="4">
+        <f>AS12/AS11/9.81</f>
         <v>0.88473448348816186</v>
       </c>
     </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+      <c r="AS24" s="3"/>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+      <c r="O44" s="43"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E61" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E63" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E64" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E70" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E71" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E73" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E74" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E75" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D76" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E76" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E77" s="37" t="str">
+        <f t="shared" ref="E77:E105" si="9">IF(D77="--n/a--","",IF(C77="Hyperg","Hypergolic",""))&amp;"-"</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E78" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D80" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E80" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E81" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E82" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B83" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E83" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D84" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E84" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D85" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E85" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E86" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B87" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E87" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B88" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E88" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B89" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D89" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E89" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" s="1">
+        <v>5</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E90" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B91" s="1">
+        <v>5</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E91" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B92" s="1">
+        <v>5</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D92" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E92" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" s="1">
+        <v>5</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D93" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E93" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B94" s="1">
+        <v>5</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E94" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B95" s="1">
+        <v>5</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E95" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" s="1">
+        <v>5</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D96" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E96" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" s="1">
+        <v>5</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D97" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E97" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B98" s="1">
+        <v>5</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E98" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B99" s="1">
+        <v>5</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E99" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B100" s="1">
+        <v>5</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D100" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E100" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B101" s="1">
+        <v>5</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D101" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E101" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B102" s="1">
+        <v>5</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E102" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B103" s="1">
+        <v>5</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E103" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B104" s="1">
+        <v>5</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D104" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E104" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B105" s="1">
+        <v>5</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D105" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E105" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A10:D105">
+    <sortCondition ref="B10"/>
+  </sortState>
   <mergeCells count="4">
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="O1:U1"/>
-    <mergeCell ref="W1:AC1"/>
-    <mergeCell ref="AE1:AK1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="AB1:AH1"/>
+    <mergeCell ref="AJ1:AP1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3610,7 +5335,7 @@
         <v>104</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>K5</f>
@@ -3634,7 +5359,7 @@
     </row>
     <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" ref="F16:F17" si="14">K6</f>
@@ -3661,10 +5386,10 @@
         <v>7.5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F17" s="1" t="str">
         <f t="shared" si="14"/>
@@ -3712,7 +5437,7 @@
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="F19" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G19" s="1">
         <f>G18+450</f>
@@ -3818,10 +5543,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3840,7 +5565,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -3883,8 +5608,11 @@
       <c r="O1" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P1" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>60</v>
       </c>
@@ -3935,17 +5663,21 @@
         <f>200+9.81*82</f>
         <v>1004.4200000000001</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" s="16">
+        <f>2*PI()*SQRT(H2^3/I2)</f>
+        <v>1691.8221328894676</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
@@ -3994,17 +5726,21 @@
         <v>64.168911432410368</v>
       </c>
       <c r="O3" s="17"/>
-      <c r="Q3" s="39">
+      <c r="P3" s="16">
+        <f t="shared" ref="P3:P5" si="1">2*PI()*SQRT(H3^3/I3)</f>
+        <v>1833.6072536492711</v>
+      </c>
+      <c r="R3" s="40">
         <v>2223</v>
       </c>
-      <c r="R3" s="39">
+      <c r="S3" s="40">
         <v>71</v>
       </c>
-      <c r="S3" s="39">
+      <c r="T3" s="40">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
@@ -4054,17 +5790,21 @@
         <v>676.5791616769734</v>
       </c>
       <c r="O4" s="17"/>
-      <c r="Q4" s="1" t="s">
+      <c r="P4" s="16">
+        <f t="shared" si="1"/>
+        <v>9952.9749592970566</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -4115,25 +5855,29 @@
         <v>434.87978011936514</v>
       </c>
       <c r="O5" s="17"/>
-      <c r="Q5" s="6">
-        <f>9.81*R3*98%</f>
+      <c r="P5" s="16">
+        <f t="shared" si="1"/>
+        <v>21599.993227655697</v>
+      </c>
+      <c r="R5" s="6">
+        <f>9.81*S3*98%</f>
         <v>682.57979999999998</v>
       </c>
-      <c r="R5" s="6">
-        <f>Q3-Q5</f>
+      <c r="S5" s="6">
+        <f>R3-R5</f>
         <v>1540.4202</v>
       </c>
-      <c r="S5" s="6">
-        <f>70%*R5</f>
+      <c r="T5" s="6">
+        <f>70%*S5</f>
         <v>1078.29414</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q6" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R6" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
@@ -4182,12 +5926,16 @@
         <v>863.96857272284706</v>
       </c>
       <c r="O7" s="17"/>
-      <c r="Q7" s="37">
-        <f>S3*R3^2</f>
+      <c r="P7" s="16">
+        <f>2*PI()*SQRT(H7^3/I7)</f>
+        <v>53310.658020675924</v>
+      </c>
+      <c r="R7" s="38">
+        <f>T3*S3^2</f>
         <v>50410</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
@@ -4195,7 +5943,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="21">
-        <f t="shared" ref="C9:C10" si="1">N9+O9</f>
+        <f t="shared" ref="C9:C10" si="2">N9+O9</f>
         <v>603.612064514905</v>
       </c>
       <c r="D9" s="21">
@@ -4237,8 +5985,12 @@
       <c r="O9" s="17">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P9" s="16">
+        <f t="shared" ref="P9:P10" si="3">2*PI()*SQRT(H9^3/I9)</f>
+        <v>2285.0311415809701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>106</v>
       </c>
@@ -4246,7 +5998,7 @@
         <v>105</v>
       </c>
       <c r="C10" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8338859770666431</v>
       </c>
       <c r="D10" s="21">
@@ -4287,8 +6039,12 @@
         <v>6.8338859770666431</v>
       </c>
       <c r="O10" s="17"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P10" s="16">
+        <f t="shared" si="3"/>
+        <v>2369.1375366329148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>60</v>
       </c>
@@ -4296,7 +6052,7 @@
         <v>108</v>
       </c>
       <c r="C12" s="21">
-        <f t="shared" ref="C12" si="2">N12+O12</f>
+        <f t="shared" ref="C12" si="4">N12+O12</f>
         <v>6077.7618656919749</v>
       </c>
       <c r="D12" s="21">
@@ -4339,8 +6095,12 @@
         <f>200*3+16.7*120</f>
         <v>2604</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P12" s="16">
+        <f t="shared" ref="P12:P13" si="5">2*PI()*SQRT(H12^3/I12)</f>
+        <v>1427.6270025663123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>108</v>
       </c>
@@ -4348,7 +6108,7 @@
         <v>109</v>
       </c>
       <c r="C13" s="21">
-        <f t="shared" ref="C13" si="3">N13+O13</f>
+        <f t="shared" ref="C13" si="6">N13+O13</f>
         <v>108.37197022756845</v>
       </c>
       <c r="D13" s="21">
@@ -4389,13 +6149,17 @@
         <v>108.37197022756845</v>
       </c>
       <c r="O13" s="17"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P13" s="16">
+        <f t="shared" si="5"/>
+        <v>1572.7432833522748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" s="21">
         <f>N15+O15</f>
@@ -4442,10 +6206,14 @@
         <f>200+9.81*82</f>
         <v>1004.4200000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P15" s="16">
+        <f t="shared" ref="P15:P16" si="7">2*PI()*SQRT(H15^3/I15)</f>
+        <v>9701.5389058065757</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>41</v>
@@ -4494,6 +6262,10 @@
         <v>461.0455205703139</v>
       </c>
       <c r="O16" s="17"/>
+      <c r="P16" s="16">
+        <f t="shared" si="7"/>
+        <v>21599.993227655697</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4502,10 +6274,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="Q2:R7"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4513,257 +6285,293 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="29">
+      <c r="D2" s="29">
         <v>0.6</v>
       </c>
-      <c r="F1" s="29">
-        <f t="shared" ref="F1:L1" si="0">5%+E1</f>
+      <c r="E2" s="29">
+        <f t="shared" ref="E2:K2" si="0">5%+D2</f>
         <v>0.65</v>
       </c>
-      <c r="G1" s="29">
+      <c r="F2" s="29">
         <f t="shared" si="0"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="H1" s="29">
+      <c r="G2" s="29">
         <f t="shared" si="0"/>
         <v>0.75000000000000011</v>
       </c>
-      <c r="I1" s="29">
+      <c r="H2" s="29">
         <f t="shared" si="0"/>
         <v>0.80000000000000016</v>
       </c>
-      <c r="J1" s="29">
+      <c r="I2" s="29">
         <f t="shared" si="0"/>
         <v>0.8500000000000002</v>
       </c>
-      <c r="K1" s="29">
+      <c r="J2" s="29">
         <f t="shared" si="0"/>
         <v>0.90000000000000024</v>
       </c>
-      <c r="L1" s="29">
+      <c r="K2" s="29">
         <f t="shared" si="0"/>
         <v>0.95000000000000029</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>0.5</v>
       </c>
-      <c r="C2" s="1">
-        <f>A2/2</f>
-        <v>0.625</v>
-      </c>
-      <c r="D2" s="6">
-        <f>PI()*C2^2*B2*1000</f>
-        <v>613.59231515425654</v>
-      </c>
-      <c r="E2" s="6">
-        <f>$D2*E$1</f>
-        <v>368.15538909255389</v>
-      </c>
-      <c r="F2" s="6">
-        <f t="shared" ref="F2:L3" si="1">$D2*F$1</f>
-        <v>398.83500485026678</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="B3" s="1">
+        <f>A3/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="6">
+        <f>4/3*PI()*B3^3*1000</f>
+        <v>65.449846949787357</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:K3" si="1">$C3*D2</f>
+        <v>39.269908169872416</v>
+      </c>
+      <c r="E3" s="6">
         <f t="shared" si="1"/>
-        <v>429.51462060797962</v>
-      </c>
-      <c r="H2" s="6">
-        <f t="shared" si="1"/>
-        <v>460.19423636569246</v>
-      </c>
-      <c r="I2" s="6">
-        <f t="shared" si="1"/>
-        <v>490.8738521234053</v>
-      </c>
-      <c r="J2" s="12">
-        <f t="shared" si="1"/>
-        <v>521.55346788111819</v>
-      </c>
-      <c r="K2" s="6">
-        <f t="shared" si="1"/>
-        <v>552.23308363883109</v>
-      </c>
-      <c r="L2" s="6">
-        <f t="shared" si="1"/>
-        <v>582.91269939654387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>4.75</v>
-      </c>
-      <c r="C3" s="1">
-        <f>A3/2</f>
-        <v>1.25</v>
-      </c>
-      <c r="D3" s="6">
-        <f>PI()*C3^2*B3*1000</f>
-        <v>23316.507975861747</v>
-      </c>
-      <c r="E3" s="6">
-        <f t="shared" ref="E3:L3" si="2">$D3*E$1</f>
-        <v>13989.904785517048</v>
+        <v>42.542400517361784</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" si="1"/>
-        <v>15155.730184310136</v>
+        <v>45.814892864851153</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" si="1"/>
-        <v>16321.555583103223</v>
+        <v>49.087385212340529</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" si="1"/>
-        <v>17487.380981896313</v>
-      </c>
-      <c r="I3" s="6">
+        <v>52.359877559829897</v>
+      </c>
+      <c r="I3" s="12">
         <f t="shared" si="1"/>
-        <v>18653.2063806894</v>
-      </c>
-      <c r="J3" s="12">
+        <v>55.632369907319266</v>
+      </c>
+      <c r="J3" s="6">
         <f t="shared" si="1"/>
-        <v>19819.031779482488</v>
+        <v>58.904862254808634</v>
       </c>
       <c r="K3" s="6">
         <f t="shared" si="1"/>
-        <v>20984.857178275579</v>
-      </c>
-      <c r="L3" s="6">
-        <f t="shared" si="1"/>
-        <v>22150.682577068666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>62.17735460229801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="29">
+      <c r="H6" s="29">
         <v>0.6</v>
       </c>
-      <c r="E6" s="29">
-        <f t="shared" ref="E6:K6" si="3">5%+D6</f>
+      <c r="I6" s="29">
+        <f t="shared" ref="I6:O6" si="2">5%+H6</f>
         <v>0.65</v>
       </c>
-      <c r="F6" s="29">
-        <f t="shared" si="3"/>
+      <c r="J6" s="29">
+        <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="G6" s="29">
-        <f t="shared" si="3"/>
+      <c r="K6" s="29">
+        <f t="shared" si="2"/>
         <v>0.75000000000000011</v>
       </c>
-      <c r="H6" s="29">
-        <f t="shared" si="3"/>
+      <c r="L6" s="29">
+        <f t="shared" si="2"/>
         <v>0.80000000000000016</v>
       </c>
-      <c r="I6" s="29">
-        <f t="shared" si="3"/>
+      <c r="M6" s="29">
+        <f t="shared" si="2"/>
         <v>0.8500000000000002</v>
       </c>
-      <c r="J6" s="29">
-        <f t="shared" si="3"/>
+      <c r="N6" s="29">
+        <f t="shared" si="2"/>
         <v>0.90000000000000024</v>
       </c>
-      <c r="K6" s="29">
-        <f t="shared" si="3"/>
+      <c r="O6" s="29">
+        <f t="shared" si="2"/>
         <v>0.95000000000000029</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>0.5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C7" s="1">
         <f>A7/2</f>
         <v>0.25</v>
       </c>
-      <c r="C7" s="6">
-        <f>4/3*PI()*B7^3*1000</f>
+      <c r="D7" s="1">
+        <f>B7-C7-C7</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <f>4/3*PI()*C7^3*1000</f>
         <v>65.449846949787357</v>
       </c>
-      <c r="D7" s="6">
-        <f>$C7*D6</f>
-        <v>39.269908169872416</v>
-      </c>
-      <c r="E7" s="6">
-        <f>$C7*E6</f>
-        <v>42.542400517361784</v>
-      </c>
       <c r="F7" s="6">
-        <f>$C7*F6</f>
-        <v>45.814892864851153</v>
+        <f>PI()*C7^2*D7*1000</f>
+        <v>196.34954084936206</v>
       </c>
       <c r="G7" s="6">
-        <f>$C7*G6</f>
-        <v>49.087385212340529</v>
+        <f>E7+F7</f>
+        <v>261.79938779914943</v>
       </c>
       <c r="H7" s="6">
-        <f>$C7*H6</f>
-        <v>52.359877559829897</v>
-      </c>
-      <c r="I7" s="12">
-        <f>$C7*I6</f>
-        <v>55.632369907319266</v>
+        <f>$G7*H$6</f>
+        <v>157.07963267948966</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" ref="I7:O8" si="3">$G7*I$6</f>
+        <v>170.16960206944714</v>
       </c>
       <c r="J7" s="6">
-        <f>$C7*J6</f>
-        <v>58.904862254808634</v>
+        <f t="shared" si="3"/>
+        <v>183.25957145940461</v>
       </c>
       <c r="K7" s="6">
-        <f>$C7*K6</f>
-        <v>62.17735460229801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>196.34954084936211</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="3"/>
+        <v>209.43951023931959</v>
+      </c>
+      <c r="M7" s="12">
+        <f t="shared" si="3"/>
+        <v>222.52947962927706</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="3"/>
+        <v>235.61944901923454</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="3"/>
+        <v>248.70941840919204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C8" s="1">
+        <f>A8/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="D8" s="1">
+        <f>B8-C8-C8</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <f>4/3*PI()*C8^3*1000</f>
+        <v>65.449846949787357</v>
+      </c>
+      <c r="F8" s="6">
+        <f>PI()*C8^2*D8*1000</f>
+        <v>19.634954084936204</v>
+      </c>
+      <c r="G8" s="6">
+        <f>E8+F8</f>
+        <v>85.084801034723569</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" ref="H8" si="4">$G8*H$6</f>
+        <v>51.050880620834143</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="3"/>
+        <v>55.305120672570318</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="3"/>
+        <v>59.559360724306501</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="3"/>
+        <v>63.813600776042684</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="3"/>
+        <v>68.067840827778866</v>
+      </c>
+      <c r="M8" s="12">
+        <f t="shared" si="3"/>
+        <v>72.322080879515056</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="3"/>
+        <v>76.576320931251232</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="3"/>
+        <v>80.830560982987421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
@@ -4774,527 +6582,772 @@
         <v>110</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="E10" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="F10" s="29">
+        <f t="shared" ref="F10:J10" si="5">5%+E10</f>
+        <v>0.65</v>
+      </c>
+      <c r="G10" s="29">
+        <f t="shared" si="5"/>
+        <v>0.70000000000000007</v>
+      </c>
       <c r="H10" s="29">
-        <v>0.6</v>
+        <f t="shared" si="5"/>
+        <v>0.75000000000000011</v>
       </c>
       <c r="I10" s="29">
-        <f t="shared" ref="I10:O10" si="4">5%+H10</f>
-        <v>0.65</v>
+        <f t="shared" si="5"/>
+        <v>0.80000000000000016</v>
       </c>
       <c r="J10" s="29">
-        <f t="shared" si="4"/>
-        <v>0.70000000000000007</v>
+        <f t="shared" si="5"/>
+        <v>0.8500000000000002</v>
       </c>
       <c r="K10" s="29">
-        <f t="shared" si="4"/>
-        <v>0.75000000000000011</v>
+        <v>0.87</v>
       </c>
       <c r="L10" s="29">
-        <f t="shared" si="4"/>
-        <v>0.80000000000000016</v>
+        <f>5%+J10</f>
+        <v>0.90000000000000024</v>
       </c>
       <c r="M10" s="29">
-        <f t="shared" si="4"/>
-        <v>0.8500000000000002</v>
+        <v>0.92</v>
       </c>
       <c r="N10" s="29">
-        <f t="shared" si="4"/>
-        <v>0.90000000000000024</v>
-      </c>
-      <c r="O10" s="29">
-        <f t="shared" si="4"/>
+        <f>5%+L10</f>
         <v>0.95000000000000029</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="Q10" s="34">
+        <f>P10/P11*Q11</f>
+        <v>4.3679066666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="B11" s="2">
         <v>0.5</v>
       </c>
-      <c r="B11" s="2">
-        <v>1.5</v>
-      </c>
       <c r="C11" s="1">
-        <f>A11/2</f>
-        <v>0.25</v>
-      </c>
-      <c r="D11" s="1">
-        <f>B11-C11-C11</f>
-        <v>1</v>
+        <f t="shared" ref="C11:C22" si="6">A11/2</f>
+        <v>0.625</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" ref="D11:D22" si="7">PI()*C11^2*B11*1000</f>
+        <v>613.59231515425654</v>
       </c>
       <c r="E11" s="6">
-        <f>4/3*PI()*C11^3*1000</f>
-        <v>65.449846949787357</v>
+        <f t="shared" ref="E11:N22" si="8">$D11*E$10</f>
+        <v>368.15538909255389</v>
       </c>
       <c r="F11" s="6">
-        <f>PI()*C11^2*D11*1000</f>
-        <v>196.34954084936206</v>
+        <f t="shared" si="8"/>
+        <v>398.83500485026678</v>
       </c>
       <c r="G11" s="6">
-        <f>E11+F11</f>
-        <v>261.79938779914943</v>
+        <f t="shared" si="8"/>
+        <v>429.51462060797962</v>
       </c>
       <c r="H11" s="6">
-        <f>$G11*H$10</f>
-        <v>157.07963267948966</v>
+        <f t="shared" si="8"/>
+        <v>460.19423636569246</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" ref="I11:O18" si="5">$G11*I$10</f>
-        <v>170.16960206944714</v>
+        <f t="shared" si="8"/>
+        <v>490.8738521234053</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="5"/>
-        <v>183.25957145940461</v>
-      </c>
-      <c r="K11" s="6">
-        <f t="shared" si="5"/>
-        <v>196.34954084936211</v>
+        <f t="shared" si="8"/>
+        <v>521.55346788111819</v>
+      </c>
+      <c r="K11" s="12">
+        <f t="shared" si="8"/>
+        <v>533.82531418420319</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="5"/>
-        <v>209.43951023931959</v>
+        <f t="shared" si="8"/>
+        <v>552.23308363883109</v>
       </c>
       <c r="M11" s="12">
-        <f t="shared" si="5"/>
-        <v>222.52947962927706</v>
+        <f t="shared" si="8"/>
+        <v>564.50492994191609</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" si="5"/>
-        <v>235.61944901923454</v>
-      </c>
-      <c r="O11" s="6">
-        <f t="shared" si="5"/>
-        <v>248.70941840919204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>582.91269939654387</v>
+      </c>
+      <c r="P11" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>6.5518599999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="7"/>
+        <v>23316.507975861747</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="8"/>
+        <v>13989.904785517048</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="8"/>
+        <v>15155.730184310136</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="8"/>
+        <v>16321.555583103223</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="8"/>
+        <v>17487.380981896313</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="8"/>
+        <v>18653.2063806894</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="8"/>
+        <v>19819.031779482488</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="8"/>
+        <v>20285.361938999718</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="8"/>
+        <v>20984.857178275579</v>
+      </c>
+      <c r="M12" s="12">
+        <f t="shared" si="8"/>
+        <v>21451.18733779281</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="8"/>
+        <v>22150.682577068666</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="B13" s="41">
         <v>0.5</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="C12" s="1">
-        <f>A12/2</f>
-        <v>0.25</v>
-      </c>
-      <c r="D12" s="1">
-        <f>B12-C12-C12</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="E12" s="6">
-        <f>4/3*PI()*C12^3*1000</f>
-        <v>65.449846949787357</v>
-      </c>
-      <c r="F12" s="6">
-        <f>PI()*C12^2*D12*1000</f>
-        <v>19.634954084936204</v>
-      </c>
-      <c r="G12" s="6">
-        <f>E12+F12</f>
-        <v>85.084801034723569</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" ref="H12:H18" si="6">$G12*H$10</f>
-        <v>51.050880620834143</v>
-      </c>
-      <c r="I12" s="6">
-        <f t="shared" si="5"/>
-        <v>55.305120672570318</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="5"/>
-        <v>59.559360724306501</v>
-      </c>
-      <c r="K12" s="6">
-        <f t="shared" si="5"/>
-        <v>63.813600776042684</v>
-      </c>
-      <c r="L12" s="6">
-        <f t="shared" si="5"/>
-        <v>68.067840827778866</v>
-      </c>
-      <c r="M12" s="12">
-        <f t="shared" si="5"/>
-        <v>72.322080879515056</v>
-      </c>
-      <c r="N12" s="6">
-        <f t="shared" si="5"/>
-        <v>76.576320931251232</v>
-      </c>
-      <c r="O12" s="6">
-        <f t="shared" si="5"/>
-        <v>80.830560982987421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.6</v>
-      </c>
       <c r="C13" s="1">
-        <f>A13/2</f>
-        <v>0.15</v>
-      </c>
-      <c r="D13" s="1">
-        <f>B13-C13-C13</f>
-        <v>0.29999999999999993</v>
+        <f t="shared" si="6"/>
+        <v>0.625</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="7"/>
+        <v>613.59231515425654</v>
       </c>
       <c r="E13" s="6">
-        <f>4/3*PI()*C13^3*1000</f>
-        <v>14.137166941154067</v>
+        <f t="shared" si="8"/>
+        <v>368.15538909255389</v>
       </c>
       <c r="F13" s="6">
-        <f>PI()*C13^2*D13*1000</f>
-        <v>21.205750411731099</v>
+        <f t="shared" si="8"/>
+        <v>398.83500485026678</v>
       </c>
       <c r="G13" s="6">
-        <f>E13+F13</f>
-        <v>35.342917352885166</v>
+        <f t="shared" si="8"/>
+        <v>429.51462060797962</v>
       </c>
       <c r="H13" s="6">
+        <f t="shared" si="8"/>
+        <v>460.19423636569246</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="8"/>
+        <v>490.8738521234053</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="8"/>
+        <v>521.55346788111819</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" si="8"/>
+        <v>533.82531418420319</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="8"/>
+        <v>552.23308363883109</v>
+      </c>
+      <c r="M13" s="12">
+        <f t="shared" si="8"/>
+        <v>564.50492994191609</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="8"/>
+        <v>582.91269939654387</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="B14" s="41">
+        <v>1.8</v>
+      </c>
+      <c r="C14" s="1">
         <f t="shared" si="6"/>
-        <v>21.205750411731099</v>
-      </c>
-      <c r="I13" s="6">
-        <f t="shared" si="5"/>
-        <v>22.972896279375359</v>
-      </c>
-      <c r="J13" s="6">
-        <f t="shared" si="5"/>
-        <v>24.740042147019619</v>
-      </c>
-      <c r="K13" s="6">
-        <f t="shared" si="5"/>
-        <v>26.507188014663878</v>
-      </c>
-      <c r="L13" s="6">
-        <f t="shared" si="5"/>
-        <v>28.274333882308138</v>
-      </c>
-      <c r="M13" s="12">
-        <f t="shared" si="5"/>
-        <v>30.041479749952398</v>
-      </c>
-      <c r="N13" s="6">
-        <f t="shared" si="5"/>
-        <v>31.808625617596658</v>
-      </c>
-      <c r="O13" s="6">
-        <f t="shared" si="5"/>
-        <v>33.575771485240921</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="7"/>
+        <v>8835.7293382212938</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="8"/>
+        <v>5301.4376029327759</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="8"/>
+        <v>5743.2240698438409</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="8"/>
+        <v>6185.0105367549058</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="8"/>
+        <v>6626.7970036659717</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="8"/>
+        <v>7068.5834705770367</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="8"/>
+        <v>7510.3699374881016</v>
+      </c>
+      <c r="K14" s="12">
+        <f t="shared" si="8"/>
+        <v>7687.0845242525256</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="8"/>
+        <v>7952.1564043991666</v>
+      </c>
+      <c r="M14" s="12">
+        <f t="shared" si="8"/>
+        <v>8128.8709911635906</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="8"/>
+        <v>8393.9428713102316</v>
+      </c>
+      <c r="Q14" s="4">
+        <f>Q12+Q13</f>
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="B15" s="41">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="7"/>
+        <v>29452.43112740431</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="8"/>
+        <v>17671.458676442584</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="8"/>
+        <v>19144.080232812801</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="8"/>
+        <v>20616.701789183018</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="8"/>
+        <v>22089.323345553235</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="8"/>
+        <v>23561.944901923453</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="8"/>
+        <v>25034.56645829367</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" si="8"/>
+        <v>25623.615080841751</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="8"/>
+        <v>26507.188014663887</v>
+      </c>
+      <c r="M15" s="12">
+        <f t="shared" si="8"/>
+        <v>27096.236637211965</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="8"/>
+        <v>27979.809571034104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="B16" s="41">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="7"/>
+        <v>9817.4770424681046</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="8"/>
+        <v>5890.4862254808622</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="8"/>
+        <v>6381.3600776042686</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="8"/>
+        <v>6872.233929727674</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="8"/>
+        <v>7363.1077818510794</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="8"/>
+        <v>7853.9816339744848</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="8"/>
+        <v>8344.8554860978911</v>
+      </c>
+      <c r="K16" s="12">
+        <f t="shared" si="8"/>
+        <v>8541.2050269472511</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="8"/>
+        <v>8835.7293382212974</v>
+      </c>
+      <c r="M16" s="12">
+        <f t="shared" si="8"/>
+        <v>9032.0788790706574</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="8"/>
+        <v>9326.6031903447019</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="B17" s="41">
+        <v>2.4</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="7"/>
+        <v>11780.972450961724</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="8"/>
+        <v>7068.5834705770349</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="8"/>
+        <v>7657.6320931251212</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="8"/>
+        <v>8246.6807156732084</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="8"/>
+        <v>8835.7293382212938</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="8"/>
+        <v>9424.777960769381</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="8"/>
+        <v>10013.826583317468</v>
+      </c>
+      <c r="K17" s="12">
+        <f t="shared" si="8"/>
+        <v>10249.4460323367</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="8"/>
+        <v>10602.875205865555</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" si="8"/>
+        <v>10838.494654884787</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="8"/>
+        <v>11191.923828413641</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>Q16*2/3</f>
+        <v>1.9866666666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>3.75</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B18" s="41">
         <v>3.5</v>
       </c>
-      <c r="C14" s="1">
-        <f>A14/2</f>
+      <c r="C18" s="1">
+        <f t="shared" si="6"/>
         <v>1.875</v>
       </c>
-      <c r="D14" s="1">
-        <f>B14-C14-C14</f>
-        <v>-0.25</v>
-      </c>
-      <c r="E14" s="6">
-        <f>4/3*PI()*C14^3*1000</f>
-        <v>27611.65418194154</v>
-      </c>
-      <c r="F14" s="6">
-        <f>PI()*C14^2*D14*1000</f>
-        <v>-2761.165418194154</v>
-      </c>
-      <c r="G14" s="6">
-        <f>E14+F14</f>
-        <v>24850.488763747388</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="D18" s="6">
+        <f t="shared" si="7"/>
+        <v>38656.315854718159</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="8"/>
+        <v>23193.789512830896</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="8"/>
+        <v>25126.605305566805</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="8"/>
+        <v>27059.421098302715</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="8"/>
+        <v>28992.236891038625</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="8"/>
+        <v>30925.052683774535</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="8"/>
+        <v>32857.868476510441</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="8"/>
+        <v>33630.994793604797</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="8"/>
+        <v>34790.684269246354</v>
+      </c>
+      <c r="M18" s="12">
+        <f t="shared" si="8"/>
+        <v>35563.810586340711</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="8"/>
+        <v>36723.50006198226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="B19" s="41">
+        <v>1.9</v>
+      </c>
+      <c r="C19" s="1">
         <f t="shared" si="6"/>
-        <v>14910.293258248432</v>
-      </c>
-      <c r="I14" s="6">
-        <f t="shared" si="5"/>
-        <v>16152.817696435803</v>
-      </c>
-      <c r="J14" s="6">
-        <f t="shared" si="5"/>
-        <v>17395.342134623173</v>
-      </c>
-      <c r="K14" s="6">
-        <f t="shared" si="5"/>
-        <v>18637.866572810544</v>
-      </c>
-      <c r="L14" s="6">
-        <f t="shared" si="5"/>
-        <v>19880.391010997915</v>
-      </c>
-      <c r="M14" s="12">
-        <f t="shared" si="5"/>
-        <v>21122.915449185286</v>
-      </c>
-      <c r="N14" s="6">
-        <f t="shared" si="5"/>
-        <v>22365.439887372653</v>
-      </c>
-      <c r="O14" s="6">
-        <f t="shared" si="5"/>
-        <v>23607.964325560024</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="7"/>
+        <v>9326.6031903446983</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="8"/>
+        <v>5595.9619142068186</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="8"/>
+        <v>6062.2920737240538</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="8"/>
+        <v>6528.622233241289</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="8"/>
+        <v>6994.9523927585251</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="8"/>
+        <v>7461.2825522757603</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="8"/>
+        <v>7927.6127117929955</v>
+      </c>
+      <c r="K19" s="12">
+        <f t="shared" si="8"/>
+        <v>8114.1447755998879</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="8"/>
+        <v>8393.9428713102316</v>
+      </c>
+      <c r="M19" s="12">
+        <f t="shared" si="8"/>
+        <v>8580.4749351171231</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="8"/>
+        <v>8860.2730308274658</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="B20" s="41">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="7"/>
+        <v>22580.197197676636</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="8"/>
+        <v>13548.118318605981</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="8"/>
+        <v>14677.128178489815</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="8"/>
+        <v>15806.138038373647</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="8"/>
+        <v>16935.147898257481</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="8"/>
+        <v>18064.157758141311</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="8"/>
+        <v>19193.167618025145</v>
+      </c>
+      <c r="K20" s="12">
+        <f t="shared" si="8"/>
+        <v>19644.771561978672</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="8"/>
+        <v>20322.177477908979</v>
+      </c>
+      <c r="M20" s="12">
+        <f t="shared" si="8"/>
+        <v>20773.781421862506</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" si="8"/>
+        <v>21451.18733779281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>3.75</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B21" s="41">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="6"/>
+        <v>1.875</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="7"/>
+        <v>66267.97003665971</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="8"/>
+        <v>39760.782021995823</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="8"/>
+        <v>43074.180523828814</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="8"/>
+        <v>46387.579025661798</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="8"/>
+        <v>49700.97752749479</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="8"/>
+        <v>53014.376029327781</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="8"/>
+        <v>56327.774531160765</v>
+      </c>
+      <c r="K21" s="12">
+        <f t="shared" si="8"/>
+        <v>57653.13393189395</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="8"/>
+        <v>59641.173032993756</v>
+      </c>
+      <c r="M21" s="12">
+        <f t="shared" si="8"/>
+        <v>60966.532433726934</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="8"/>
+        <v>62954.57153482674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1.875</v>
+      </c>
+      <c r="B22" s="41">
         <v>3.5</v>
       </c>
-      <c r="C15" s="1">
-        <f>A15/2</f>
-        <v>1.875</v>
-      </c>
-      <c r="D15" s="1">
-        <f>B15-C15-C15</f>
-        <v>-0.25</v>
-      </c>
-      <c r="E15" s="6">
-        <f>4/3*PI()*C15^3*1000</f>
-        <v>27611.65418194154</v>
-      </c>
-      <c r="F15" s="6">
-        <f>PI()*C15^2*D15*1000</f>
-        <v>-2761.165418194154</v>
-      </c>
-      <c r="G15" s="6">
-        <f>E15+F15</f>
-        <v>24850.488763747388</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="C22" s="1">
         <f t="shared" si="6"/>
-        <v>14910.293258248432</v>
-      </c>
-      <c r="I15" s="6">
-        <f t="shared" si="5"/>
-        <v>16152.817696435803</v>
-      </c>
-      <c r="J15" s="6">
-        <f t="shared" si="5"/>
-        <v>17395.342134623173</v>
-      </c>
-      <c r="K15" s="6">
-        <f t="shared" si="5"/>
-        <v>18637.866572810544</v>
-      </c>
-      <c r="L15" s="6">
-        <f t="shared" si="5"/>
-        <v>19880.391010997915</v>
-      </c>
-      <c r="M15" s="12">
-        <f t="shared" si="5"/>
-        <v>21122.915449185286</v>
-      </c>
-      <c r="N15" s="6">
-        <f t="shared" si="5"/>
-        <v>22365.439887372653</v>
-      </c>
-      <c r="O15" s="6">
-        <f t="shared" si="5"/>
-        <v>23607.964325560024</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>3.75</v>
-      </c>
-      <c r="B16" s="2">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1">
-        <f>A16/2</f>
-        <v>1.875</v>
-      </c>
-      <c r="D16" s="1">
-        <f>B16-C16-C16</f>
-        <v>5.25</v>
-      </c>
-      <c r="E16" s="6">
-        <f>4/3*PI()*C16^3*1000</f>
-        <v>27611.65418194154</v>
-      </c>
-      <c r="F16" s="6">
-        <f>PI()*C16^2*D16*1000</f>
-        <v>57984.473782077235</v>
-      </c>
-      <c r="G16" s="6">
-        <f>E16+F16</f>
-        <v>85596.127964018771</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" si="6"/>
-        <v>51357.67677841126</v>
-      </c>
-      <c r="I16" s="6">
-        <f t="shared" si="5"/>
-        <v>55637.483176612201</v>
-      </c>
-      <c r="J16" s="6">
-        <f t="shared" si="5"/>
-        <v>59917.289574813149</v>
-      </c>
-      <c r="K16" s="6">
-        <f t="shared" si="5"/>
-        <v>64197.095973014089</v>
-      </c>
-      <c r="L16" s="6">
-        <f t="shared" si="5"/>
-        <v>68476.902371215037</v>
-      </c>
-      <c r="M16" s="12">
-        <f t="shared" si="5"/>
-        <v>72756.708769415971</v>
-      </c>
-      <c r="N16" s="6">
-        <f t="shared" si="5"/>
-        <v>77036.515167616919</v>
-      </c>
-      <c r="O16" s="6">
-        <f t="shared" si="5"/>
-        <v>81316.321565817852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>3.75</v>
-      </c>
-      <c r="B17" s="2">
-        <v>15</v>
-      </c>
-      <c r="C17" s="1">
-        <f>A17/2</f>
-        <v>1.875</v>
-      </c>
-      <c r="D17" s="1">
-        <f>B17-C17-C17</f>
-        <v>11.25</v>
-      </c>
-      <c r="E17" s="6">
-        <f>4/3*PI()*C17^3*1000</f>
-        <v>27611.65418194154</v>
-      </c>
-      <c r="F17" s="6">
-        <f>PI()*C17^2*D17*1000</f>
-        <v>124252.44381873694</v>
-      </c>
-      <c r="G17" s="6">
-        <f>E17+F17</f>
-        <v>151864.09800067847</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" si="6"/>
-        <v>91118.458800407083</v>
-      </c>
-      <c r="I17" s="6">
-        <f t="shared" si="5"/>
-        <v>98711.663700441</v>
-      </c>
-      <c r="J17" s="6">
-        <f t="shared" si="5"/>
-        <v>106304.86860047493</v>
-      </c>
-      <c r="K17" s="6">
-        <f t="shared" si="5"/>
-        <v>113898.07350050886</v>
-      </c>
-      <c r="L17" s="6">
-        <f t="shared" si="5"/>
-        <v>121491.2784005428</v>
-      </c>
-      <c r="M17" s="12">
-        <f t="shared" si="5"/>
-        <v>129084.48330057673</v>
-      </c>
-      <c r="N17" s="6">
-        <f t="shared" si="5"/>
-        <v>136677.68820061066</v>
-      </c>
-      <c r="O17" s="6">
-        <f t="shared" si="5"/>
-        <v>144270.89310064458</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="C18" s="1">
-        <f>A18/2</f>
-        <v>1.25</v>
-      </c>
-      <c r="D18" s="1">
-        <f>B18-C18-C18</f>
-        <v>-0.7</v>
-      </c>
-      <c r="E18" s="6">
-        <f>4/3*PI()*C18^3*1000</f>
-        <v>8181.2308687234199</v>
-      </c>
-      <c r="F18" s="6">
-        <f>PI()*C18^2*D18*1000</f>
-        <v>-3436.1169648638361</v>
-      </c>
-      <c r="G18" s="6">
-        <f>E18+F18</f>
-        <v>4745.1139038595838</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" si="6"/>
-        <v>2847.0683423157502</v>
-      </c>
-      <c r="I18" s="6">
-        <f t="shared" si="5"/>
-        <v>3084.3240375087298</v>
-      </c>
-      <c r="J18" s="6">
-        <f t="shared" si="5"/>
-        <v>3321.579732701709</v>
-      </c>
-      <c r="K18" s="6">
-        <f t="shared" si="5"/>
-        <v>3558.8354278946886</v>
-      </c>
-      <c r="L18" s="6">
-        <f t="shared" si="5"/>
-        <v>3796.0911230876677</v>
-      </c>
-      <c r="M18" s="12">
-        <f t="shared" si="5"/>
-        <v>4033.3468182806473</v>
-      </c>
-      <c r="N18" s="6">
-        <f t="shared" si="5"/>
-        <v>4270.6025134736265</v>
-      </c>
-      <c r="O18" s="6">
-        <f t="shared" si="5"/>
-        <v>4507.8582086666056</v>
+        <v>0.9375</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="7"/>
+        <v>9664.0789636795398</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="8"/>
+        <v>5798.4473782077239</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="8"/>
+        <v>6281.6513263917013</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="8"/>
+        <v>6764.8552745756788</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="8"/>
+        <v>7248.0592227596562</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="8"/>
+        <v>7731.2631709436337</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="8"/>
+        <v>8214.4671191276102</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" si="8"/>
+        <v>8407.7486984011994</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="8"/>
+        <v>8697.6710673115886</v>
+      </c>
+      <c r="M22" s="12">
+        <f t="shared" si="8"/>
+        <v>8890.9526465851777</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="8"/>
+        <v>9180.8750154955651</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="G24" s="1">
+        <f>1.25*F24</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <f>F24/F25*E24</f>
+        <v>1.1771117166212535</v>
+      </c>
+      <c r="F25" s="1">
+        <f>3.67/1.25</f>
+        <v>2.9359999999999999</v>
+      </c>
+      <c r="G25" s="1">
+        <f>1.25*F25</f>
+        <v>3.67</v>
       </c>
     </row>
   </sheetData>
@@ -5306,7 +7359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -5317,7 +7370,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
@@ -5327,40 +7380,40 @@
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="37">
+      <c r="B2" s="38">
         <v>5</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="38">
         <f>60*B2</f>
         <v>300</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="38">
         <f>250*B2</f>
         <v>1250</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="37">
+      <c r="B3" s="38">
         <v>8</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="38">
         <f>60*B3</f>
         <v>480</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="38">
         <f>250*B3</f>
         <v>2000</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="37">
+      <c r="B4" s="38">
         <v>0.5</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="38">
         <f>60*B4</f>
         <v>30</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="38">
         <f>250*B4</f>
         <v>125</v>
       </c>

--- a/balance.xlsx
+++ b/balance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="electrical" sheetId="1" r:id="rId1"/>
@@ -13,17 +13,23 @@
     <sheet name="launches" sheetId="5" r:id="rId4"/>
     <sheet name="fuel" sheetId="6" r:id="rId5"/>
     <sheet name="CMG" sheetId="7" r:id="rId6"/>
+    <sheet name="temp" sheetId="9" r:id="rId7"/>
+    <sheet name="mass" sheetId="10" r:id="rId8"/>
+    <sheet name="Atlas V" sheetId="11" r:id="rId9"/>
+    <sheet name="solar" sheetId="12" r:id="rId10"/>
+    <sheet name="battery" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="dish_names">comms!$K$2:$K$11</definedName>
     <definedName name="dish_ranges">comms!$L$2:$L$11</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="299">
   <si>
     <t>W/m2</t>
   </si>
@@ -505,10 +511,421 @@
     <t>--n/a--</t>
   </si>
   <si>
+    <t>kg/m2</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>f(x)</t>
+  </si>
+  <si>
+    <t>f'(x)</t>
+  </si>
+  <si>
+    <t>dep</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>fx</t>
+  </si>
+  <si>
     <t>plume</t>
   </si>
   <si>
     <t>Hypergolic</t>
+  </si>
+  <si>
+    <t>FairingCone_dia = 1.25</t>
+  </si>
+  <si>
+    <t>FairingCone_hgt = 1.875</t>
+  </si>
+  <si>
+    <t>FairingCone_dep = 0.00375</t>
+  </si>
+  <si>
+    <t>FairingCone_arcs = 2</t>
+  </si>
+  <si>
+    <t>Can_dia = 5</t>
+  </si>
+  <si>
+    <t>Can_hgt = 6.25</t>
+  </si>
+  <si>
+    <t>Can_dep = 0.015</t>
+  </si>
+  <si>
+    <t>Can_arcs = 2</t>
+  </si>
+  <si>
+    <t>TruncCone_diaTop = 0.625</t>
+  </si>
+  <si>
+    <t>TruncCone_diaBot = 1.25</t>
+  </si>
+  <si>
+    <t>TruncCone_hgt = 0.325</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>Can_ends = 0</t>
+  </si>
+  <si>
+    <t>Can_arcs = 1</t>
+  </si>
+  <si>
+    <t>TruncCone_density = 0.28</t>
+  </si>
+  <si>
+    <t>hgt</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>boatttail</t>
+  </si>
+  <si>
+    <t>stub</t>
+  </si>
+  <si>
+    <t>canonical</t>
+  </si>
+  <si>
+    <t>ISA</t>
+  </si>
+  <si>
+    <t>core</t>
+  </si>
+  <si>
+    <t>Can_dia = 1.25</t>
+  </si>
+  <si>
+    <t>Can_hgt = 1.25</t>
+  </si>
+  <si>
+    <t>Can_dep = 0.00375</t>
+  </si>
+  <si>
+    <t>Can_density = 0.60</t>
+  </si>
+  <si>
+    <t>change = 0.0055223308363883</t>
+  </si>
+  <si>
+    <t>midChange = 0</t>
+  </si>
+  <si>
+    <t>lateral = 0.0110446616727766</t>
+  </si>
+  <si>
+    <t>1mfairingwall</t>
+  </si>
+  <si>
+    <t>2pi r h</t>
+  </si>
+  <si>
+    <t>octoStrut</t>
+  </si>
+  <si>
+    <t>Can_dia = 0.54</t>
+  </si>
+  <si>
+    <t>Can_hgt = 0.26</t>
+  </si>
+  <si>
+    <t>Can_density = 0.28</t>
+  </si>
+  <si>
+    <t>pir^2 h</t>
+  </si>
+  <si>
+    <t>Can_dia = 5.2</t>
+  </si>
+  <si>
+    <t>Can_hgt = 5</t>
+  </si>
+  <si>
+    <t>Can_arcs = 4</t>
+  </si>
+  <si>
+    <t>sqrt_calc = 3.90625</t>
+  </si>
+  <si>
+    <t>sqrt_x0 = 0.300480769230769</t>
+  </si>
+  <si>
+    <t>step1 = 0.300480769230769</t>
+  </si>
+  <si>
+    <t>step2 = 0.0902886926775146</t>
+  </si>
+  <si>
+    <t>step3 = -3.81596130732249</t>
+  </si>
+  <si>
+    <t>step4 = -12.6995192307693</t>
+  </si>
+  <si>
+    <t>step5 = -12.6995192307693</t>
+  </si>
+  <si>
+    <t>sqrt_fx0 = -12.3990384615385</t>
+  </si>
+  <si>
+    <t>sqrt_fx1 = -25.0912757814598</t>
+  </si>
+  <si>
+    <t>sqrt_fx2 = -31.3558690829032</t>
+  </si>
+  <si>
+    <t>sqrt_fx3 = -32.4828950677055</t>
+  </si>
+  <si>
+    <t>sqrt_fx4 = -32.4017427435643</t>
+  </si>
+  <si>
+    <t>sqrt_is = -32.4017427435643</t>
+  </si>
+  <si>
+    <t>1m fairing cone</t>
+  </si>
+  <si>
+    <t>FairingCone_dia = 6.5</t>
+  </si>
+  <si>
+    <t>FairingCone_hgt = 6.8</t>
+  </si>
+  <si>
+    <t>FairingCone_dep = 0.015</t>
+  </si>
+  <si>
+    <t>sqrt_calc = 56.8025</t>
+  </si>
+  <si>
+    <t>sqrt_x0 = 4.36942307692308</t>
+  </si>
+  <si>
+    <t>step1 = 4.36942307692308</t>
+  </si>
+  <si>
+    <t>step2 = 19.091858025148</t>
+  </si>
+  <si>
+    <t>step3 = -37.710641974852</t>
+  </si>
+  <si>
+    <t>step4 = -8.6305769230769</t>
+  </si>
+  <si>
+    <t>step5 = 4.31528846153845</t>
+  </si>
+  <si>
+    <t>sqrt_fx0 = 8.68471153846153</t>
+  </si>
+  <si>
+    <t>sqrt_fx1 = 4.2883898731277</t>
+  </si>
+  <si>
+    <t>sqrt_fx2 = -4.4502875614369</t>
+  </si>
+  <si>
+    <t>sqrt_fx3 = -8.845954815589</t>
+  </si>
+  <si>
+    <t>sqrt_fx4 = -4.60892103324096</t>
+  </si>
+  <si>
+    <t>sqrt_is = -4.60892103324096</t>
+  </si>
+  <si>
+    <t>topRadius = 0.3125</t>
+  </si>
+  <si>
+    <t>topRadius2 = 0.09765625</t>
+  </si>
+  <si>
+    <t>botRadius = 0.625</t>
+  </si>
+  <si>
+    <t>botRadius2 = 0.390625</t>
+  </si>
+  <si>
+    <t>step1 = 0.227864583333333</t>
+  </si>
+  <si>
+    <t>step2 = 0.0651430507922102</t>
+  </si>
+  <si>
+    <t>1m fairing base</t>
+  </si>
+  <si>
+    <t>Atlas V</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>t cone</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>dia1</t>
+  </si>
+  <si>
+    <t>rad1</t>
+  </si>
+  <si>
+    <t>dia2</t>
+  </si>
+  <si>
+    <t>rad2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>trusst vol</t>
+  </si>
+  <si>
+    <t>as vol</t>
+  </si>
+  <si>
+    <t>ton/m3</t>
+  </si>
+  <si>
+    <t>fairing</t>
+  </si>
+  <si>
+    <t>ISAs</t>
+  </si>
+  <si>
+    <t>5 short</t>
+  </si>
+  <si>
+    <t>5 med</t>
+  </si>
+  <si>
+    <t>5 long</t>
+  </si>
+  <si>
+    <t>4 short</t>
+  </si>
+  <si>
+    <t>4 med</t>
+  </si>
+  <si>
+    <t>4 long</t>
+  </si>
+  <si>
+    <t>A937</t>
+  </si>
+  <si>
+    <t>adapter</t>
+  </si>
+  <si>
+    <t>hgt1</t>
+  </si>
+  <si>
+    <t>hgt2</t>
+  </si>
+  <si>
+    <t>top area</t>
+  </si>
+  <si>
+    <t>bot area</t>
+  </si>
+  <si>
+    <t>vol</t>
+  </si>
+  <si>
+    <t>Can_dia = 3.75</t>
+  </si>
+  <si>
+    <t>Can_hgt = 0.2</t>
+  </si>
+  <si>
+    <t>Can_dep = 0.625</t>
+  </si>
+  <si>
+    <t>t cone = (r^2+rR+R^2)/2 pi h</t>
+  </si>
+  <si>
+    <t>5m fairing base</t>
+  </si>
+  <si>
+    <t>PayloadDec</t>
+  </si>
+  <si>
+    <t>m5 KW</t>
+  </si>
+  <si>
+    <t>bot hgt</t>
+  </si>
+  <si>
+    <t>top hgt</t>
+  </si>
+  <si>
+    <t>Can_density = 0.47</t>
+  </si>
+  <si>
+    <t>wh</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>wid</t>
+  </si>
+  <si>
+    <t>panels</t>
+  </si>
+  <si>
+    <t>m^2</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>tracking</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>Wh/L</t>
+  </si>
+  <si>
+    <t>http://www.quallion.com/sub-sp-ql015ka.asp</t>
+  </si>
+  <si>
+    <t>thich</t>
+  </si>
+  <si>
+    <t>m^3</t>
+  </si>
+  <si>
+    <t>Ah</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>http://www.quallion.com/sub-sp-ql075ka.asp</t>
   </si>
 </sst>
 </file>
@@ -521,9 +938,9 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
     <numFmt numFmtId="168" formatCode="#,##0.000"/>
-    <numFmt numFmtId="178" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="169" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,6 +965,23 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -624,10 +1058,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -728,6 +1163,9 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -752,14 +1190,27 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1343,7 +1794,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D15" s="35">
+      <c r="D15" s="36">
         <f>600000</f>
         <v>600000</v>
       </c>
@@ -1381,7 +1832,7 @@
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="35">
+      <c r="D17" s="36">
         <v>2868750</v>
       </c>
       <c r="E17" s="1">
@@ -1398,7 +1849,7 @@
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="36">
+      <c r="D19" s="37">
         <v>3531600000000</v>
       </c>
       <c r="E19" s="19">
@@ -1407,7 +1858,7 @@
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="40" t="s">
         <v>129</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1415,7 +1866,7 @@
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="40" t="s">
         <v>130</v>
       </c>
       <c r="E21" s="19">
@@ -1433,7 +1884,7 @@
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="40" t="s">
         <v>131</v>
       </c>
       <c r="E23" s="19">
@@ -1447,7 +1898,7 @@
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="40">
+      <c r="D25" s="41">
         <v>0.19</v>
       </c>
     </row>
@@ -1463,6 +1914,338 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <f>A2*B2*C2</f>
+        <v>2.8800000000000003</v>
+      </c>
+      <c r="E2" s="1">
+        <f>250*D2</f>
+        <v>720.00000000000011</v>
+      </c>
+      <c r="F2" s="7">
+        <f>E2/3600</f>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="G2" s="40">
+        <f>A2*B2*C2*1*0.03</f>
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="H2" s="46">
+        <f>G2*1.25</f>
+        <v>0.10800000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="C2" s="1">
+        <f>A2/2</f>
+        <v>0.3125</v>
+      </c>
+      <c r="D2" s="1">
+        <f>PI()*C2^2*B2</f>
+        <v>0.25464081078901646</v>
+      </c>
+      <c r="E2" s="46">
+        <f>D2*2.4</f>
+        <v>0.61113794589363946</v>
+      </c>
+      <c r="F2" s="10">
+        <f>D2*30000</f>
+        <v>7639.2243236704935</v>
+      </c>
+      <c r="K2" s="1">
+        <v>150</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="1">
+        <f>A3/2</f>
+        <v>0.125</v>
+      </c>
+      <c r="D3" s="1">
+        <f>PI()*C3^2*B3</f>
+        <v>1.2271846303085129E-2</v>
+      </c>
+      <c r="E3" s="46">
+        <f>D3*2.1</f>
+        <v>2.5770877236478772E-2</v>
+      </c>
+      <c r="F3" s="10">
+        <f>D3*30000</f>
+        <v>368.15538909255389</v>
+      </c>
+      <c r="K3" s="1">
+        <v>295</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="1">
+        <f>88.3/1000</f>
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="1">
+        <f>54.5/1000</f>
+        <v>5.45E-2</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="1">
+        <f>38/1000</f>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="1">
+        <f>K4*K5*K6</f>
+        <v>1.8286929999999999E-4</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K8" s="1">
+        <v>15</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K10" s="1">
+        <f>K8*K9</f>
+        <v>54</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K12" s="47" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K13" s="1">
+        <v>142</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K14" s="1">
+        <v>330</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K15" s="1">
+        <f>M15/1000</f>
+        <v>0.17369999999999999</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M15" s="1">
+        <v>173.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K16" s="1">
+        <f>M16/1000</f>
+        <v>8.09E-2</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="M16" s="1">
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K17" s="1">
+        <f>M17/1000</f>
+        <v>5.62E-2</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="M17" s="1">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="18" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K18" s="1">
+        <f>K15*K16*K17</f>
+        <v>7.8974094600000005E-4</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K19" s="1">
+        <v>72</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K20" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="11:13" x14ac:dyDescent="0.25">
+      <c r="K21" s="1">
+        <f>K19*K20</f>
+        <v>259.2</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1"/>
+    <hyperlink ref="K12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1471,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,42 +2298,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="T1" s="42" t="s">
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="T1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AB1" s="42" t="s">
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AB1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AJ1" s="42" t="s">
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AJ1" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="42"/>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="48"/>
     </row>
     <row r="2" spans="1:47" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F2" s="13" t="s">
@@ -1769,7 +2552,7 @@
       <c r="AR3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AS3" s="40">
+      <c r="AS3" s="41">
         <v>12.815</v>
       </c>
     </row>
@@ -1874,11 +2657,11 @@
         <v>0</v>
       </c>
       <c r="AM4" s="6">
-        <f t="shared" ref="AM4:AM5" si="1">0.8*AE4</f>
+        <f>0.8*AE4</f>
         <v>859.90200000000004</v>
       </c>
       <c r="AN4" s="6">
-        <f t="shared" ref="AN4:AN5" si="2">0.85*P4</f>
+        <f>0.85*P4</f>
         <v>4109.75</v>
       </c>
       <c r="AO4" s="12" t="e">
@@ -1892,7 +2675,7 @@
       <c r="AR4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AS4" s="40">
+      <c r="AS4" s="41">
         <v>1.5</v>
       </c>
       <c r="AT4" s="1" t="s">
@@ -2000,11 +2783,11 @@
         <v>0</v>
       </c>
       <c r="AM5" s="6">
-        <f t="shared" si="1"/>
+        <f>0.8*AE5</f>
         <v>3457.6580000000004</v>
       </c>
       <c r="AN5" s="6">
-        <f t="shared" si="2"/>
+        <f>0.85*P5</f>
         <v>4427.6499999999996</v>
       </c>
       <c r="AO5" s="12" t="e">
@@ -2050,11 +2833,11 @@
         <v>70035</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" ref="O6" si="3">I6</f>
+        <f>I6</f>
         <v>4789</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" ref="P6" si="4">J6</f>
+        <f>J6</f>
         <v>5209</v>
       </c>
       <c r="Q6" s="12">
@@ -2120,11 +2903,11 @@
         <v>0</v>
       </c>
       <c r="AM6" s="6">
-        <f t="shared" ref="AM6" si="5">0.8*AE6</f>
+        <f>0.8*AE6</f>
         <v>3457.6580000000004</v>
       </c>
       <c r="AN6" s="6">
-        <f t="shared" ref="AN6" si="6">0.85*P6</f>
+        <f>0.85*P6</f>
         <v>4427.6499999999996</v>
       </c>
       <c r="AO6" s="12" t="e">
@@ -2138,7 +2921,7 @@
       <c r="AR6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AS6" s="40">
+      <c r="AS6" s="41">
         <v>230</v>
       </c>
       <c r="AT6" s="1">
@@ -2169,18 +2952,15 @@
         <v>154</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="E9" s="37" t="str">
-        <f t="shared" ref="E9:E11" si="7">IF(D9="--n/a--","",IF(C9="Hyperg","Hypergolic",""))&amp;"-"</f>
-        <v>-</v>
-      </c>
+      <c r="E9" s="38"/>
       <c r="AR9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AS9" s="40">
+      <c r="AS9" s="41">
         <v>25</v>
       </c>
     </row>
@@ -2194,17 +2974,17 @@
       <c r="C10" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="37" t="str">
-        <f t="shared" si="7"/>
+      <c r="E10" s="38" t="str">
+        <f>IF(D10="--n/a--","",IF(C10="Hyperg","Hypergolic",C10))&amp;"-"</f>
         <v>-</v>
       </c>
       <c r="AR10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AS10" s="40">
+      <c r="AS10" s="41">
         <v>1.5</v>
       </c>
       <c r="AT10" s="1" t="s">
@@ -2225,11 +3005,11 @@
       <c r="C11" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="37" t="str">
-        <f t="shared" si="7"/>
+      <c r="E11" s="38" t="str">
+        <f t="shared" ref="E11:E74" si="1">IF(D11="--n/a--","",IF(C11="Hyperg","Hypergolic",C11))&amp;"-"</f>
         <v>-</v>
       </c>
       <c r="AR11" s="1" t="s">
@@ -2248,19 +3028,19 @@
         <v>0.625</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E12" s="37" t="str">
-        <f>IF(D12="--n/a--","",IF(C12="Hyperg","Hypergolic",""))&amp;"-"</f>
-        <v>-</v>
+      <c r="E12" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hypergolic-</v>
       </c>
       <c r="AR12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AS12" s="40">
+      <c r="AS12" s="41">
         <v>230</v>
       </c>
       <c r="AT12" s="1">
@@ -2281,9 +3061,9 @@
       <c r="D13" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="37" t="str">
-        <f t="shared" ref="E13:E76" si="8">IF(D13="--n/a--","",IF(C13="Hyperg","Hypergolic",""))&amp;"-"</f>
-        <v>-</v>
+      <c r="E13" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydraz-</v>
       </c>
       <c r="AR13" s="1" t="s">
         <v>30</v>
@@ -2303,11 +3083,11 @@
       <c r="C14" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E14" s="37" t="str">
-        <f t="shared" si="8"/>
+      <c r="E14" s="38" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -2321,11 +3101,11 @@
       <c r="C15" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="37" t="str">
-        <f t="shared" si="8"/>
+      <c r="E15" s="38" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -2337,14 +3117,14 @@
         <v>0.625</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E16" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E16" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hypergolic-</v>
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.25">
@@ -2360,9 +3140,9 @@
       <c r="D17" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E17" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E17" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydraz-</v>
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.25">
@@ -2375,11 +3155,11 @@
       <c r="C18" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="37" t="str">
-        <f t="shared" si="8"/>
+      <c r="E18" s="38" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -2393,11 +3173,11 @@
       <c r="C19" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="37" t="str">
-        <f t="shared" si="8"/>
+      <c r="E19" s="38" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -2409,14 +3189,14 @@
         <v>0.625</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E20" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E20" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hypergolic-</v>
       </c>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.25">
@@ -2432,9 +3212,9 @@
       <c r="D21" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E21" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydraz-</v>
       </c>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.25">
@@ -2447,11 +3227,11 @@
       <c r="C22" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="37" t="str">
-        <f t="shared" si="8"/>
+      <c r="E22" s="38" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -2465,11 +3245,11 @@
       <c r="C23" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E23" s="37" t="str">
-        <f t="shared" si="8"/>
+      <c r="E23" s="38" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -2481,14 +3261,14 @@
         <v>0.625</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E24" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E24" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hypergolic-</v>
       </c>
       <c r="AS24" s="3"/>
     </row>
@@ -2505,9 +3285,9 @@
       <c r="D25" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E25" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E25" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydraz-</v>
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.25">
@@ -2523,9 +3303,9 @@
       <c r="D26" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E26" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydrolox-</v>
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.25">
@@ -2541,9 +3321,9 @@
       <c r="D27" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E27" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E27" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Kerolox-</v>
       </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.25">
@@ -2554,14 +3334,14 @@
         <v>1.25</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E28" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hypergolic-</v>
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.25">
@@ -2577,9 +3357,9 @@
       <c r="D29" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E29" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydraz-</v>
       </c>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.25">
@@ -2595,9 +3375,9 @@
       <c r="D30" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E30" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E30" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydrolox-</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.25">
@@ -2613,9 +3393,9 @@
       <c r="D31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E31" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Kerolox-</v>
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
@@ -2626,14 +3406,14 @@
         <v>1.25</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E32" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E32" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hypergolic-</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2649,9 +3429,9 @@
       <c r="D33" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E33" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydraz-</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2667,9 +3447,9 @@
       <c r="D34" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E34" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E34" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydrolox-</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2685,9 +3465,9 @@
       <c r="D35" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E35" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E35" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Kerolox-</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2698,14 +3478,14 @@
         <v>1.25</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E36" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E36" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hypergolic-</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2721,9 +3501,9 @@
       <c r="D37" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E37" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E37" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydraz-</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2739,9 +3519,9 @@
       <c r="D38" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E38" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydrolox-</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2757,9 +3537,9 @@
       <c r="D39" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E39" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E39" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Kerolox-</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2770,14 +3550,14 @@
         <v>1.25</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E40" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E40" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hypergolic-</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2793,9 +3573,9 @@
       <c r="D41" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E41" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E41" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydraz-</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2811,9 +3591,9 @@
       <c r="D42" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E42" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E42" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydrolox-</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -2829,9 +3609,9 @@
       <c r="D43" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E43" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E43" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Kerolox-</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2842,14 +3622,14 @@
         <v>1.875</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E44" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E44" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hypergolic-</v>
       </c>
       <c r="O44" s="43"/>
     </row>
@@ -2863,11 +3643,11 @@
       <c r="C45" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E45" s="37" t="str">
-        <f t="shared" si="8"/>
+      <c r="E45" s="38" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -2884,9 +3664,9 @@
       <c r="D46" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E46" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E46" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydrolox-</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -2902,9 +3682,9 @@
       <c r="D47" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E47" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E47" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Kerolox-</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -2915,14 +3695,14 @@
         <v>1.875</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E48" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E48" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hypergolic-</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2935,11 +3715,11 @@
       <c r="C49" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E49" s="37" t="str">
-        <f t="shared" si="8"/>
+      <c r="E49" s="38" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -2956,9 +3736,9 @@
       <c r="D50" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E50" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E50" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydrolox-</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2974,9 +3754,9 @@
       <c r="D51" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E51" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E51" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Kerolox-</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2987,14 +3767,14 @@
         <v>1.875</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E52" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E52" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hypergolic-</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3007,11 +3787,11 @@
       <c r="C53" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D53" s="37" t="s">
+      <c r="D53" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E53" s="37" t="str">
-        <f t="shared" si="8"/>
+      <c r="E53" s="38" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -3028,9 +3808,9 @@
       <c r="D54" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E54" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E54" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydrolox-</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3046,9 +3826,9 @@
       <c r="D55" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E55" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E55" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Kerolox-</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3059,13 +3839,13 @@
         <v>1.875</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E56" s="37" t="str">
-        <f t="shared" si="8"/>
+      <c r="E56" s="38" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -3079,11 +3859,11 @@
       <c r="C57" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D57" s="37" t="s">
+      <c r="D57" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E57" s="37" t="str">
-        <f t="shared" si="8"/>
+      <c r="E57" s="38" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -3100,9 +3880,9 @@
       <c r="D58" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E58" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E58" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydrolox-</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3118,9 +3898,9 @@
       <c r="D59" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E59" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E59" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Kerolox-</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3131,13 +3911,13 @@
         <v>2.5</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E60" s="37" t="str">
-        <f t="shared" si="8"/>
+      <c r="E60" s="38" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -3151,11 +3931,11 @@
       <c r="C61" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D61" s="37" t="s">
+      <c r="D61" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E61" s="37" t="str">
-        <f t="shared" si="8"/>
+      <c r="E61" s="38" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -3172,9 +3952,9 @@
       <c r="D62" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E62" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E62" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydrolox-</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3190,9 +3970,9 @@
       <c r="D63" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E63" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E63" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Kerolox-</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3203,13 +3983,13 @@
         <v>2.5</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D64" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E64" s="37" t="str">
-        <f t="shared" si="8"/>
+      <c r="E64" s="38" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -3223,11 +4003,11 @@
       <c r="C65" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D65" s="37" t="s">
+      <c r="D65" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E65" s="37" t="str">
-        <f t="shared" si="8"/>
+      <c r="E65" s="38" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -3244,9 +4024,9 @@
       <c r="D66" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E66" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E66" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydrolox-</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3262,9 +4042,9 @@
       <c r="D67" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E67" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E67" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Kerolox-</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3275,13 +4055,13 @@
         <v>2.5</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D68" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E68" s="37" t="str">
-        <f t="shared" si="8"/>
+      <c r="E68" s="38" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -3295,11 +4075,11 @@
       <c r="C69" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D69" s="37" t="s">
+      <c r="D69" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E69" s="37" t="str">
-        <f t="shared" si="8"/>
+      <c r="E69" s="38" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -3316,9 +4096,9 @@
       <c r="D70" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E70" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E70" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydrolox-</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3334,9 +4114,9 @@
       <c r="D71" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E71" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E71" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Kerolox-</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3347,13 +4127,13 @@
         <v>2.5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D72" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E72" s="37" t="str">
-        <f t="shared" si="8"/>
+      <c r="E72" s="38" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -3367,11 +4147,11 @@
       <c r="C73" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D73" s="37" t="s">
+      <c r="D73" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E73" s="37" t="str">
-        <f t="shared" si="8"/>
+      <c r="E73" s="38" t="str">
+        <f t="shared" si="1"/>
         <v>-</v>
       </c>
     </row>
@@ -3388,9 +4168,9 @@
       <c r="D74" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E74" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E74" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>Hydrolox-</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3406,9 +4186,9 @@
       <c r="D75" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E75" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>-</v>
+      <c r="E75" s="38" t="str">
+        <f t="shared" ref="E75:E105" si="2">IF(D75="--n/a--","",IF(C75="Hyperg","Hypergolic",C75))&amp;"-"</f>
+        <v>Kerolox-</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3419,13 +4199,13 @@
         <v>3.75</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D76" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D76" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E76" s="37" t="str">
-        <f t="shared" si="8"/>
+      <c r="E76" s="38" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
@@ -3439,11 +4219,11 @@
       <c r="C77" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D77" s="37" t="s">
+      <c r="D77" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E77" s="37" t="str">
-        <f t="shared" ref="E77:E105" si="9">IF(D77="--n/a--","",IF(C77="Hyperg","Hypergolic",""))&amp;"-"</f>
+      <c r="E77" s="38" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
@@ -3460,9 +4240,9 @@
       <c r="D78" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E78" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="E78" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>Hydrolox-</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3478,9 +4258,9 @@
       <c r="D79" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E79" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="E79" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>Kerolox-</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3491,13 +4271,13 @@
         <v>3.75</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D80" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E80" s="37" t="str">
-        <f t="shared" si="9"/>
+      <c r="E80" s="38" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
@@ -3511,11 +4291,11 @@
       <c r="C81" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D81" s="37" t="s">
+      <c r="D81" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E81" s="37" t="str">
-        <f t="shared" si="9"/>
+      <c r="E81" s="38" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
@@ -3532,9 +4312,9 @@
       <c r="D82" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E82" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="E82" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>Hydrolox-</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3550,9 +4330,9 @@
       <c r="D83" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E83" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="E83" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>Kerolox-</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3563,13 +4343,13 @@
         <v>3.75</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D84" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D84" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E84" s="37" t="str">
-        <f t="shared" si="9"/>
+      <c r="E84" s="38" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
@@ -3583,11 +4363,11 @@
       <c r="C85" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D85" s="37" t="s">
+      <c r="D85" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E85" s="37" t="str">
-        <f t="shared" si="9"/>
+      <c r="E85" s="38" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
@@ -3604,9 +4384,9 @@
       <c r="D86" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E86" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="E86" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>Hydrolox-</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3622,9 +4402,9 @@
       <c r="D87" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E87" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="E87" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>Kerolox-</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3635,13 +4415,13 @@
         <v>3.75</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D88" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D88" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E88" s="37" t="str">
-        <f t="shared" si="9"/>
+      <c r="E88" s="38" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
@@ -3655,11 +4435,11 @@
       <c r="C89" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D89" s="37" t="s">
+      <c r="D89" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E89" s="37" t="str">
-        <f t="shared" si="9"/>
+      <c r="E89" s="38" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
@@ -3676,9 +4456,9 @@
       <c r="D90" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E90" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="E90" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>Hydrolox-</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3694,9 +4474,9 @@
       <c r="D91" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E91" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="E91" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>Kerolox-</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3707,13 +4487,13 @@
         <v>5</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D92" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D92" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E92" s="37" t="str">
-        <f t="shared" si="9"/>
+      <c r="E92" s="38" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
@@ -3727,11 +4507,11 @@
       <c r="C93" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D93" s="37" t="s">
+      <c r="D93" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E93" s="37" t="str">
-        <f t="shared" si="9"/>
+      <c r="E93" s="38" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
@@ -3748,9 +4528,9 @@
       <c r="D94" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E94" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="E94" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>Hydrolox-</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -3766,9 +4546,9 @@
       <c r="D95" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E95" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="E95" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>Kerolox-</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3779,13 +4559,13 @@
         <v>5</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D96" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D96" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E96" s="37" t="str">
-        <f t="shared" si="9"/>
+      <c r="E96" s="38" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
@@ -3799,11 +4579,11 @@
       <c r="C97" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D97" s="37" t="s">
+      <c r="D97" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E97" s="37" t="str">
-        <f t="shared" si="9"/>
+      <c r="E97" s="38" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
@@ -3820,9 +4600,9 @@
       <c r="D98" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E98" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="E98" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>Hydrolox-</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3838,9 +4618,9 @@
       <c r="D99" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E99" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="E99" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>Kerolox-</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3851,13 +4631,13 @@
         <v>5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D100" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D100" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E100" s="37" t="str">
-        <f t="shared" si="9"/>
+      <c r="E100" s="38" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
@@ -3871,11 +4651,11 @@
       <c r="C101" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D101" s="37" t="s">
+      <c r="D101" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E101" s="37" t="str">
-        <f t="shared" si="9"/>
+      <c r="E101" s="38" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
@@ -3892,9 +4672,9 @@
       <c r="D102" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E102" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="E102" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>Hydrolox-</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3910,9 +4690,9 @@
       <c r="D103" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E103" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>-</v>
+      <c r="E103" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v>Kerolox-</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3923,13 +4703,13 @@
         <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D104" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D104" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E104" s="37" t="str">
-        <f t="shared" si="9"/>
+      <c r="E104" s="38" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
@@ -3943,11 +4723,11 @@
       <c r="C105" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D105" s="37" t="s">
+      <c r="D105" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E105" s="37" t="str">
-        <f t="shared" si="9"/>
+      <c r="E105" s="38" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
     </row>
@@ -4291,7 +5071,7 @@
         <v>41</v>
       </c>
       <c r="AX2" s="16">
-        <f>SUM(AY2:BA2)/1000000</f>
+        <f t="shared" ref="AX2:AX7" si="2">SUM(AY2:BA2)/1000000</f>
         <v>6.9375</v>
       </c>
       <c r="AY2" s="16">
@@ -4326,14 +5106,14 @@
         <v>250</v>
       </c>
       <c r="G3" s="16">
-        <f t="shared" ref="G3:G11" si="2">MIN(E3:F3)+SQRT(E3*F3)</f>
+        <f t="shared" ref="G3:G11" si="3">MIN(E3:F3)+SQRT(E3*F3)</f>
         <v>16.811388300841898</v>
       </c>
       <c r="H3" s="16">
         <v>15.668749999999999</v>
       </c>
       <c r="I3" s="16">
-        <f t="shared" ref="I3:I12" si="3">MAX(0,H3-G3)</f>
+        <f t="shared" ref="I3:I12" si="4">MAX(0,H3-G3)</f>
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -4359,15 +5139,15 @@
         <v>80</v>
       </c>
       <c r="R3" s="17">
-        <f t="shared" ref="R3:R9" si="4">Q3</f>
+        <f t="shared" ref="R3:R9" si="5">Q3</f>
         <v>80</v>
       </c>
       <c r="S3" s="4">
-        <f t="shared" ref="S3:S9" si="5">R3*0.000277778</f>
+        <f t="shared" ref="S3:S9" si="6">R3*0.000277778</f>
         <v>2.2222240000000001E-2</v>
       </c>
       <c r="T3" s="5">
-        <f t="shared" ref="T3:T9" si="6">60*S3</f>
+        <f t="shared" ref="T3:T9" si="7">60*S3</f>
         <v>1.3333344</v>
       </c>
       <c r="V3" s="2" t="s">
@@ -4414,11 +5194,11 @@
         <v>4</v>
       </c>
       <c r="AM3" s="16">
-        <f t="shared" ref="AM3:AM10" si="7">MIN($AL3,AM$1)+SQRT($AL3*AM$1)</f>
+        <f t="shared" ref="AM3:AM10" si="8">MIN($AL3,AM$1)+SQRT($AL3*AM$1)</f>
         <v>3</v>
       </c>
       <c r="AN3" s="26">
-        <f t="shared" ref="AN3:AN10" si="8">MIN($AL3,AN$1)+SQRT($AL3*AN$1)</f>
+        <f t="shared" ref="AN3:AN10" si="9">MIN($AL3,AN$1)+SQRT($AL3*AN$1)</f>
         <v>8</v>
       </c>
       <c r="AO3" s="16"/>
@@ -4432,7 +5212,7 @@
         <v>55</v>
       </c>
       <c r="AX3" s="16">
-        <f t="shared" ref="AX3:AX7" si="9">SUM(AY3:BA3)/1000000</f>
+        <f t="shared" si="2"/>
         <v>15.668749999999999</v>
       </c>
       <c r="AY3" s="16">
@@ -4468,14 +5248,14 @@
         <v>1000000</v>
       </c>
       <c r="G4" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2004</v>
       </c>
       <c r="H4" s="16">
         <v>4</v>
       </c>
       <c r="I4" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -4501,15 +5281,15 @@
         <v>180</v>
       </c>
       <c r="R4" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="S4" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0000040000000003E-2</v>
       </c>
       <c r="T4" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0000024000000001</v>
       </c>
       <c r="V4" s="2" t="s">
@@ -4553,11 +5333,11 @@
         <v>6</v>
       </c>
       <c r="AM4" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.4494897427831779</v>
       </c>
       <c r="AN4" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.8989794855663558</v>
       </c>
       <c r="AO4" s="16">
@@ -4574,7 +5354,7 @@
         <v>56</v>
       </c>
       <c r="AX4" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>50.528750000000002</v>
       </c>
       <c r="AY4" s="16">
@@ -4610,14 +5390,14 @@
         <v>8</v>
       </c>
       <c r="G5" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="H5" s="16">
         <v>16</v>
       </c>
       <c r="I5" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -4643,26 +5423,26 @@
         <v>320</v>
       </c>
       <c r="R5" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>320</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.8888960000000003E-2</v>
       </c>
       <c r="T5" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.3333376000000001</v>
       </c>
       <c r="AL5" s="17">
         <v>8</v>
       </c>
       <c r="AM5" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.8284271247461903</v>
       </c>
       <c r="AN5" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.6568542494923797</v>
       </c>
       <c r="AO5" s="16">
@@ -4682,7 +5462,7 @@
         <v>57</v>
       </c>
       <c r="AX5" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>35386.498168999999</v>
       </c>
       <c r="AY5" s="16">
@@ -4718,14 +5498,14 @@
         <v>8</v>
       </c>
       <c r="G6" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>290.84271247461902</v>
       </c>
       <c r="H6" s="16">
         <v>90</v>
       </c>
       <c r="I6" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -4751,15 +5531,15 @@
         <v>480</v>
       </c>
       <c r="R6" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>480</v>
       </c>
       <c r="S6" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.13333344</v>
       </c>
       <c r="T6" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.0000064000000002</v>
       </c>
       <c r="V6" s="1" t="s">
@@ -4769,11 +5549,11 @@
         <v>250</v>
       </c>
       <c r="AM6" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16.811388300841898</v>
       </c>
       <c r="AN6" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35.622776601683796</v>
       </c>
       <c r="AO6" s="16">
@@ -4796,7 +5576,7 @@
         <v>58</v>
       </c>
       <c r="AX6" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>85815.547393000001</v>
       </c>
       <c r="AY6" s="16">
@@ -4832,14 +5612,14 @@
         <v>10000</v>
       </c>
       <c r="G7" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20000</v>
       </c>
       <c r="H7" s="16">
         <v>20000</v>
       </c>
       <c r="I7" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -4864,15 +5644,15 @@
         <v>720</v>
       </c>
       <c r="R7" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
       <c r="S7" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.20000016000000001</v>
       </c>
       <c r="T7" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.0000096</v>
       </c>
       <c r="V7" s="1" t="s">
@@ -4882,11 +5662,11 @@
         <v>10000</v>
       </c>
       <c r="AM7" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>101</v>
       </c>
       <c r="AN7" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>204</v>
       </c>
       <c r="AO7" s="16">
@@ -4912,7 +5692,7 @@
         <v>71</v>
       </c>
       <c r="AX7" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>127153.02220599999</v>
       </c>
       <c r="AY7" s="16">
@@ -4948,14 +5728,14 @@
         <v>6</v>
       </c>
       <c r="G8" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44.729833462074168</v>
       </c>
       <c r="H8" s="16">
         <v>15.668749999999999</v>
       </c>
       <c r="I8" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -4979,15 +5759,15 @@
         <v>1080</v>
       </c>
       <c r="R8" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1080</v>
       </c>
       <c r="S8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.30000024000000003</v>
       </c>
       <c r="T8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18.000014400000001</v>
       </c>
       <c r="V8" s="1">
@@ -4998,11 +5778,11 @@
         <v>65000</v>
       </c>
       <c r="AM8" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>255.95097567963924</v>
       </c>
       <c r="AN8" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>513.90195135927843</v>
       </c>
       <c r="AO8" s="16">
@@ -5050,14 +5830,14 @@
         <v>6</v>
       </c>
       <c r="G9" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250.94897427831782</v>
       </c>
       <c r="H9" s="16">
         <v>50.528750000000002</v>
       </c>
       <c r="I9" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -5081,26 +5861,26 @@
         <v>1620</v>
       </c>
       <c r="R9" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1620</v>
       </c>
       <c r="S9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.45000035999999999</v>
       </c>
       <c r="T9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27.0000216</v>
       </c>
       <c r="AL9" s="17">
         <v>575000</v>
       </c>
       <c r="AM9" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>759.28754440515502</v>
       </c>
       <c r="AN9" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1520.57508881031</v>
       </c>
       <c r="AO9" s="16">
@@ -5151,14 +5931,14 @@
         <v>10000</v>
       </c>
       <c r="G10" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35495.097567963923</v>
       </c>
       <c r="H10" s="16">
         <v>35386.498168999999</v>
       </c>
       <c r="I10" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L10" s="16"/>
@@ -5172,11 +5952,11 @@
         <v>1000000</v>
       </c>
       <c r="AM10" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1001</v>
       </c>
       <c r="AN10" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2004</v>
       </c>
       <c r="AO10" s="16">
@@ -5230,14 +6010,14 @@
         <v>10000</v>
       </c>
       <c r="G11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85828.754440515506</v>
       </c>
       <c r="H11" s="16">
         <v>85815.547393000001</v>
       </c>
       <c r="I11" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -5275,14 +6055,14 @@
         <v>65000</v>
       </c>
       <c r="G12" s="16">
-        <f t="shared" ref="G12" si="12">MIN(E12:F12)+SQRT(E12*F12)</f>
+        <f>MIN(E12:F12)+SQRT(E12*F12)</f>
         <v>258326.14929181203</v>
       </c>
       <c r="H12" s="16">
         <v>127153.02220599999</v>
       </c>
       <c r="I12" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R12" s="1" t="s">
@@ -5353,7 +6133,7 @@
         <v>16</v>
       </c>
       <c r="S15" s="5">
-        <f t="shared" ref="S15:S21" si="13">R15*TAN(RADIANS(Q$14))</f>
+        <f t="shared" ref="S15:S21" si="12">R15*TAN(RADIANS(Q$14))</f>
         <v>2.7925268315460048E-3</v>
       </c>
     </row>
@@ -5362,7 +6142,7 @@
         <v>120</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f t="shared" ref="F16:F17" si="14">K6</f>
+        <f>K6</f>
         <v>dish 3</v>
       </c>
       <c r="G16" s="1">
@@ -5377,7 +6157,7 @@
         <v>50</v>
       </c>
       <c r="S16" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>8.7266463485812656E-3</v>
       </c>
     </row>
@@ -5392,7 +6172,7 @@
         <v>120</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f>K7</f>
         <v>dish 4</v>
       </c>
       <c r="G17" s="1">
@@ -5407,7 +6187,7 @@
         <v>90</v>
       </c>
       <c r="S17" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.5707963427446278E-2</v>
       </c>
     </row>
@@ -5431,7 +6211,7 @@
         <v>20000</v>
       </c>
       <c r="S18" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3.490658539432506</v>
       </c>
     </row>
@@ -5451,7 +6231,7 @@
         <v>36000</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>6.2831853709785106</v>
       </c>
     </row>
@@ -5471,7 +6251,7 @@
         <v>86000</v>
       </c>
       <c r="S20" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>15.009831719559775</v>
       </c>
     </row>
@@ -5480,7 +6260,7 @@
         <v>128000</v>
       </c>
       <c r="S21" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>22.34021465236804</v>
       </c>
     </row>
@@ -5685,7 +6465,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="21">
-        <f t="shared" ref="C3:C5" si="0">N3+O3</f>
+        <f>N3+O3</f>
         <v>64.168911432410368</v>
       </c>
       <c r="D3" s="21">
@@ -5727,16 +6507,16 @@
       </c>
       <c r="O3" s="17"/>
       <c r="P3" s="16">
-        <f t="shared" ref="P3:P5" si="1">2*PI()*SQRT(H3^3/I3)</f>
+        <f>2*PI()*SQRT(H3^3/I3)</f>
         <v>1833.6072536492711</v>
       </c>
-      <c r="R3" s="40">
+      <c r="R3" s="41">
         <v>2223</v>
       </c>
-      <c r="S3" s="40">
+      <c r="S3" s="41">
         <v>71</v>
       </c>
-      <c r="T3" s="40">
+      <c r="T3" s="41">
         <v>10</v>
       </c>
     </row>
@@ -5748,7 +6528,7 @@
         <v>63</v>
       </c>
       <c r="C4" s="21">
-        <f t="shared" si="0"/>
+        <f>N4+O4</f>
         <v>676.5791616769734</v>
       </c>
       <c r="D4" s="21">
@@ -5791,7 +6571,7 @@
       </c>
       <c r="O4" s="17"/>
       <c r="P4" s="16">
-        <f t="shared" si="1"/>
+        <f>2*PI()*SQRT(H4^3/I4)</f>
         <v>9952.9749592970566</v>
       </c>
       <c r="R4" s="1" t="s">
@@ -5812,7 +6592,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="21">
-        <f t="shared" si="0"/>
+        <f>N5+O5</f>
         <v>434.87978011936514</v>
       </c>
       <c r="D5" s="21">
@@ -5856,7 +6636,7 @@
       </c>
       <c r="O5" s="17"/>
       <c r="P5" s="16">
-        <f t="shared" si="1"/>
+        <f>2*PI()*SQRT(H5^3/I5)</f>
         <v>21599.993227655697</v>
       </c>
       <c r="R5" s="6">
@@ -5930,7 +6710,7 @@
         <f>2*PI()*SQRT(H7^3/I7)</f>
         <v>53310.658020675924</v>
       </c>
-      <c r="R7" s="38">
+      <c r="R7" s="39">
         <f>T3*S3^2</f>
         <v>50410</v>
       </c>
@@ -5943,7 +6723,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="21">
-        <f t="shared" ref="C9:C10" si="2">N9+O9</f>
+        <f>N9+O9</f>
         <v>603.612064514905</v>
       </c>
       <c r="D9" s="21">
@@ -5986,7 +6766,7 @@
         <v>35</v>
       </c>
       <c r="P9" s="16">
-        <f t="shared" ref="P9:P10" si="3">2*PI()*SQRT(H9^3/I9)</f>
+        <f>2*PI()*SQRT(H9^3/I9)</f>
         <v>2285.0311415809701</v>
       </c>
     </row>
@@ -5998,7 +6778,7 @@
         <v>105</v>
       </c>
       <c r="C10" s="21">
-        <f t="shared" si="2"/>
+        <f>N10+O10</f>
         <v>6.8338859770666431</v>
       </c>
       <c r="D10" s="21">
@@ -6040,7 +6820,7 @@
       </c>
       <c r="O10" s="17"/>
       <c r="P10" s="16">
-        <f t="shared" si="3"/>
+        <f>2*PI()*SQRT(H10^3/I10)</f>
         <v>2369.1375366329148</v>
       </c>
     </row>
@@ -6052,7 +6832,7 @@
         <v>108</v>
       </c>
       <c r="C12" s="21">
-        <f t="shared" ref="C12" si="4">N12+O12</f>
+        <f>N12+O12</f>
         <v>6077.7618656919749</v>
       </c>
       <c r="D12" s="21">
@@ -6096,7 +6876,7 @@
         <v>2604</v>
       </c>
       <c r="P12" s="16">
-        <f t="shared" ref="P12:P13" si="5">2*PI()*SQRT(H12^3/I12)</f>
+        <f>2*PI()*SQRT(H12^3/I12)</f>
         <v>1427.6270025663123</v>
       </c>
     </row>
@@ -6108,7 +6888,7 @@
         <v>109</v>
       </c>
       <c r="C13" s="21">
-        <f t="shared" ref="C13" si="6">N13+O13</f>
+        <f>N13+O13</f>
         <v>108.37197022756845</v>
       </c>
       <c r="D13" s="21">
@@ -6150,7 +6930,7 @@
       </c>
       <c r="O13" s="17"/>
       <c r="P13" s="16">
-        <f t="shared" si="5"/>
+        <f>2*PI()*SQRT(H13^3/I13)</f>
         <v>1572.7432833522748</v>
       </c>
     </row>
@@ -6207,7 +6987,7 @@
         <v>1004.4200000000001</v>
       </c>
       <c r="P15" s="16">
-        <f t="shared" ref="P15:P16" si="7">2*PI()*SQRT(H15^3/I15)</f>
+        <f>2*PI()*SQRT(H15^3/I15)</f>
         <v>9701.5389058065757</v>
       </c>
     </row>
@@ -6263,7 +7043,7 @@
       </c>
       <c r="O16" s="17"/>
       <c r="P16" s="16">
-        <f t="shared" si="7"/>
+        <f>2*PI()*SQRT(H16^3/I16)</f>
         <v>21599.993227655697</v>
       </c>
     </row>
@@ -6536,7 +7316,7 @@
         <v>85.084801034723569</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" ref="H8" si="4">$G8*H$6</f>
+        <f>$G8*H$6</f>
         <v>51.050880620834143</v>
       </c>
       <c r="I8" s="6">
@@ -6588,23 +7368,23 @@
         <v>0.6</v>
       </c>
       <c r="F10" s="29">
-        <f t="shared" ref="F10:J10" si="5">5%+E10</f>
+        <f>5%+E10</f>
         <v>0.65</v>
       </c>
       <c r="G10" s="29">
-        <f t="shared" si="5"/>
+        <f>5%+F10</f>
         <v>0.70000000000000007</v>
       </c>
       <c r="H10" s="29">
-        <f t="shared" si="5"/>
+        <f>5%+G10</f>
         <v>0.75000000000000011</v>
       </c>
       <c r="I10" s="29">
-        <f t="shared" si="5"/>
+        <f>5%+H10</f>
         <v>0.80000000000000016</v>
       </c>
       <c r="J10" s="29">
-        <f t="shared" si="5"/>
+        <f>5%+I10</f>
         <v>0.8500000000000002</v>
       </c>
       <c r="K10" s="29">
@@ -6624,7 +7404,7 @@
       <c r="P10" s="1">
         <v>2.5</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="35">
         <f>P10/P11*Q11</f>
         <v>4.3679066666666664</v>
       </c>
@@ -6637,51 +7417,51 @@
         <v>0.5</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ref="C11:C22" si="6">A11/2</f>
+        <f t="shared" ref="C11:C22" si="4">A11/2</f>
         <v>0.625</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" ref="D11:D22" si="7">PI()*C11^2*B11*1000</f>
+        <f t="shared" ref="D11:D22" si="5">PI()*C11^2*B11*1000</f>
         <v>613.59231515425654</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" ref="E11:N22" si="8">$D11*E$10</f>
+        <f t="shared" ref="E11:N22" si="6">$D11*E$10</f>
         <v>368.15538909255389</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>398.83500485026678</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>429.51462060797962</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>460.19423636569246</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>490.8738521234053</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>521.55346788111819</v>
       </c>
       <c r="K11" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>533.82531418420319</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>552.23308363883109</v>
       </c>
       <c r="M11" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>564.50492994191609</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>582.91269939654387</v>
       </c>
       <c r="P11" s="1">
@@ -6699,51 +7479,51 @@
         <v>4.75</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>23316.507975861747</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>13989.904785517048</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>15155.730184310136</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>16321.555583103223</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>17487.380981896313</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>18653.2063806894</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>19819.031779482488</v>
       </c>
       <c r="K12" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>20285.361938999718</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>20984.857178275579</v>
       </c>
       <c r="M12" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>21451.18733779281</v>
       </c>
       <c r="N12" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>22150.682577068666</v>
       </c>
       <c r="Q12" s="4">
@@ -6754,55 +7534,55 @@
       <c r="A13" s="2">
         <v>1.25</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="42">
         <v>0.5</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.625</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>613.59231515425654</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>368.15538909255389</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>398.83500485026678</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>429.51462060797962</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>460.19423636569246</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>490.8738521234053</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>521.55346788111819</v>
       </c>
       <c r="K13" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>533.82531418420319</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>552.23308363883109</v>
       </c>
       <c r="M13" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>564.50492994191609</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>582.91269939654387</v>
       </c>
       <c r="Q13" s="1">
@@ -6813,55 +7593,55 @@
       <c r="A14" s="2">
         <v>2.5</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="42">
         <v>1.8</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>8835.7293382212938</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5301.4376029327759</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5743.2240698438409</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6185.0105367549058</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6626.7970036659717</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7068.5834705770367</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7510.3699374881016</v>
       </c>
       <c r="K14" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7687.0845242525256</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7952.1564043991666</v>
       </c>
       <c r="M14" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8128.8709911635906</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8393.9428713102316</v>
       </c>
       <c r="Q14" s="4">
@@ -6873,55 +7653,55 @@
       <c r="A15" s="2">
         <v>2.5</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="42">
         <v>6</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>29452.43112740431</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>17671.458676442584</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>19144.080232812801</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>20616.701789183018</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>22089.323345553235</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>23561.944901923453</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>25034.56645829367</v>
       </c>
       <c r="K15" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>25623.615080841751</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>26507.188014663887</v>
       </c>
       <c r="M15" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>27096.236637211965</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>27979.809571034104</v>
       </c>
     </row>
@@ -6929,55 +7709,55 @@
       <c r="A16" s="2">
         <v>2.5</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="42">
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>9817.4770424681046</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5890.4862254808622</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6381.3600776042686</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6872.233929727674</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7363.1077818510794</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7853.9816339744848</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8344.8554860978911</v>
       </c>
       <c r="K16" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8541.2050269472511</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8835.7293382212974</v>
       </c>
       <c r="M16" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>9032.0788790706574</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>9326.6031903447019</v>
       </c>
       <c r="Q16" s="1">
@@ -6988,55 +7768,55 @@
       <c r="A17" s="2">
         <v>2.5</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="42">
         <v>2.4</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>11780.972450961724</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7068.5834705770349</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7657.6320931251212</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8246.6807156732084</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8835.7293382212938</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>9424.777960769381</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>10013.826583317468</v>
       </c>
       <c r="K17" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>10249.4460323367</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>10602.875205865555</v>
       </c>
       <c r="M17" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>10838.494654884787</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>11191.923828413641</v>
       </c>
       <c r="Q17" s="1">
@@ -7048,55 +7828,55 @@
       <c r="A18" s="2">
         <v>3.75</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="42">
         <v>3.5</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.875</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>38656.315854718159</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>23193.789512830896</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>25126.605305566805</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>27059.421098302715</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>28992.236891038625</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>30925.052683774535</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>32857.868476510441</v>
       </c>
       <c r="K18" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>33630.994793604797</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>34790.684269246354</v>
       </c>
       <c r="M18" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>35563.810586340711</v>
       </c>
       <c r="N18" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>36723.50006198226</v>
       </c>
     </row>
@@ -7104,55 +7884,55 @@
       <c r="A19" s="2">
         <v>2.5</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="42">
         <v>1.9</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>9326.6031903446983</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5595.9619142068186</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6062.2920737240538</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6528.622233241289</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6994.9523927585251</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7461.2825522757603</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7927.6127117929955</v>
       </c>
       <c r="K19" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8114.1447755998879</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8393.9428713102316</v>
       </c>
       <c r="M19" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8580.4749351171231</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8860.2730308274658</v>
       </c>
     </row>
@@ -7160,55 +7940,55 @@
       <c r="A20" s="2">
         <v>2.5</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="42">
         <v>4.5999999999999996</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>22580.197197676636</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>13548.118318605981</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>14677.128178489815</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>15806.138038373647</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>16935.147898257481</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>18064.157758141311</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>19193.167618025145</v>
       </c>
       <c r="K20" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>19644.771561978672</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>20322.177477908979</v>
       </c>
       <c r="M20" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>20773.781421862506</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>21451.18733779281</v>
       </c>
     </row>
@@ -7216,55 +7996,55 @@
       <c r="A21" s="2">
         <v>3.75</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="42">
         <v>6</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.875</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>66267.97003665971</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>39760.782021995823</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>43074.180523828814</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>46387.579025661798</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>49700.97752749479</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>53014.376029327781</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>56327.774531160765</v>
       </c>
       <c r="K21" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>57653.13393189395</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>59641.173032993756</v>
       </c>
       <c r="M21" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>60966.532433726934</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>62954.57153482674</v>
       </c>
     </row>
@@ -7272,55 +8052,55 @@
       <c r="A22" s="2">
         <v>1.875</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="42">
         <v>3.5</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.9375</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>9664.0789636795398</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5798.4473782077239</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6281.6513263917013</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6764.8552745756788</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7248.0592227596562</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7731.2631709436337</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8214.4671191276102</v>
       </c>
       <c r="K22" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8407.7486984011994</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8697.6710673115886</v>
       </c>
       <c r="M22" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8890.9526465851777</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>9180.8750154955651</v>
       </c>
     </row>
@@ -7380,42 +8160,2171 @@
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="38">
+      <c r="B2" s="39">
         <v>5</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="39">
         <f>60*B2</f>
         <v>300</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="39">
         <f>250*B2</f>
         <v>1250</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="38">
+      <c r="B3" s="39">
         <v>8</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="39">
         <f>60*B3</f>
         <v>480</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="39">
         <f>250*B3</f>
         <v>2000</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="38">
+      <c r="B4" s="39">
         <v>0.5</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="39">
         <f>60*B4</f>
         <v>30</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="39">
         <f>250*B4</f>
         <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D2" s="1">
+        <f>2*PI()*C2/2*C3</f>
+        <v>4.908738521234052</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="I2" s="1">
+        <f>H2/2</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="I3" s="3">
+        <f>I2^2*PI()*H3*H4</f>
+        <v>1.6672809203719465E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="1">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <f>C4*D2</f>
+        <v>1.8407769454627694E-2</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="34"/>
+      <c r="H4" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="1">
+        <f>C5*D4</f>
+        <v>1.1044661672776616E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="44">
+        <f>D5/2</f>
+        <v>5.5223308363883082E-3</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="F7" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="I7" s="1">
+        <f>H7/2</f>
+        <v>0.3125</v>
+      </c>
+      <c r="J7" s="1">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="F8" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="I8" s="1">
+        <f>H8/2</f>
+        <v>0.625</v>
+      </c>
+      <c r="J8" s="1">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="F9" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J9" s="1">
+        <f>H9</f>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="F10" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I10" s="1">
+        <f>I7^2+I7*I8+I8^2</f>
+        <v>0.68359375</v>
+      </c>
+      <c r="J10" s="1">
+        <f>I7^2+I8*I7+I8^2</f>
+        <v>0.68359375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="F11" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="I11" s="39">
+        <f>I10*H9*H10*PI()/3</f>
+        <v>6.5143050792210236E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <f>2*PI()*C13/2*C14</f>
+        <v>98.174770424681029</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="D14" s="1">
+        <f>C15*D13</f>
+        <v>1.4726215563702154</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D16" s="1">
+        <f>C16*D14</f>
+        <v>0.8835729338221292</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="44">
+        <f>D16/2</f>
+        <v>0.4417864669110646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="D20" s="1">
+        <f>C20/2</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <f>2*PI()*D20*C21*C22*C23/C24</f>
+        <v>0.18378317023500287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.875</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.300480769230769</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" ref="F29:F36" si="0">E29^2-C$32</f>
+        <v>-3.8159613073224854</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" ref="G29:G36" si="1">2*E29</f>
+        <v>0.60096153846153799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" ref="D30:D36" si="2">1+D29</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" ref="E30:E36" si="3">E29-F29/G29</f>
+        <v>6.6502403846153895</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="0"/>
+        <v>40.319447173169443</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="1"/>
+        <v>13.300480769230779</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="3"/>
+        <v>3.6188125834155924</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="0"/>
+        <v>9.1895545138870336</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="1"/>
+        <v>7.2376251668311848</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3.90625</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3491206192612157</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6121176838381981</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6982412385224315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0059884551186187</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11773968206918273</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0119769102372373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9766414063435498</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
+        <v>8.6124927180630806E-4</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9532828126870996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9764235496121663</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7461555130468014E-8</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9528470992243325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="3"/>
+        <v>1.976423537605237</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9528470752104741</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" s="1">
+        <f>E29</f>
+        <v>0.300480769230769</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="E40" s="1">
+        <f>E39^2</f>
+        <v>9.0288692677514645E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="E41" s="1">
+        <f>E40-C32</f>
+        <v>-3.8159613073224854</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42" s="1">
+        <f>E41/E29</f>
+        <v>-12.699519230769241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43" s="1">
+        <f>E42*-0.5</f>
+        <v>6.3497596153846203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <f>C50/13</f>
+        <v>4.3694230769230771</v>
+      </c>
+      <c r="F47" s="1">
+        <f>E47^2-C$50</f>
+        <v>-37.710641974852066</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" ref="G47:G54" si="4">2*E47</f>
+        <v>8.7388461538461542</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" ref="D48:D54" si="5">1+D47</f>
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" ref="E48:E54" si="6">E47-F47/G47</f>
+        <v>8.6847115384615385</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" ref="F48:F54" si="7">E48^2-C$50</f>
+        <v>18.621714506286985</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="4"/>
+        <v>17.369423076923077</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="6"/>
+        <v>7.6126140701796068</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1493929814965185</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="4"/>
+        <v>15.225228140359214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="C50" s="1">
+        <v>56.802500000000002</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="6"/>
+        <v>7.5371214095179448</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="7"/>
+        <v>5.6991418137712913E-3</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="4"/>
+        <v>15.07424281903589</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="6"/>
+        <v>7.5367433380033626</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4293806316345581E-7</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="4"/>
+        <v>15.073486676006725</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="6"/>
+        <v>7.5367433285206156</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="4"/>
+        <v>15.073486657041231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="6"/>
+        <v>7.5367433285206156</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="4"/>
+        <v>15.073486657041231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="6"/>
+        <v>7.5367433285206156</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="4"/>
+        <v>15.073486657041231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="34" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C2" s="1">
+        <f>B2/2</f>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C3" s="1">
+        <f>B3/2</f>
+        <v>0.625</v>
+      </c>
+      <c r="D3" s="1">
+        <f>C2^2+C2*C3+C3^2</f>
+        <v>0.68359375</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <f>D3/3*PI()*B4</f>
+        <v>0.23265375282932227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D5" s="44">
+        <f>D4*B5</f>
+        <v>9.3061501131728903E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="C8" s="1">
+        <f>B8/2</f>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <f>B9/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="D9" s="1">
+        <f>C8^2+C8*C9+C9^2</f>
+        <v>19.510000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D10" s="1">
+        <f>D9/3*PI()*B10</f>
+        <v>34.732401180537558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D11" s="44">
+        <f>D10*B11</f>
+        <v>1.3892960472215024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C14" s="1">
+        <f>B14/2</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C15" s="1">
+        <f>B15/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="D15" s="1">
+        <f>C14^2+C14*C15+C15^2</f>
+        <v>3.0625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D16" s="1">
+        <f>D15/3*PI()*B16</f>
+        <v>2.4052818754046852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D17" s="44">
+        <f>D16*B17</f>
+        <v>9.6211275016187411E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B23" s="1">
+        <f>PI()*(B21/2)^2*B22</f>
+        <v>0.25464081078901646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="6">
+        <f>300000*B23/10</f>
+        <v>7639.2243236704935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="44">
+        <f>0.000007*B24</f>
+        <v>5.3474570265693452E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R38"/>
+  <sheetViews>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="C3" s="1">
+        <f>B3/2</f>
+        <v>2.7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.81</v>
+      </c>
+      <c r="E3" s="1">
+        <f>D3/2</f>
+        <v>1.905</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.81</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H3" s="6">
+        <v>993.00763379966634</v>
+      </c>
+      <c r="I3" s="5">
+        <f>PI()*(C3+E3)*SQRT((C3-E3)^2+F3^2)</f>
+        <v>56.306553778614223</v>
+      </c>
+      <c r="J3" s="5">
+        <f>H3/I3</f>
+        <v>17.63573806530529</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L3" s="4">
+        <f>(C3^2+C3*E3+E3^2)/3*PI()*F3</f>
+        <v>64.086626383390055</v>
+      </c>
+      <c r="M3" s="3">
+        <f>H3/L3/1000</f>
+        <v>1.5494771527824309E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="C4" s="1">
+        <f>B4/2</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H4" s="6">
+        <v>181.8423489331513</v>
+      </c>
+      <c r="I4" s="5">
+        <f>2*PI()*C4*F4</f>
+        <v>6.2282074357417647</v>
+      </c>
+      <c r="J4" s="5">
+        <f>H4/I4</f>
+        <v>29.196578760304938</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L4" s="4">
+        <f>PI()*C4^2*F4</f>
+        <v>1.0120837083080367</v>
+      </c>
+      <c r="M4" s="3">
+        <f>H4/L4/1000</f>
+        <v>0.17967125390956887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.81</v>
+      </c>
+      <c r="C5" s="1">
+        <f>B5/2</f>
+        <v>1.905</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="E5" s="1">
+        <f>D5/2</f>
+        <v>1.55</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H5" s="6">
+        <v>351.62649226197163</v>
+      </c>
+      <c r="I5" s="5">
+        <f>PI()*(C5+E5)*SQRT((C5-E5)^2+F5^2)</f>
+        <v>33.328809643895383</v>
+      </c>
+      <c r="J5" s="5">
+        <f>H5/I5</f>
+        <v>10.550226546311015</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L5" s="4">
+        <f>(C5^2+C5*E5+E5^2)/3*PI()*F5</f>
+        <v>28.69534787679428</v>
+      </c>
+      <c r="M5" s="3">
+        <f>H5/L5/1000</f>
+        <v>1.2253780430601765E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.83</v>
+      </c>
+      <c r="C6" s="1">
+        <f>B6/2</f>
+        <v>1.915</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.81</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H6" s="6">
+        <v>595.50138160192864</v>
+      </c>
+      <c r="I6" s="5">
+        <f>2*PI()*C6*F6</f>
+        <v>45.843062478978339</v>
+      </c>
+      <c r="J6" s="5">
+        <f>H6/I6</f>
+        <v>12.99</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L6" s="4">
+        <f>PI()*C6^2*F6</f>
+        <v>43.89473232362176</v>
+      </c>
+      <c r="M6" s="3">
+        <f>H6/L6/1000</f>
+        <v>1.3566579634464752E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.83</v>
+      </c>
+      <c r="C7" s="1">
+        <f>B7/2</f>
+        <v>1.915</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H7" s="6">
+        <v>284.92486076173412</v>
+      </c>
+      <c r="I7" s="5">
+        <f>2*PI()*C7*F7</f>
+        <v>3.8503359562396504</v>
+      </c>
+      <c r="J7" s="5">
+        <f>H7/I7</f>
+        <v>74</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L7" s="4">
+        <f>PI()*C7^2*F7</f>
+        <v>3.6866966780994654</v>
+      </c>
+      <c r="M7" s="3">
+        <f>H7/L7/1000</f>
+        <v>7.7284595300261091E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M9" s="35">
+        <f>AVERAGE(M3,M5,M6)</f>
+        <v>1.3771710530963608E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="C10" s="1">
+        <f>B10/2</f>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.81</v>
+      </c>
+      <c r="C11" s="1">
+        <f>B11/2</f>
+        <v>1.905</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="H11" s="1">
+        <f>G11/2</f>
+        <v>2.7</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1">
+        <f>I11/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="M11" s="6">
+        <v>700</v>
+      </c>
+      <c r="N11" s="5">
+        <f>PI()*(H11+J11)*SQRT((H11-J11)^2+K11^2)</f>
+        <v>27.963210148443018</v>
+      </c>
+      <c r="O11" s="5">
+        <f>M11/N11</f>
+        <v>25.032891298389636</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>(H11^2+H11*J11+J11^2)/3*PI()*K11</f>
+        <v>36.120985133424234</v>
+      </c>
+      <c r="R11" s="3">
+        <f>M11/Q11/1000</f>
+        <v>1.9379316411618608E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="5">
+        <f>(C10^2+C10*C11+C11^2)/3*PI()*B12</f>
+        <v>64.086626383390055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" ref="C18:C23" si="0">B18/2</f>
+        <v>2.7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>20.7</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3524</v>
+      </c>
+      <c r="F18" s="1">
+        <f>7.15645+4.8882</f>
+        <v>12.044650000000001</v>
+      </c>
+      <c r="G18" s="1">
+        <f>D18-F18</f>
+        <v>8.6553499999999985</v>
+      </c>
+      <c r="H18" s="1">
+        <f>2*C18*PI()*F18</f>
+        <v>204.33267335732563</v>
+      </c>
+      <c r="I18" s="1">
+        <f>PI()*C18*SQRT((C18^2+G18^2)/2+G18^2)</f>
+        <v>91.364108956437263</v>
+      </c>
+      <c r="J18" s="1">
+        <f>H18+I18</f>
+        <v>295.69678231376292</v>
+      </c>
+      <c r="K18" s="1">
+        <f>E18/J18</f>
+        <v>11.917613619010215</v>
+      </c>
+      <c r="M18" s="1">
+        <f>PI()*M17</f>
+        <v>11.780972450961723</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>23.4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4003</v>
+      </c>
+      <c r="F19" s="1">
+        <f>7.15645+7.6314</f>
+        <v>14.787850000000001</v>
+      </c>
+      <c r="G19" s="1">
+        <f>D19-F19</f>
+        <v>8.612149999999998</v>
+      </c>
+      <c r="H19" s="1">
+        <f>2*C19*PI()*F19</f>
+        <v>250.86996498089425</v>
+      </c>
+      <c r="I19" s="1">
+        <f>PI()*C19*SQRT((C19^2+G19^2)/2+G19^2)</f>
+        <v>90.922460137565963</v>
+      </c>
+      <c r="J19" s="1">
+        <f>H19+I19</f>
+        <v>341.79242511846019</v>
+      </c>
+      <c r="K19" s="1">
+        <f>E19/J19</f>
+        <v>11.711786762426405</v>
+      </c>
+      <c r="M19" s="1">
+        <f>M18*0.2</f>
+        <v>2.3561944901923448</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4379</v>
+      </c>
+      <c r="F20" s="1">
+        <f>7.15645+12.192</f>
+        <v>19.34845</v>
+      </c>
+      <c r="G20" s="1">
+        <f>D20-F20</f>
+        <v>7.1515500000000003</v>
+      </c>
+      <c r="H20" s="1">
+        <f>2*C20*PI()*F20</f>
+        <v>328.23872124308696</v>
+      </c>
+      <c r="I20" s="1">
+        <f>PI()*C20*SQRT((C20^2+G20^2)/2+G20^2)</f>
+        <v>76.039457222890988</v>
+      </c>
+      <c r="J20" s="1">
+        <f>H20+I20</f>
+        <v>404.27817846597793</v>
+      </c>
+      <c r="K20" s="1">
+        <f>E20/J20</f>
+        <v>10.831650663451565</v>
+      </c>
+      <c r="M20" s="1">
+        <f>M19*0.625</f>
+        <v>1.4726215563702154</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2127</v>
+      </c>
+      <c r="M21" s="1">
+        <f>M20*0.04</f>
+        <v>5.8904862254808621E-2</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2305</v>
+      </c>
+      <c r="M22" s="1">
+        <f>7/19</f>
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2487</v>
+      </c>
+      <c r="M23" s="1">
+        <f>M22/2</f>
+        <v>0.18421052631578946</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="C26" s="1">
+        <f>B26/2</f>
+        <v>0.47265000000000001</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="H26" s="1">
+        <f>G26/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="C27" s="1">
+        <f>B27/2</f>
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="D27" s="35">
+        <f>PI()*(C26+C27)*SQRT((C26-C27)^2+B28^2)</f>
+        <v>2.0781234452196751</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="H27" s="1">
+        <f>G27/2</f>
+        <v>1.25</v>
+      </c>
+      <c r="I27" s="35">
+        <f>PI()*(H26+H27)*SQRT((H26-H27)^2+G28^2)</f>
+        <v>5.6635866995694881</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.184</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.40639999999999998</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="D29" s="35">
+        <f>2*PI()*C27*B29</f>
+        <v>1.910327094424267</v>
+      </c>
+      <c r="E29" s="1">
+        <v>600</v>
+      </c>
+      <c r="I29" s="1">
+        <f>I27*G30</f>
+        <v>0.14158966748923721</v>
+      </c>
+      <c r="J29" s="1">
+        <v>600</v>
+      </c>
+      <c r="L29" s="1">
+        <f>L26/2</f>
+        <v>0.3125</v>
+      </c>
+      <c r="M29" s="1">
+        <f>M26/2</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="1">
+        <f>PI()*L29^2*L27</f>
+        <v>5.6450492994191595E-2</v>
+      </c>
+      <c r="M30" s="1">
+        <f>PI()*M29^2*M27</f>
+        <v>0.49087385212340523</v>
+      </c>
+      <c r="O30" s="1">
+        <v>3200</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1">
+        <v>67.7</v>
+      </c>
+      <c r="D31" s="35">
+        <f>D29*D27*B30</f>
+        <v>9.9247388074036227E-2</v>
+      </c>
+      <c r="E31" s="5">
+        <f>D31*E29</f>
+        <v>59.54843284442174</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1">
+        <v>67.7</v>
+      </c>
+      <c r="J31" s="5">
+        <f>I29*J29</f>
+        <v>84.953800493542332</v>
+      </c>
+      <c r="L31" s="1">
+        <f>L32*L30</f>
+        <v>0.57579502854075426</v>
+      </c>
+      <c r="M31" s="1">
+        <f>M32*M30</f>
+        <v>5.0069132916587327</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L32" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M32" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="C33" s="1">
+        <f>B33/2</f>
+        <v>0.47265000000000001</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L33" s="1">
+        <f>1/1.4</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="P33" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="C34" s="1">
+        <f>B34/2</f>
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="D34" s="35">
+        <f>PI()*(C33+C34)*SQRT((C33-C34)^2+B35^2)</f>
+        <v>2.0781234452196751</v>
+      </c>
+      <c r="E34" s="1">
+        <f>D34+D36</f>
+        <v>5.7714224944399248</v>
+      </c>
+      <c r="L34" s="1">
+        <f>1/2.6</f>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="N34" s="1">
+        <f>1/1.72</f>
+        <v>0.58139534883720934</v>
+      </c>
+      <c r="P34" s="1">
+        <f>3600*P33</f>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.40639999999999998</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L35" s="1">
+        <f>1/2.55</f>
+        <v>0.39215686274509809</v>
+      </c>
+      <c r="N35" s="1">
+        <f>5/13</f>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.73660000000000003</v>
+      </c>
+      <c r="D36" s="35">
+        <f>2*PI()*C34*B36</f>
+        <v>3.6932990492202498</v>
+      </c>
+      <c r="E36" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="1">
+        <v>114.4</v>
+      </c>
+      <c r="D38" s="35">
+        <f>D36*D34*B37</f>
+        <v>0.19187828360980341</v>
+      </c>
+      <c r="E38" s="5">
+        <f>D38*E36</f>
+        <v>115.12697016588204</v>
       </c>
     </row>
   </sheetData>

--- a/balance.xlsx
+++ b/balance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="electrical" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="324">
   <si>
     <t>W/m2</t>
   </si>
@@ -926,6 +926,81 @@
   </si>
   <si>
     <t>http://www.quallion.com/sub-sp-ql075ka.asp</t>
+  </si>
+  <si>
+    <t>1Mm</t>
+  </si>
+  <si>
+    <t>4Mm</t>
+  </si>
+  <si>
+    <t>8Mm</t>
+  </si>
+  <si>
+    <t>16Mm</t>
+  </si>
+  <si>
+    <t>250Mm</t>
+  </si>
+  <si>
+    <t>10Gm</t>
+  </si>
+  <si>
+    <t>65Gm</t>
+  </si>
+  <si>
+    <t>575Gm</t>
+  </si>
+  <si>
+    <t>using…</t>
+  </si>
+  <si>
+    <t>Molniya</t>
+  </si>
+  <si>
+    <t>dist Mm</t>
+  </si>
+  <si>
+    <t>satellite</t>
+  </si>
+  <si>
+    <t>L4/L5</t>
+  </si>
+  <si>
+    <t>Deep</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>omni</t>
+  </si>
+  <si>
+    <t>comms</t>
+  </si>
+  <si>
+    <t>dish1</t>
+  </si>
+  <si>
+    <t>dish2</t>
+  </si>
+  <si>
+    <t>med</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>XXL</t>
+  </si>
+  <si>
+    <t>needed</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1062,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -997,12 +1072,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,25 +1089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,7 +1113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1082,22 +1133,22 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1124,28 +1175,16 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1169,22 +1208,22 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1193,13 +1232,13 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1611,11 +1650,11 @@
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="24">
         <f>D8</f>
         <v>6.9444444444444448E-2</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="24">
         <f>N3*3600</f>
         <v>6408</v>
       </c>
@@ -1794,7 +1833,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D15" s="36">
+      <c r="D15" s="32">
         <f>600000</f>
         <v>600000</v>
       </c>
@@ -1832,7 +1871,7 @@
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="36">
+      <c r="D17" s="32">
         <v>2868750</v>
       </c>
       <c r="E17" s="1">
@@ -1849,7 +1888,7 @@
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="37">
+      <c r="D19" s="33">
         <v>3531600000000</v>
       </c>
       <c r="E19" s="19">
@@ -1858,7 +1897,7 @@
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="36" t="s">
         <v>129</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1866,7 +1905,7 @@
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="36" t="s">
         <v>130</v>
       </c>
       <c r="E21" s="19">
@@ -1875,7 +1914,7 @@
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="26">
+      <c r="D22" s="23">
         <f>E21/E23*E19</f>
         <v>1195.2859282940951</v>
       </c>
@@ -1884,7 +1923,7 @@
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="36" t="s">
         <v>131</v>
       </c>
       <c r="E23" s="19">
@@ -1898,7 +1937,7 @@
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="41">
+      <c r="D25" s="37">
         <v>0.19</v>
       </c>
     </row>
@@ -1979,11 +2018,11 @@
         <f>E2/3600</f>
         <v>0.20000000000000004</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="36">
         <f>A2*B2*C2*1*0.03</f>
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="H2" s="46">
+      <c r="H2" s="42">
         <f>G2*1.25</f>
         <v>0.10800000000000001</v>
       </c>
@@ -2025,7 +2064,7 @@
       <c r="F1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="43" t="s">
         <v>293</v>
       </c>
     </row>
@@ -2044,7 +2083,7 @@
         <f>PI()*C2^2*B2</f>
         <v>0.25464081078901646</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="42">
         <f>D2*2.4</f>
         <v>0.61113794589363946</v>
       </c>
@@ -2074,7 +2113,7 @@
         <f>PI()*C3^2*B3</f>
         <v>1.2271846303085129E-2</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="42">
         <f>D3*2.1</f>
         <v>2.5770877236478772E-2</v>
       </c>
@@ -2151,7 +2190,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K12" s="47" t="s">
+      <c r="K12" s="43" t="s">
         <v>298</v>
       </c>
     </row>
@@ -2298,42 +2337,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="T1" s="48" t="s">
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="T1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AB1" s="48" t="s">
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AB1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AJ1" s="48" t="s">
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AJ1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="48"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
     </row>
     <row r="2" spans="1:47" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F2" s="13" t="s">
@@ -2552,7 +2591,7 @@
       <c r="AR3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AS3" s="41">
+      <c r="AS3" s="37">
         <v>12.815</v>
       </c>
     </row>
@@ -2675,7 +2714,7 @@
       <c r="AR4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AS4" s="41">
+      <c r="AS4" s="37">
         <v>1.5</v>
       </c>
       <c r="AT4" s="1" t="s">
@@ -2921,7 +2960,7 @@
       <c r="AR6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AS6" s="41">
+      <c r="AS6" s="37">
         <v>230</v>
       </c>
       <c r="AT6" s="1">
@@ -2956,11 +2995,11 @@
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="E9" s="38"/>
+      <c r="E9" s="34"/>
       <c r="AR9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AS9" s="41">
+      <c r="AS9" s="37">
         <v>25</v>
       </c>
     </row>
@@ -2974,17 +3013,17 @@
       <c r="C10" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="38" t="str">
+      <c r="E10" s="34" t="str">
         <f>IF(D10="--n/a--","",IF(C10="Hyperg","Hypergolic",C10))&amp;"-"</f>
         <v>-</v>
       </c>
       <c r="AR10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AS10" s="41">
+      <c r="AS10" s="37">
         <v>1.5</v>
       </c>
       <c r="AT10" s="1" t="s">
@@ -3005,10 +3044,10 @@
       <c r="C11" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="38" t="str">
+      <c r="E11" s="34" t="str">
         <f t="shared" ref="E11:E74" si="1">IF(D11="--n/a--","",IF(C11="Hyperg","Hypergolic",C11))&amp;"-"</f>
         <v>-</v>
       </c>
@@ -3033,14 +3072,14 @@
       <c r="D12" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E12" s="38" t="str">
+      <c r="E12" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hypergolic-</v>
       </c>
       <c r="AR12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AS12" s="41">
+      <c r="AS12" s="37">
         <v>230</v>
       </c>
       <c r="AT12" s="1">
@@ -3061,7 +3100,7 @@
       <c r="D13" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="38" t="str">
+      <c r="E13" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hydraz-</v>
       </c>
@@ -3083,10 +3122,10 @@
       <c r="C14" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E14" s="38" t="str">
+      <c r="E14" s="34" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -3101,10 +3140,10 @@
       <c r="C15" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="38" t="str">
+      <c r="E15" s="34" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -3122,7 +3161,7 @@
       <c r="D16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E16" s="38" t="str">
+      <c r="E16" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hypergolic-</v>
       </c>
@@ -3140,7 +3179,7 @@
       <c r="D17" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E17" s="38" t="str">
+      <c r="E17" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hydraz-</v>
       </c>
@@ -3155,10 +3194,10 @@
       <c r="C18" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="38" t="str">
+      <c r="E18" s="34" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -3173,10 +3212,10 @@
       <c r="C19" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="38" t="str">
+      <c r="E19" s="34" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -3194,7 +3233,7 @@
       <c r="D20" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E20" s="38" t="str">
+      <c r="E20" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hypergolic-</v>
       </c>
@@ -3212,7 +3251,7 @@
       <c r="D21" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="38" t="str">
+      <c r="E21" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hydraz-</v>
       </c>
@@ -3227,10 +3266,10 @@
       <c r="C22" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="38" t="str">
+      <c r="E22" s="34" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -3245,10 +3284,10 @@
       <c r="C23" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E23" s="38" t="str">
+      <c r="E23" s="34" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -3266,7 +3305,7 @@
       <c r="D24" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E24" s="38" t="str">
+      <c r="E24" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hypergolic-</v>
       </c>
@@ -3285,7 +3324,7 @@
       <c r="D25" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E25" s="38" t="str">
+      <c r="E25" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hydraz-</v>
       </c>
@@ -3303,7 +3342,7 @@
       <c r="D26" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="38" t="str">
+      <c r="E26" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hydrolox-</v>
       </c>
@@ -3321,7 +3360,7 @@
       <c r="D27" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E27" s="38" t="str">
+      <c r="E27" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Kerolox-</v>
       </c>
@@ -3339,7 +3378,7 @@
       <c r="D28" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E28" s="38" t="str">
+      <c r="E28" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hypergolic-</v>
       </c>
@@ -3357,7 +3396,7 @@
       <c r="D29" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E29" s="38" t="str">
+      <c r="E29" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hydraz-</v>
       </c>
@@ -3375,7 +3414,7 @@
       <c r="D30" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E30" s="38" t="str">
+      <c r="E30" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hydrolox-</v>
       </c>
@@ -3393,7 +3432,7 @@
       <c r="D31" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="38" t="str">
+      <c r="E31" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Kerolox-</v>
       </c>
@@ -3411,7 +3450,7 @@
       <c r="D32" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E32" s="38" t="str">
+      <c r="E32" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hypergolic-</v>
       </c>
@@ -3429,7 +3468,7 @@
       <c r="D33" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="38" t="str">
+      <c r="E33" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hydraz-</v>
       </c>
@@ -3447,7 +3486,7 @@
       <c r="D34" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E34" s="38" t="str">
+      <c r="E34" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hydrolox-</v>
       </c>
@@ -3465,7 +3504,7 @@
       <c r="D35" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E35" s="38" t="str">
+      <c r="E35" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Kerolox-</v>
       </c>
@@ -3483,7 +3522,7 @@
       <c r="D36" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E36" s="38" t="str">
+      <c r="E36" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hypergolic-</v>
       </c>
@@ -3501,7 +3540,7 @@
       <c r="D37" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E37" s="38" t="str">
+      <c r="E37" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hydraz-</v>
       </c>
@@ -3519,7 +3558,7 @@
       <c r="D38" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="38" t="str">
+      <c r="E38" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hydrolox-</v>
       </c>
@@ -3537,7 +3576,7 @@
       <c r="D39" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E39" s="38" t="str">
+      <c r="E39" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Kerolox-</v>
       </c>
@@ -3555,7 +3594,7 @@
       <c r="D40" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E40" s="38" t="str">
+      <c r="E40" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hypergolic-</v>
       </c>
@@ -3573,7 +3612,7 @@
       <c r="D41" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E41" s="38" t="str">
+      <c r="E41" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hydraz-</v>
       </c>
@@ -3591,7 +3630,7 @@
       <c r="D42" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E42" s="38" t="str">
+      <c r="E42" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hydrolox-</v>
       </c>
@@ -3609,7 +3648,7 @@
       <c r="D43" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E43" s="38" t="str">
+      <c r="E43" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Kerolox-</v>
       </c>
@@ -3627,11 +3666,11 @@
       <c r="D44" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E44" s="38" t="str">
+      <c r="E44" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hypergolic-</v>
       </c>
-      <c r="O44" s="43"/>
+      <c r="O44" s="39"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -3643,10 +3682,10 @@
       <c r="C45" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E45" s="38" t="str">
+      <c r="E45" s="34" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -3664,7 +3703,7 @@
       <c r="D46" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E46" s="38" t="str">
+      <c r="E46" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hydrolox-</v>
       </c>
@@ -3682,7 +3721,7 @@
       <c r="D47" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E47" s="38" t="str">
+      <c r="E47" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Kerolox-</v>
       </c>
@@ -3700,7 +3739,7 @@
       <c r="D48" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E48" s="38" t="str">
+      <c r="E48" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hypergolic-</v>
       </c>
@@ -3715,10 +3754,10 @@
       <c r="C49" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D49" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E49" s="38" t="str">
+      <c r="E49" s="34" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -3736,7 +3775,7 @@
       <c r="D50" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E50" s="38" t="str">
+      <c r="E50" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hydrolox-</v>
       </c>
@@ -3754,7 +3793,7 @@
       <c r="D51" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E51" s="38" t="str">
+      <c r="E51" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Kerolox-</v>
       </c>
@@ -3772,7 +3811,7 @@
       <c r="D52" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E52" s="38" t="str">
+      <c r="E52" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hypergolic-</v>
       </c>
@@ -3787,10 +3826,10 @@
       <c r="C53" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E53" s="38" t="str">
+      <c r="E53" s="34" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -3808,7 +3847,7 @@
       <c r="D54" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E54" s="38" t="str">
+      <c r="E54" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hydrolox-</v>
       </c>
@@ -3826,7 +3865,7 @@
       <c r="D55" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E55" s="38" t="str">
+      <c r="E55" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Kerolox-</v>
       </c>
@@ -3841,10 +3880,10 @@
       <c r="C56" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E56" s="38" t="str">
+      <c r="E56" s="34" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -3859,10 +3898,10 @@
       <c r="C57" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D57" s="38" t="s">
+      <c r="D57" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E57" s="38" t="str">
+      <c r="E57" s="34" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -3880,7 +3919,7 @@
       <c r="D58" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E58" s="38" t="str">
+      <c r="E58" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hydrolox-</v>
       </c>
@@ -3898,7 +3937,7 @@
       <c r="D59" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E59" s="38" t="str">
+      <c r="E59" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Kerolox-</v>
       </c>
@@ -3913,10 +3952,10 @@
       <c r="C60" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D60" s="38" t="s">
+      <c r="D60" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E60" s="38" t="str">
+      <c r="E60" s="34" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -3931,10 +3970,10 @@
       <c r="C61" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D61" s="38" t="s">
+      <c r="D61" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E61" s="38" t="str">
+      <c r="E61" s="34" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -3952,7 +3991,7 @@
       <c r="D62" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E62" s="38" t="str">
+      <c r="E62" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hydrolox-</v>
       </c>
@@ -3970,7 +4009,7 @@
       <c r="D63" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E63" s="38" t="str">
+      <c r="E63" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Kerolox-</v>
       </c>
@@ -3985,10 +4024,10 @@
       <c r="C64" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D64" s="38" t="s">
+      <c r="D64" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E64" s="38" t="str">
+      <c r="E64" s="34" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -4003,10 +4042,10 @@
       <c r="C65" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D65" s="38" t="s">
+      <c r="D65" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E65" s="38" t="str">
+      <c r="E65" s="34" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -4024,7 +4063,7 @@
       <c r="D66" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E66" s="38" t="str">
+      <c r="E66" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hydrolox-</v>
       </c>
@@ -4042,7 +4081,7 @@
       <c r="D67" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E67" s="38" t="str">
+      <c r="E67" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Kerolox-</v>
       </c>
@@ -4057,10 +4096,10 @@
       <c r="C68" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D68" s="38" t="s">
+      <c r="D68" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E68" s="38" t="str">
+      <c r="E68" s="34" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -4075,10 +4114,10 @@
       <c r="C69" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D69" s="38" t="s">
+      <c r="D69" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E69" s="38" t="str">
+      <c r="E69" s="34" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -4096,7 +4135,7 @@
       <c r="D70" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E70" s="38" t="str">
+      <c r="E70" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hydrolox-</v>
       </c>
@@ -4114,7 +4153,7 @@
       <c r="D71" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E71" s="38" t="str">
+      <c r="E71" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Kerolox-</v>
       </c>
@@ -4129,10 +4168,10 @@
       <c r="C72" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D72" s="38" t="s">
+      <c r="D72" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E72" s="38" t="str">
+      <c r="E72" s="34" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -4147,10 +4186,10 @@
       <c r="C73" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D73" s="38" t="s">
+      <c r="D73" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E73" s="38" t="str">
+      <c r="E73" s="34" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -4168,7 +4207,7 @@
       <c r="D74" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E74" s="38" t="str">
+      <c r="E74" s="34" t="str">
         <f t="shared" si="1"/>
         <v>Hydrolox-</v>
       </c>
@@ -4186,7 +4225,7 @@
       <c r="D75" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E75" s="38" t="str">
+      <c r="E75" s="34" t="str">
         <f t="shared" ref="E75:E105" si="2">IF(D75="--n/a--","",IF(C75="Hyperg","Hypergolic",C75))&amp;"-"</f>
         <v>Kerolox-</v>
       </c>
@@ -4201,10 +4240,10 @@
       <c r="C76" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D76" s="38" t="s">
+      <c r="D76" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E76" s="38" t="str">
+      <c r="E76" s="34" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -4219,10 +4258,10 @@
       <c r="C77" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E77" s="38" t="str">
+      <c r="E77" s="34" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -4240,7 +4279,7 @@
       <c r="D78" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E78" s="38" t="str">
+      <c r="E78" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Hydrolox-</v>
       </c>
@@ -4258,7 +4297,7 @@
       <c r="D79" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E79" s="38" t="str">
+      <c r="E79" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Kerolox-</v>
       </c>
@@ -4273,10 +4312,10 @@
       <c r="C80" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D80" s="38" t="s">
+      <c r="D80" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E80" s="38" t="str">
+      <c r="E80" s="34" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -4291,10 +4330,10 @@
       <c r="C81" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D81" s="38" t="s">
+      <c r="D81" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E81" s="38" t="str">
+      <c r="E81" s="34" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -4312,7 +4351,7 @@
       <c r="D82" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E82" s="38" t="str">
+      <c r="E82" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Hydrolox-</v>
       </c>
@@ -4330,7 +4369,7 @@
       <c r="D83" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E83" s="38" t="str">
+      <c r="E83" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Kerolox-</v>
       </c>
@@ -4345,10 +4384,10 @@
       <c r="C84" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D84" s="38" t="s">
+      <c r="D84" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E84" s="38" t="str">
+      <c r="E84" s="34" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -4363,10 +4402,10 @@
       <c r="C85" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D85" s="38" t="s">
+      <c r="D85" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E85" s="38" t="str">
+      <c r="E85" s="34" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -4384,7 +4423,7 @@
       <c r="D86" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E86" s="38" t="str">
+      <c r="E86" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Hydrolox-</v>
       </c>
@@ -4402,7 +4441,7 @@
       <c r="D87" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E87" s="38" t="str">
+      <c r="E87" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Kerolox-</v>
       </c>
@@ -4417,10 +4456,10 @@
       <c r="C88" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D88" s="38" t="s">
+      <c r="D88" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E88" s="38" t="str">
+      <c r="E88" s="34" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -4435,10 +4474,10 @@
       <c r="C89" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D89" s="38" t="s">
+      <c r="D89" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E89" s="38" t="str">
+      <c r="E89" s="34" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -4456,7 +4495,7 @@
       <c r="D90" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E90" s="38" t="str">
+      <c r="E90" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Hydrolox-</v>
       </c>
@@ -4474,7 +4513,7 @@
       <c r="D91" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E91" s="38" t="str">
+      <c r="E91" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Kerolox-</v>
       </c>
@@ -4489,10 +4528,10 @@
       <c r="C92" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D92" s="38" t="s">
+      <c r="D92" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E92" s="38" t="str">
+      <c r="E92" s="34" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -4507,10 +4546,10 @@
       <c r="C93" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D93" s="38" t="s">
+      <c r="D93" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E93" s="38" t="str">
+      <c r="E93" s="34" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -4528,7 +4567,7 @@
       <c r="D94" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E94" s="38" t="str">
+      <c r="E94" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Hydrolox-</v>
       </c>
@@ -4546,7 +4585,7 @@
       <c r="D95" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E95" s="38" t="str">
+      <c r="E95" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Kerolox-</v>
       </c>
@@ -4561,10 +4600,10 @@
       <c r="C96" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D96" s="38" t="s">
+      <c r="D96" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E96" s="38" t="str">
+      <c r="E96" s="34" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -4579,10 +4618,10 @@
       <c r="C97" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D97" s="38" t="s">
+      <c r="D97" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E97" s="38" t="str">
+      <c r="E97" s="34" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -4600,7 +4639,7 @@
       <c r="D98" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E98" s="38" t="str">
+      <c r="E98" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Hydrolox-</v>
       </c>
@@ -4618,7 +4657,7 @@
       <c r="D99" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E99" s="38" t="str">
+      <c r="E99" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Kerolox-</v>
       </c>
@@ -4633,10 +4672,10 @@
       <c r="C100" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D100" s="38" t="s">
+      <c r="D100" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E100" s="38" t="str">
+      <c r="E100" s="34" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -4651,10 +4690,10 @@
       <c r="C101" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D101" s="38" t="s">
+      <c r="D101" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E101" s="38" t="str">
+      <c r="E101" s="34" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -4672,7 +4711,7 @@
       <c r="D102" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E102" s="38" t="str">
+      <c r="E102" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Hydrolox-</v>
       </c>
@@ -4690,7 +4729,7 @@
       <c r="D103" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E103" s="38" t="str">
+      <c r="E103" s="34" t="str">
         <f t="shared" si="2"/>
         <v>Kerolox-</v>
       </c>
@@ -4705,10 +4744,10 @@
       <c r="C104" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D104" s="38" t="s">
+      <c r="D104" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E104" s="38" t="str">
+      <c r="E104" s="34" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -4723,10 +4762,10 @@
       <c r="C105" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D105" s="38" t="s">
+      <c r="D105" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="E105" s="38" t="str">
+      <c r="E105" s="34" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -4748,34 +4787,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC36"/>
+  <dimension ref="A1:BN36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="3.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="1.28515625" style="1" customWidth="1"/>
     <col min="24" max="24" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.140625" style="1" bestFit="1" customWidth="1"/>
@@ -4790,22 +4830,34 @@
     <col min="34" max="34" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="2.85546875" style="1" customWidth="1"/>
-    <col min="37" max="37" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="42" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="1.7109375" style="1" customWidth="1"/>
-    <col min="49" max="49" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.140625" style="1"/>
+    <col min="49" max="49" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.140625" style="1"/>
+    <col min="56" max="56" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="62" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="65" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>59</v>
       </c>
@@ -4899,57 +4951,63 @@
       <c r="AL1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AM1" s="24">
+      <c r="AM1" s="22">
         <f>AL2</f>
         <v>1</v>
       </c>
-      <c r="AN1" s="24">
+      <c r="AN1" s="22">
         <f>AL3</f>
         <v>4</v>
       </c>
-      <c r="AO1" s="24">
+      <c r="AO1" s="22">
         <f>AL4</f>
-        <v>6</v>
-      </c>
-      <c r="AP1" s="24">
+        <v>8</v>
+      </c>
+      <c r="AP1" s="22">
         <f>AL5</f>
-        <v>8</v>
-      </c>
-      <c r="AQ1" s="24">
+        <v>16</v>
+      </c>
+      <c r="AQ1" s="22">
         <f>AL6</f>
         <v>250</v>
       </c>
-      <c r="AR1" s="24">
+      <c r="AR1" s="22">
         <f>AL7</f>
         <v>10000</v>
       </c>
-      <c r="AS1" s="24">
+      <c r="AS1" s="22">
         <f>AL8</f>
         <v>65000</v>
       </c>
-      <c r="AT1" s="24">
+      <c r="AT1" s="22">
         <f>AL9</f>
         <v>575000</v>
       </c>
-      <c r="AU1" s="24">
+      <c r="AU1" s="22">
         <f>AL10</f>
         <v>1000000</v>
       </c>
-      <c r="AW1" s="1"/>
+      <c r="AW1" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="AX1" s="1"/>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
-    </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD1" s="1"/>
+      <c r="BG1" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
@@ -5056,7 +5114,7 @@
         <v>1</v>
       </c>
       <c r="AM2" s="16">
-        <f>MIN($AL2,AM$1)+SQRT($AL2*AM$1)</f>
+        <f>MIN(AM$12,$AW2,MIN($AL2,AM$1)+SQRT($AL2*AM$1))</f>
         <v>2</v>
       </c>
       <c r="AN2" s="16"/>
@@ -5067,24 +5125,61 @@
       <c r="AS2" s="16"/>
       <c r="AT2" s="16"/>
       <c r="AU2" s="16"/>
-      <c r="AW2" s="1" t="s">
+      <c r="AW2" s="1">
+        <f>100*AL2</f>
+        <v>100</v>
+      </c>
+      <c r="AX2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AX2" s="16">
-        <f t="shared" ref="AX2:AX7" si="2">SUM(AY2:BA2)/1000000</f>
+      <c r="AY2" s="16">
+        <f t="shared" ref="AY2:AY7" si="2">SUM(AZ2:BB2)/1000000</f>
         <v>6.9375</v>
-      </c>
-      <c r="AY2" s="16">
-        <f>600000+2868750</f>
-        <v>3468750</v>
       </c>
       <c r="AZ2" s="16">
         <f>600000+2868750</f>
         <v>3468750</v>
       </c>
-      <c r="BA2" s="16"/>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BA2" s="16">
+        <f>600000+2868750</f>
+        <v>3468750</v>
+      </c>
+      <c r="BB2" s="16"/>
+      <c r="BD2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF2" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="BG2" s="13">
+        <v>1</v>
+      </c>
+      <c r="BH2" s="13">
+        <v>4</v>
+      </c>
+      <c r="BI2" s="13">
+        <v>3</v>
+      </c>
+      <c r="BJ2" s="13">
+        <v>4</v>
+      </c>
+      <c r="BK2" s="13">
+        <v>5</v>
+      </c>
+      <c r="BL2" s="13">
+        <v>6</v>
+      </c>
+      <c r="BM2" s="13">
+        <v>7</v>
+      </c>
+      <c r="BN2" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -5194,11 +5289,11 @@
         <v>4</v>
       </c>
       <c r="AM3" s="16">
-        <f t="shared" ref="AM3:AM10" si="8">MIN($AL3,AM$1)+SQRT($AL3*AM$1)</f>
+        <f t="shared" ref="AM3:AT10" si="8">MIN(AM$12,$AW3,MIN($AL3,AM$1)+SQRT($AL3*AM$1))</f>
         <v>3</v>
       </c>
-      <c r="AN3" s="26">
-        <f t="shared" ref="AN3:AN10" si="9">MIN($AL3,AN$1)+SQRT($AL3*AN$1)</f>
+      <c r="AN3" s="16">
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="AO3" s="16"/>
@@ -5208,25 +5303,70 @@
       <c r="AS3" s="16"/>
       <c r="AT3" s="16"/>
       <c r="AU3" s="16"/>
-      <c r="AW3" s="1" t="s">
+      <c r="AW3" s="1">
+        <f>100*AL3</f>
+        <v>400</v>
+      </c>
+      <c r="AX3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AX3" s="16">
+      <c r="AY3" s="16">
         <f t="shared" si="2"/>
         <v>15.668749999999999</v>
       </c>
-      <c r="AY3" s="16">
+      <c r="AZ3" s="16">
         <f>600000+2868750</f>
         <v>3468750</v>
       </c>
-      <c r="AZ3" s="16">
+      <c r="BA3" s="16">
         <v>12000000</v>
       </c>
-      <c r="BA3" s="16">
+      <c r="BB3" s="16">
         <v>200000</v>
       </c>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF3" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="BG3" s="1">
+        <f>(($BF3-BG$2)^2 )/ BG$2</f>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="BH3" s="1">
+        <f>(($BF3-BH$2)^2 )/ BH$2</f>
+        <v>2.8899999999999997</v>
+      </c>
+      <c r="BI3" s="1">
+        <f>(($BF3-BI$2)^2 )/ BI$2</f>
+        <v>1.92</v>
+      </c>
+      <c r="BJ3" s="4">
+        <f t="shared" ref="BG3:BN7" si="9">(($BF3-BJ$2)^2 )/ BJ$2</f>
+        <v>2.8899999999999997</v>
+      </c>
+      <c r="BK3" s="4">
+        <f t="shared" si="9"/>
+        <v>3.8720000000000008</v>
+      </c>
+      <c r="BL3" s="4">
+        <f t="shared" si="9"/>
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="BM3" s="4">
+        <f t="shared" si="9"/>
+        <v>5.8514285714285723</v>
+      </c>
+      <c r="BN3" s="4">
+        <f t="shared" si="9"/>
+        <v>6.8450000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -5262,7 +5402,7 @@
         <v>45</v>
       </c>
       <c r="L4" s="16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M4" s="16">
         <v>15</v>
@@ -5278,19 +5418,19 @@
       </c>
       <c r="Q4" s="16">
         <f>(L4/L3)^2*Q3</f>
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="R4" s="17">
         <f t="shared" si="5"/>
-        <v>180</v>
+        <v>320</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="6"/>
-        <v>5.0000040000000003E-2</v>
+        <v>8.8888960000000003E-2</v>
       </c>
       <c r="T4" s="5">
         <f t="shared" si="7"/>
-        <v>3.0000024000000001</v>
+        <v>5.3333376000000001</v>
       </c>
       <c r="V4" s="2" t="s">
         <v>41</v>
@@ -5330,19 +5470,19 @@
         <v>50468750</v>
       </c>
       <c r="AL4" s="17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AM4" s="16">
         <f t="shared" si="8"/>
-        <v>3.4494897427831779</v>
+        <v>3.8284271247461903</v>
       </c>
       <c r="AN4" s="16">
-        <f t="shared" si="9"/>
-        <v>8.8989794855663558</v>
+        <f t="shared" si="8"/>
+        <v>9.6568542494923797</v>
       </c>
       <c r="AO4" s="16">
-        <f t="shared" ref="AO4:AO10" si="10">MIN($AL4,AO$1)+SQRT($AL4*AO$1)</f>
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>16</v>
       </c>
       <c r="AP4" s="16"/>
       <c r="AQ4" s="16"/>
@@ -5350,25 +5490,71 @@
       <c r="AS4" s="16"/>
       <c r="AT4" s="16"/>
       <c r="AU4" s="16"/>
-      <c r="AW4" s="1" t="s">
+      <c r="AW4" s="1">
+        <f>1000*AL4</f>
+        <v>8000</v>
+      </c>
+      <c r="AX4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AX4" s="16">
+      <c r="AY4" s="16">
         <f t="shared" si="2"/>
         <v>50.528750000000002</v>
       </c>
-      <c r="AY4" s="16">
+      <c r="AZ4" s="16">
         <f>600000+2868750</f>
         <v>3468750</v>
       </c>
-      <c r="AZ4" s="16">
+      <c r="BA4" s="16">
         <v>47000000</v>
       </c>
-      <c r="BA4" s="16">
+      <c r="BB4" s="16">
         <v>60000</v>
       </c>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF4" s="6">
+        <f>5*BF3</f>
+        <v>3</v>
+      </c>
+      <c r="BG4" s="4">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="BH4" s="1">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="BI4" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="4">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="BK4" s="4">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="BL4" s="4">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="BM4" s="4">
+        <f t="shared" si="9"/>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="BN4" s="4">
+        <f t="shared" si="9"/>
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -5383,15 +5569,15 @@
       </c>
       <c r="E5" s="16">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F5" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H5" s="16">
         <v>16</v>
@@ -5404,7 +5590,7 @@
         <v>48</v>
       </c>
       <c r="L5" s="16">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M5" s="16">
         <v>10</v>
@@ -5420,63 +5606,109 @@
       </c>
       <c r="Q5" s="16">
         <f>(L5/L4)^2*Q4</f>
-        <v>320</v>
+        <v>1280</v>
       </c>
       <c r="R5" s="17">
         <f t="shared" si="5"/>
-        <v>320</v>
+        <v>1280</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="6"/>
-        <v>8.8888960000000003E-2</v>
+        <v>0.35555584000000001</v>
       </c>
       <c r="T5" s="5">
         <f t="shared" si="7"/>
-        <v>5.3333376000000001</v>
+        <v>21.3333504</v>
       </c>
       <c r="AL5" s="17">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AM5" s="16">
         <f t="shared" si="8"/>
-        <v>3.8284271247461903</v>
+        <v>5</v>
       </c>
       <c r="AN5" s="16">
-        <f t="shared" si="9"/>
-        <v>9.6568542494923797</v>
+        <f t="shared" si="8"/>
+        <v>12</v>
       </c>
       <c r="AO5" s="16">
-        <f t="shared" si="10"/>
-        <v>12.928203230275509</v>
-      </c>
-      <c r="AP5" s="25">
-        <f t="shared" ref="AP5:AP10" si="11">MIN($AL5,AP$1)+SQRT($AL5*AP$1)</f>
-        <v>16</v>
+        <f t="shared" si="8"/>
+        <v>19.313708498984759</v>
+      </c>
+      <c r="AP5" s="16">
+        <f t="shared" si="8"/>
+        <v>32</v>
       </c>
       <c r="AQ5" s="16"/>
       <c r="AR5" s="16"/>
       <c r="AS5" s="16"/>
       <c r="AT5" s="16"/>
       <c r="AU5" s="16"/>
-      <c r="AW5" s="1" t="s">
+      <c r="AW5" s="1">
+        <f t="shared" ref="AW5:AW10" si="10">1000*AL5</f>
+        <v>16000</v>
+      </c>
+      <c r="AX5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AX5" s="16">
+      <c r="AY5" s="16">
         <f t="shared" si="2"/>
         <v>35386.498168999999</v>
       </c>
-      <c r="AY5" s="16">
+      <c r="AZ5" s="16">
         <f>600000+2868750</f>
         <v>3468750</v>
       </c>
-      <c r="AZ5" s="16">
+      <c r="BA5" s="16">
         <v>21783189163</v>
       </c>
-      <c r="BA5" s="16">
+      <c r="BB5" s="16">
         <v>13599840256</v>
       </c>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF5" s="6">
+        <f>4*BF4</f>
+        <v>12</v>
+      </c>
+      <c r="BG5" s="1">
+        <f t="shared" si="9"/>
+        <v>121</v>
+      </c>
+      <c r="BH5" s="4">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="BI5" s="4">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="BJ5" s="4">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="BK5" s="4">
+        <f t="shared" si="9"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="BL5" s="4">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="BM5" s="4">
+        <f t="shared" si="9"/>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="BN5" s="4">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
@@ -5495,11 +5727,11 @@
       </c>
       <c r="F6" s="16">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G6" s="16">
         <f t="shared" si="3"/>
-        <v>290.84271247461902</v>
+        <v>416</v>
       </c>
       <c r="H6" s="16">
         <v>90</v>
@@ -5528,19 +5760,19 @@
       </c>
       <c r="Q6" s="16">
         <f>1.5*Q5</f>
-        <v>480</v>
+        <v>1920</v>
       </c>
       <c r="R6" s="17">
         <f t="shared" si="5"/>
-        <v>480</v>
+        <v>1920</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" si="6"/>
-        <v>0.13333344</v>
+        <v>0.53333375999999999</v>
       </c>
       <c r="T6" s="5">
         <f t="shared" si="7"/>
-        <v>8.0000064000000002</v>
+        <v>32.000025600000001</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>9</v>
@@ -5548,49 +5780,95 @@
       <c r="AL6" s="17">
         <v>250</v>
       </c>
-      <c r="AM6" s="25">
+      <c r="AM6" s="16">
         <f t="shared" si="8"/>
         <v>16.811388300841898</v>
       </c>
       <c r="AN6" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>35.622776601683796</v>
       </c>
       <c r="AO6" s="16">
-        <f t="shared" si="10"/>
-        <v>44.729833462074168</v>
-      </c>
-      <c r="AP6" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>52.721359549995796</v>
       </c>
+      <c r="AP6" s="16">
+        <f t="shared" si="8"/>
+        <v>79.245553203367592</v>
+      </c>
       <c r="AQ6" s="16">
-        <f>MIN($AL6,AQ$1)+SQRT($AL6*AQ$1)</f>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="AR6" s="16"/>
       <c r="AS6" s="16"/>
       <c r="AT6" s="16"/>
       <c r="AU6" s="16"/>
-      <c r="AW6" s="1" t="s">
+      <c r="AW6" s="1">
+        <f t="shared" si="10"/>
+        <v>250000</v>
+      </c>
+      <c r="AX6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AX6" s="16">
+      <c r="AY6" s="16">
         <f t="shared" si="2"/>
         <v>85815.547393000001</v>
       </c>
-      <c r="AY6" s="16">
+      <c r="AZ6" s="16">
         <f>600000+2868750</f>
         <v>3468750</v>
       </c>
-      <c r="AZ6" s="16">
+      <c r="BA6" s="16">
         <v>72212238387</v>
       </c>
-      <c r="BA6" s="16">
+      <c r="BB6" s="16">
         <v>13599840256</v>
       </c>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF6" s="6">
+        <f>4*BF5</f>
+        <v>48</v>
+      </c>
+      <c r="BG6" s="1">
+        <f t="shared" si="9"/>
+        <v>2209</v>
+      </c>
+      <c r="BH6" s="1">
+        <f t="shared" si="9"/>
+        <v>484</v>
+      </c>
+      <c r="BI6" s="1">
+        <f t="shared" si="9"/>
+        <v>675</v>
+      </c>
+      <c r="BJ6" s="6">
+        <f t="shared" si="9"/>
+        <v>484</v>
+      </c>
+      <c r="BK6" s="6">
+        <f t="shared" si="9"/>
+        <v>369.8</v>
+      </c>
+      <c r="BL6" s="6">
+        <f t="shared" si="9"/>
+        <v>294</v>
+      </c>
+      <c r="BM6" s="6">
+        <f t="shared" si="9"/>
+        <v>240.14285714285714</v>
+      </c>
+      <c r="BN6" s="6">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
@@ -5641,19 +5919,19 @@
       </c>
       <c r="Q7" s="16">
         <f>1.5*Q6</f>
-        <v>720</v>
+        <v>2880</v>
       </c>
       <c r="R7" s="17">
         <f t="shared" si="5"/>
-        <v>720</v>
+        <v>2880</v>
       </c>
       <c r="S7" s="4">
         <f t="shared" si="6"/>
-        <v>0.20000016000000001</v>
+        <v>0.80000064000000004</v>
       </c>
       <c r="T7" s="5">
         <f t="shared" si="7"/>
-        <v>12.0000096</v>
+        <v>48.000038400000001</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>8</v>
@@ -5661,52 +5939,98 @@
       <c r="AL7" s="17">
         <v>10000</v>
       </c>
-      <c r="AM7" s="22">
+      <c r="AM7" s="16">
         <f t="shared" si="8"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN7" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>204</v>
       </c>
       <c r="AO7" s="16">
-        <f t="shared" si="10"/>
-        <v>250.94897427831782</v>
+        <f t="shared" si="8"/>
+        <v>290.84271247461902</v>
       </c>
       <c r="AP7" s="16">
-        <f t="shared" si="11"/>
-        <v>290.84271247461902</v>
+        <f t="shared" si="8"/>
+        <v>416</v>
       </c>
       <c r="AQ7" s="16">
-        <f>MIN($AL7,AQ$1)+SQRT($AL7*AQ$1)</f>
+        <f t="shared" si="8"/>
         <v>1831.1388300841897</v>
       </c>
       <c r="AR7" s="16">
-        <f>MIN($AL7,AR$1)+SQRT($AL7*AR$1)</f>
+        <f t="shared" si="8"/>
         <v>20000</v>
       </c>
       <c r="AS7" s="16"/>
       <c r="AT7" s="16"/>
       <c r="AU7" s="16"/>
-      <c r="AW7" s="1" t="s">
+      <c r="AW7" s="1">
+        <f t="shared" si="10"/>
+        <v>10000000</v>
+      </c>
+      <c r="AX7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AX7" s="16">
+      <c r="AY7" s="16">
         <f t="shared" si="2"/>
         <v>127153.02220599999</v>
       </c>
-      <c r="AY7" s="16">
+      <c r="AZ7" s="16">
         <f>600000+2868750</f>
         <v>3468750</v>
       </c>
-      <c r="AZ7" s="16">
+      <c r="BA7" s="16">
         <v>113549713200</v>
       </c>
-      <c r="BA7" s="16">
+      <c r="BB7" s="16">
         <v>13599840256</v>
       </c>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD7" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF7" s="6">
+        <f>2*BF6</f>
+        <v>96</v>
+      </c>
+      <c r="BG7" s="1">
+        <f t="shared" si="9"/>
+        <v>9025</v>
+      </c>
+      <c r="BH7" s="1">
+        <f t="shared" si="9"/>
+        <v>2116</v>
+      </c>
+      <c r="BI7" s="1">
+        <f t="shared" si="9"/>
+        <v>2883</v>
+      </c>
+      <c r="BJ7" s="6">
+        <f t="shared" si="9"/>
+        <v>2116</v>
+      </c>
+      <c r="BK7" s="6">
+        <f t="shared" si="9"/>
+        <v>1656.2</v>
+      </c>
+      <c r="BL7" s="6">
+        <f t="shared" si="9"/>
+        <v>1350</v>
+      </c>
+      <c r="BM7" s="6">
+        <f t="shared" si="9"/>
+        <v>1131.5714285714287</v>
+      </c>
+      <c r="BN7" s="6">
+        <f t="shared" si="9"/>
+        <v>968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -5725,11 +6049,11 @@
       </c>
       <c r="F8" s="16">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" si="3"/>
-        <v>44.729833462074168</v>
+        <v>52.721359549995796</v>
       </c>
       <c r="H8" s="16">
         <v>15.668749999999999</v>
@@ -5744,7 +6068,7 @@
       <c r="L8" s="16">
         <v>65000</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="27">
         <v>0.1</v>
       </c>
       <c r="N8" s="16">
@@ -5756,19 +6080,19 @@
       </c>
       <c r="Q8" s="16">
         <f>1.5*Q7</f>
-        <v>1080</v>
+        <v>4320</v>
       </c>
       <c r="R8" s="17">
         <f t="shared" si="5"/>
-        <v>1080</v>
+        <v>4320</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="6"/>
-        <v>0.30000024000000003</v>
+        <v>1.2000009600000001</v>
       </c>
       <c r="T8" s="5">
         <f t="shared" si="7"/>
-        <v>18.000014400000001</v>
+        <v>72.000057600000005</v>
       </c>
       <c r="V8" s="1">
         <f>1/3600</f>
@@ -5779,36 +6103,40 @@
       </c>
       <c r="AM8" s="16">
         <f t="shared" si="8"/>
-        <v>255.95097567963924</v>
+        <v>100</v>
       </c>
       <c r="AN8" s="16">
-        <f t="shared" si="9"/>
-        <v>513.90195135927843</v>
+        <f t="shared" si="8"/>
+        <v>400</v>
       </c>
       <c r="AO8" s="16">
-        <f t="shared" si="10"/>
-        <v>630.49979983983985</v>
+        <f t="shared" si="8"/>
+        <v>729.11025509279784</v>
       </c>
       <c r="AP8" s="16">
-        <f t="shared" si="11"/>
-        <v>729.11025509279784</v>
+        <f t="shared" si="8"/>
+        <v>1035.8039027185569</v>
       </c>
       <c r="AQ8" s="16">
-        <f>MIN($AL8,AQ$1)+SQRT($AL8*AQ$1)</f>
+        <f t="shared" si="8"/>
         <v>4281.1288741492754</v>
       </c>
-      <c r="AR8" s="23">
-        <f>MIN($AL8,AR$1)+SQRT($AL8*AR$1)</f>
+      <c r="AR8" s="16">
+        <f t="shared" si="8"/>
         <v>35495.097567963923</v>
       </c>
       <c r="AS8" s="16">
-        <f>MIN($AL8,AS$1)+SQRT($AL8*AS$1)</f>
+        <f t="shared" si="8"/>
         <v>130000</v>
       </c>
       <c r="AT8" s="16"/>
       <c r="AU8" s="16"/>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AW8" s="1">
+        <f t="shared" si="10"/>
+        <v>65000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -5827,11 +6155,11 @@
       </c>
       <c r="F9" s="16">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G9" s="16">
         <f t="shared" si="3"/>
-        <v>250.94897427831782</v>
+        <v>290.84271247461902</v>
       </c>
       <c r="H9" s="16">
         <v>50.528750000000002</v>
@@ -5846,7 +6174,7 @@
       <c r="L9" s="16">
         <v>575000</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="28">
         <v>0.01</v>
       </c>
       <c r="N9" s="16">
@@ -5858,58 +6186,62 @@
       </c>
       <c r="Q9" s="16">
         <f>1.5*Q8</f>
-        <v>1620</v>
+        <v>6480</v>
       </c>
       <c r="R9" s="17">
         <f t="shared" si="5"/>
-        <v>1620</v>
+        <v>6480</v>
       </c>
       <c r="S9" s="4">
         <f t="shared" si="6"/>
-        <v>0.45000035999999999</v>
+        <v>1.80000144</v>
       </c>
       <c r="T9" s="5">
         <f t="shared" si="7"/>
-        <v>27.0000216</v>
+        <v>108.0000864</v>
       </c>
       <c r="AL9" s="17">
         <v>575000</v>
       </c>
       <c r="AM9" s="16">
         <f t="shared" si="8"/>
-        <v>759.28754440515502</v>
+        <v>100</v>
       </c>
       <c r="AN9" s="16">
-        <f t="shared" si="9"/>
-        <v>1520.57508881031</v>
+        <f t="shared" si="8"/>
+        <v>400</v>
       </c>
       <c r="AO9" s="16">
+        <f t="shared" si="8"/>
+        <v>2152.7610589527217</v>
+      </c>
+      <c r="AP9" s="16">
+        <f t="shared" si="8"/>
+        <v>3049.1501776206201</v>
+      </c>
+      <c r="AQ9" s="16">
+        <f t="shared" si="8"/>
+        <v>12239.578808281798</v>
+      </c>
+      <c r="AR9" s="16">
+        <f t="shared" si="8"/>
+        <v>85828.754440515506</v>
+      </c>
+      <c r="AS9" s="16">
+        <f t="shared" si="8"/>
+        <v>258326.14929181203</v>
+      </c>
+      <c r="AT9" s="16">
+        <f t="shared" si="8"/>
+        <v>1150000</v>
+      </c>
+      <c r="AU9" s="16"/>
+      <c r="AW9" s="1">
         <f t="shared" si="10"/>
-        <v>1863.4175621006709</v>
-      </c>
-      <c r="AP9" s="16">
-        <f t="shared" si="11"/>
-        <v>2152.7610589527217</v>
-      </c>
-      <c r="AQ9" s="16">
-        <f>MIN($AL9,AQ$1)+SQRT($AL9*AQ$1)</f>
-        <v>12239.578808281798</v>
-      </c>
-      <c r="AR9" s="27">
-        <f>MIN($AL9,AR$1)+SQRT($AL9*AR$1)</f>
-        <v>85828.754440515506</v>
-      </c>
-      <c r="AS9" s="16">
-        <f>MIN($AL9,AS$1)+SQRT($AL9*AS$1)</f>
-        <v>258326.14929181203</v>
-      </c>
-      <c r="AT9" s="16">
-        <f>MIN($AL9,AT$1)+SQRT($AL9*AT$1)</f>
-        <v>1150000</v>
-      </c>
-      <c r="AU9" s="16"/>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+        <v>575000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -5947,48 +6279,52 @@
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
-      <c r="R10" s="30"/>
+      <c r="R10" s="26"/>
       <c r="AL10" s="17">
         <v>1000000</v>
       </c>
       <c r="AM10" s="16">
         <f t="shared" si="8"/>
-        <v>1001</v>
+        <v>100</v>
       </c>
       <c r="AN10" s="16">
-        <f t="shared" si="9"/>
-        <v>2004</v>
+        <f t="shared" si="8"/>
+        <v>400</v>
       </c>
       <c r="AO10" s="16">
+        <f t="shared" si="8"/>
+        <v>2836.4271247461902</v>
+      </c>
+      <c r="AP10" s="16">
+        <f t="shared" si="8"/>
+        <v>4016</v>
+      </c>
+      <c r="AQ10" s="16">
+        <f t="shared" si="8"/>
+        <v>16061.388300841896</v>
+      </c>
+      <c r="AR10" s="16">
+        <f t="shared" si="8"/>
+        <v>110000</v>
+      </c>
+      <c r="AS10" s="16">
+        <f t="shared" si="8"/>
+        <v>319950.97567963926</v>
+      </c>
+      <c r="AT10" s="16">
+        <f t="shared" si="8"/>
+        <v>1333287.5444051549</v>
+      </c>
+      <c r="AU10" s="16">
+        <f>MIN(AU$12,$AW10,MIN($AL10,AU$1)+SQRT($AL10*AU$1))</f>
+        <v>2000000</v>
+      </c>
+      <c r="AW10" s="1">
         <f t="shared" si="10"/>
-        <v>2455.4897427831779</v>
-      </c>
-      <c r="AP10" s="16">
-        <f t="shared" si="11"/>
-        <v>2836.4271247461902</v>
-      </c>
-      <c r="AQ10" s="16">
-        <f>MIN($AL10,AQ$1)+SQRT($AL10*AQ$1)</f>
-        <v>16061.388300841896</v>
-      </c>
-      <c r="AR10" s="16">
-        <f>MIN($AL10,AR$1)+SQRT($AL10*AR$1)</f>
-        <v>110000</v>
-      </c>
-      <c r="AS10" s="16">
-        <f>MIN($AL10,AS$1)+SQRT($AL10*AS$1)</f>
-        <v>319950.97567963926</v>
-      </c>
-      <c r="AT10" s="16">
-        <f>MIN($AL10,AT$1)+SQRT($AL10*AT$1)</f>
-        <v>1333287.5444051549</v>
-      </c>
-      <c r="AU10" s="16">
-        <f>MIN($AL10,AU$1)+SQRT($AL10*AU$1)</f>
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
@@ -6033,7 +6369,7 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>85</v>
       </c>
@@ -6068,8 +6404,44 @@
       <c r="R12" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AM12" s="1">
+        <f>AW2</f>
+        <v>100</v>
+      </c>
+      <c r="AN12" s="1">
+        <f>AW3</f>
+        <v>400</v>
+      </c>
+      <c r="AO12" s="1">
+        <f>AW4</f>
+        <v>8000</v>
+      </c>
+      <c r="AP12" s="1">
+        <f>AW5</f>
+        <v>16000</v>
+      </c>
+      <c r="AQ12" s="1">
+        <f>AW6</f>
+        <v>250000</v>
+      </c>
+      <c r="AR12" s="1">
+        <f>AW7</f>
+        <v>10000000</v>
+      </c>
+      <c r="AS12" s="1">
+        <f>AW8</f>
+        <v>65000000</v>
+      </c>
+      <c r="AT12" s="1">
+        <f>AW9</f>
+        <v>575000000</v>
+      </c>
+      <c r="AU12" s="1">
+        <f>AW10</f>
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
@@ -6084,7 +6456,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>4.51</v>
       </c>
@@ -6095,7 +6467,7 @@
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
-      <c r="Q14" s="33">
+      <c r="Q14" s="29">
         <v>0.01</v>
       </c>
       <c r="R14" s="1">
@@ -6105,8 +6477,11 @@
         <f>R14*TAN(RADIANS(Q$14))</f>
         <v>6.9813170788650121E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AK14" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <f>B14*3600</f>
         <v>16236</v>
@@ -6123,7 +6498,7 @@
       </c>
       <c r="G15" s="1">
         <f>2*R5</f>
-        <v>640</v>
+        <v>2560</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -6133,11 +6508,14 @@
         <v>16</v>
       </c>
       <c r="S15" s="5">
-        <f t="shared" ref="S15:S21" si="12">R15*TAN(RADIANS(Q$14))</f>
+        <f t="shared" ref="S15:S21" si="11">R15*TAN(RADIANS(Q$14))</f>
         <v>2.7925268315460048E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AK15" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
         <v>120</v>
       </c>
@@ -6147,7 +6525,7 @@
       </c>
       <c r="G16" s="1">
         <f>2*R6</f>
-        <v>960</v>
+        <v>3840</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -6157,11 +6535,14 @@
         <v>50</v>
       </c>
       <c r="S16" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>8.7266463485812656E-3</v>
       </c>
-    </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AK16" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>7.5</v>
       </c>
@@ -6177,7 +6558,7 @@
       </c>
       <c r="G17" s="1">
         <f>2*R7</f>
-        <v>1440</v>
+        <v>5760</v>
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -6187,11 +6568,14 @@
         <v>90</v>
       </c>
       <c r="S17" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>1.5707963427446278E-2</v>
       </c>
-    </row>
-    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AK17" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <f>60*B17</f>
         <v>450</v>
@@ -6201,7 +6585,7 @@
       </c>
       <c r="G18" s="1">
         <f>SUM(G15:G17)</f>
-        <v>3040</v>
+        <v>12160</v>
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
@@ -6211,17 +6595,20 @@
         <v>20000</v>
       </c>
       <c r="S18" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>3.490658539432506</v>
       </c>
-    </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AK18" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F19" s="1" t="s">
         <v>121</v>
       </c>
       <c r="G19" s="1">
         <f>G18+450</f>
-        <v>3490</v>
+        <v>12610</v>
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
@@ -6231,17 +6618,20 @@
         <v>36000</v>
       </c>
       <c r="S19" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>6.2831853709785106</v>
       </c>
-    </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AK19" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G20" s="4">
         <f>G19/3600</f>
-        <v>0.96944444444444444</v>
+        <v>3.5027777777777778</v>
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
@@ -6251,53 +6641,540 @@
         <v>86000</v>
       </c>
       <c r="S20" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>15.009831719559775</v>
       </c>
-    </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AK20" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="R21" s="1">
         <v>128000</v>
       </c>
       <c r="S21" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>22.34021465236804</v>
       </c>
-    </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AK21" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="S22" s="5"/>
     </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E23" s="5">
+        <f>2.86875-0.6+1.2</f>
+        <v>3.46875</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <f>INDEX($N$23:$N$31,F23)</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1">
+        <f>INDEX($N$23:$N$31,H23)</f>
+        <v>5</v>
+      </c>
+      <c r="J23" s="6">
+        <f>MIN(G23+I23)+SQRT(G23*I23)</f>
+        <v>8.2360679774997898</v>
+      </c>
+      <c r="K23" s="36" t="str">
+        <f>IF(J23&gt;=E23,"yes","no")</f>
+        <v>yes</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="S23" s="5"/>
       <c r="AJ23" s="16"/>
       <c r="AK23" s="16"/>
     </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E24" s="5">
+        <f>2.86875*2+0.6*2</f>
+        <v>6.9375</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <f>INDEX($N$23:$N$31,F24)</f>
+        <v>5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1">
+        <f>INDEX($N$23:$N$31,H24)</f>
+        <v>5</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" ref="J24:J31" si="12">MIN(G24+I24)+SQRT(G24*I24)</f>
+        <v>15</v>
+      </c>
+      <c r="K24" s="36" t="str">
+        <f>IF(J24&gt;=E24,"yes","no")</f>
+        <v>yes</v>
+      </c>
+      <c r="M24" s="1">
+        <f>1+M23</f>
+        <v>2</v>
+      </c>
+      <c r="N24" s="1">
+        <v>5</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="P24" s="1">
+        <f>N24/N23</f>
+        <v>5</v>
+      </c>
       <c r="S24" s="5"/>
     </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E25" s="1">
+        <f>12+0.3-0.6+1</f>
+        <v>12.700000000000001</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <f>INDEX($N$23:$N$31,F25)</f>
+        <v>5</v>
+      </c>
+      <c r="H25" s="2">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1">
+        <f>INDEX($N$23:$N$31,H25)</f>
+        <v>35</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="12"/>
+        <v>53.228756555322953</v>
+      </c>
+      <c r="K25" s="36" t="str">
+        <f>IF(J25&gt;=E25,"yes","no")</f>
+        <v>yes</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" ref="M25:M31" si="13">1+M24</f>
+        <v>3</v>
+      </c>
+      <c r="N25" s="1">
+        <v>35</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="P25" s="1">
+        <f>N25/N24</f>
+        <v>7</v>
+      </c>
       <c r="S25" s="5"/>
     </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E26" s="1">
+        <f>47+0.2-0.6+1</f>
+        <v>47.6</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <f>INDEX($N$23:$N$31,F26)</f>
+        <v>5</v>
+      </c>
+      <c r="H26" s="2">
+        <v>3</v>
+      </c>
+      <c r="I26" s="1">
+        <f>INDEX($N$23:$N$31,H26)</f>
+        <v>35</v>
+      </c>
+      <c r="J26" s="6">
+        <f t="shared" si="12"/>
+        <v>53.228756555322953</v>
+      </c>
+      <c r="K26" s="36" t="str">
+        <f>IF(J26&gt;=E26,"yes","no")</f>
+        <v>yes</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="N26" s="1">
+        <f>5*N25</f>
+        <v>175</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="P26" s="1">
+        <f>N26/N25</f>
+        <v>5</v>
+      </c>
       <c r="S26" s="5"/>
     </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E27" s="1">
+        <v>85</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1">
+        <f>INDEX($N$23:$N$31,F27)</f>
+        <v>5</v>
+      </c>
+      <c r="H27" s="2">
+        <v>4</v>
+      </c>
+      <c r="I27" s="1">
+        <f>INDEX($N$23:$N$31,H27)</f>
+        <v>175</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="12"/>
+        <v>209.58039891549808</v>
+      </c>
+      <c r="K27" s="36" t="str">
+        <f>IF(J27&gt;=E27,"yes","no")</f>
+        <v>yes</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="N27" s="1">
+        <v>20000</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="P27" s="1">
+        <f>N27/N26</f>
+        <v>114.28571428571429</v>
+      </c>
       <c r="S27" s="5"/>
     </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E28" s="1">
+        <v>19000</v>
+      </c>
+      <c r="F28" s="2">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1">
+        <f>INDEX($N$23:$N$31,F28)</f>
+        <v>35</v>
+      </c>
+      <c r="H28" s="2">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1">
+        <f>INDEX($N$23:$N$31,H28)</f>
+        <v>20000</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="12"/>
+        <v>20871.660026534075</v>
+      </c>
+      <c r="K28" s="36" t="str">
+        <f>IF(J28&gt;=E28,"yes","no")</f>
+        <v>yes</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" ref="N26:N31" si="14">4*N27</f>
+        <v>80000</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="P28" s="1">
+        <f>N28/N27</f>
+        <v>4</v>
+      </c>
       <c r="S28" s="5"/>
     </row>
-    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E29" s="1">
+        <v>36000</v>
+      </c>
+      <c r="F29" s="2">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1">
+        <f>INDEX($N$23:$N$31,F29)</f>
+        <v>35</v>
+      </c>
+      <c r="H29" s="2">
+        <v>6</v>
+      </c>
+      <c r="I29" s="1">
+        <f>INDEX($N$23:$N$31,H29)</f>
+        <v>80000</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" si="12"/>
+        <v>81708.32005306815</v>
+      </c>
+      <c r="K29" s="36" t="str">
+        <f>IF(J29&gt;=E29,"yes","no")</f>
+        <v>yes</v>
+      </c>
+      <c r="M29" s="1">
+        <v>7</v>
+      </c>
+      <c r="N29" s="1">
+        <v>160000</v>
+      </c>
+      <c r="P29" s="1">
+        <f>N29/N28</f>
+        <v>2</v>
+      </c>
       <c r="S29" s="5"/>
     </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E30" s="1">
+        <v>86000</v>
+      </c>
+      <c r="F30" s="2">
+        <v>4</v>
+      </c>
+      <c r="G30" s="1">
+        <f>INDEX($N$23:$N$31,F30)</f>
+        <v>175</v>
+      </c>
+      <c r="H30" s="2">
+        <v>7</v>
+      </c>
+      <c r="I30" s="1">
+        <f>INDEX($N$23:$N$31,H30)</f>
+        <v>160000</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="12"/>
+        <v>165466.50262212919</v>
+      </c>
+      <c r="K30" s="36" t="str">
+        <f>IF(J30&gt;=E30,"yes","no")</f>
+        <v>yes</v>
+      </c>
+      <c r="M30" s="1">
+        <v>8</v>
+      </c>
+      <c r="N30" s="1">
+        <v>320000</v>
+      </c>
+      <c r="P30" s="1">
+        <f>N30/N29</f>
+        <v>2</v>
+      </c>
       <c r="S30" s="5"/>
     </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E31" s="1">
+        <v>186000</v>
+      </c>
+      <c r="F31" s="2">
+        <v>4</v>
+      </c>
+      <c r="G31" s="1">
+        <f>INDEX($N$23:$N$31,F31)</f>
+        <v>175</v>
+      </c>
+      <c r="H31" s="2">
+        <v>8</v>
+      </c>
+      <c r="I31" s="1">
+        <f>INDEX($N$23:$N$31,H31)</f>
+        <v>320000</v>
+      </c>
+      <c r="J31" s="6">
+        <f t="shared" si="12"/>
+        <v>327658.31477354787</v>
+      </c>
+      <c r="K31" s="36" t="str">
+        <f>IF(J31&gt;=E31,"yes","no")</f>
+        <v>yes</v>
+      </c>
       <c r="S31" s="5"/>
       <c r="AL31" s="16"/>
     </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="S32" s="5"/>
       <c r="AL32" s="16"/>
     </row>
@@ -6318,6 +7195,7 @@
     <sortCondition ref="AL23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6510,13 +7388,13 @@
         <f>2*PI()*SQRT(H3^3/I3)</f>
         <v>1833.6072536492711</v>
       </c>
-      <c r="R3" s="41">
+      <c r="R3" s="37">
         <v>2223</v>
       </c>
-      <c r="S3" s="41">
+      <c r="S3" s="37">
         <v>71</v>
       </c>
-      <c r="T3" s="41">
+      <c r="T3" s="37">
         <v>10</v>
       </c>
     </row>
@@ -6710,7 +7588,7 @@
         <f>2*PI()*SQRT(H7^3/I7)</f>
         <v>53310.658020675924</v>
       </c>
-      <c r="R7" s="39">
+      <c r="R7" s="35">
         <f>T3*S3^2</f>
         <v>50410</v>
       </c>
@@ -7080,34 +7958,34 @@
       <c r="C2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="25">
         <v>0.6</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="25">
         <f t="shared" ref="E2:K2" si="0">5%+D2</f>
         <v>0.65</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="25">
         <f t="shared" si="0"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="25">
         <f t="shared" si="0"/>
         <v>0.75000000000000011</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="25">
         <f t="shared" si="0"/>
         <v>0.80000000000000016</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="25">
         <f t="shared" si="0"/>
         <v>0.8500000000000002</v>
       </c>
-      <c r="J2" s="29">
+      <c r="J2" s="25">
         <f t="shared" si="0"/>
         <v>0.90000000000000024</v>
       </c>
-      <c r="K2" s="29">
+      <c r="K2" s="25">
         <f t="shared" si="0"/>
         <v>0.95000000000000029</v>
       </c>
@@ -7196,34 +8074,34 @@
       <c r="G6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="25">
         <v>0.6</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="25">
         <f t="shared" ref="I6:O6" si="2">5%+H6</f>
         <v>0.65</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="25">
         <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="25">
         <f t="shared" si="2"/>
         <v>0.75000000000000011</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="25">
         <f t="shared" si="2"/>
         <v>0.80000000000000016</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="25">
         <f t="shared" si="2"/>
         <v>0.8500000000000002</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="25">
         <f t="shared" si="2"/>
         <v>0.90000000000000024</v>
       </c>
-      <c r="O6" s="29">
+      <c r="O6" s="25">
         <f t="shared" si="2"/>
         <v>0.95000000000000029</v>
       </c>
@@ -7364,47 +8242,47 @@
       <c r="D10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="25">
         <v>0.6</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="25">
         <f>5%+E10</f>
         <v>0.65</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="25">
         <f>5%+F10</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="25">
         <f>5%+G10</f>
         <v>0.75000000000000011</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="25">
         <f>5%+H10</f>
         <v>0.80000000000000016</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="25">
         <f>5%+I10</f>
         <v>0.8500000000000002</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="25">
         <v>0.87</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="25">
         <f>5%+J10</f>
         <v>0.90000000000000024</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="25">
         <v>0.92</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="25">
         <f>5%+L10</f>
         <v>0.95000000000000029</v>
       </c>
       <c r="P10" s="1">
         <v>2.5</v>
       </c>
-      <c r="Q10" s="35">
+      <c r="Q10" s="31">
         <f>P10/P11*Q11</f>
         <v>4.3679066666666664</v>
       </c>
@@ -7534,7 +8412,7 @@
       <c r="A13" s="2">
         <v>1.25</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="38">
         <v>0.5</v>
       </c>
       <c r="C13" s="1">
@@ -7593,7 +8471,7 @@
       <c r="A14" s="2">
         <v>2.5</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="38">
         <v>1.8</v>
       </c>
       <c r="C14" s="1">
@@ -7653,7 +8531,7 @@
       <c r="A15" s="2">
         <v>2.5</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="38">
         <v>6</v>
       </c>
       <c r="C15" s="1">
@@ -7709,7 +8587,7 @@
       <c r="A16" s="2">
         <v>2.5</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="38">
         <v>2</v>
       </c>
       <c r="C16" s="1">
@@ -7768,7 +8646,7 @@
       <c r="A17" s="2">
         <v>2.5</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="38">
         <v>2.4</v>
       </c>
       <c r="C17" s="1">
@@ -7828,7 +8706,7 @@
       <c r="A18" s="2">
         <v>3.75</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="38">
         <v>3.5</v>
       </c>
       <c r="C18" s="1">
@@ -7884,7 +8762,7 @@
       <c r="A19" s="2">
         <v>2.5</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="38">
         <v>1.9</v>
       </c>
       <c r="C19" s="1">
@@ -7940,7 +8818,7 @@
       <c r="A20" s="2">
         <v>2.5</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="38">
         <v>4.5999999999999996</v>
       </c>
       <c r="C20" s="1">
@@ -7996,7 +8874,7 @@
       <c r="A21" s="2">
         <v>3.75</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="38">
         <v>6</v>
       </c>
       <c r="C21" s="1">
@@ -8052,7 +8930,7 @@
       <c r="A22" s="2">
         <v>1.875</v>
       </c>
-      <c r="B22" s="42">
+      <c r="B22" s="38">
         <v>3.5</v>
       </c>
       <c r="C22" s="1">
@@ -8160,40 +9038,40 @@
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="39">
+      <c r="B2" s="35">
         <v>5</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="35">
         <f>60*B2</f>
         <v>300</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="35">
         <f>250*B2</f>
         <v>1250</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="39">
+      <c r="B3" s="35">
         <v>8</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="35">
         <f>60*B3</f>
         <v>480</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="35">
         <f>250*B3</f>
         <v>2000</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="39">
+      <c r="B4" s="35">
         <v>0.5</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="35">
         <f>60*B4</f>
         <v>30</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="35">
         <f>250*B4</f>
         <v>125</v>
       </c>
@@ -8217,7 +9095,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>198</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -8231,10 +9109,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="1">
         <v>1.25</v>
       </c>
@@ -8242,10 +9120,10 @@
         <f>2*PI()*C2/2*C3</f>
         <v>4.908738521234052</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="1">
         <v>0.54</v>
       </c>
@@ -8255,17 +9133,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="1">
         <v>1.25</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="1">
         <v>0.26</v>
       </c>
@@ -8275,10 +9153,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="1">
         <v>3.7499999999999999E-3</v>
       </c>
@@ -8286,19 +9164,19 @@
         <f>C4*D2</f>
         <v>1.8407769454627694E-2</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="G4" s="34"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="1">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="1">
         <v>0.6</v>
       </c>
@@ -8308,27 +9186,27 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="40">
         <f>D5/2</f>
         <v>5.5223308363883082E-3</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="30" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="F7" s="34" t="s">
+      <c r="B7" s="30"/>
+      <c r="F7" s="30" t="s">
         <v>177</v>
       </c>
       <c r="H7" s="1">
@@ -8344,11 +9222,11 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="F8" s="34" t="s">
+      <c r="B8" s="30"/>
+      <c r="F8" s="30" t="s">
         <v>178</v>
       </c>
       <c r="H8" s="1">
@@ -8364,11 +9242,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="F9" s="34" t="s">
+      <c r="B9" s="30"/>
+      <c r="F9" s="30" t="s">
         <v>179</v>
       </c>
       <c r="H9" s="1">
@@ -8380,11 +9258,11 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="F10" s="34" t="s">
+      <c r="B10" s="30"/>
+      <c r="F10" s="30" t="s">
         <v>183</v>
       </c>
       <c r="H10" s="1">
@@ -8400,25 +9278,25 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="F11" s="34" t="s">
+      <c r="B11" s="30"/>
+      <c r="F11" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="35">
         <f>I10*H9*H10*PI()/3</f>
         <v>6.5143050792210236E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="30" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="30" t="s">
         <v>173</v>
       </c>
       <c r="C13" s="1">
@@ -8428,12 +9306,12 @@
         <f>2*PI()*C13/2*C14</f>
         <v>98.174770424681029</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="30" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="30" t="s">
         <v>174</v>
       </c>
       <c r="C14" s="1">
@@ -8443,23 +9321,23 @@
         <f>C15*D13</f>
         <v>1.4726215563702154</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="30" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="30" t="s">
         <v>175</v>
       </c>
       <c r="C15" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="30" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="30" t="s">
         <v>194</v>
       </c>
       <c r="C16" s="1">
@@ -8469,29 +9347,29 @@
         <f>C16*D14</f>
         <v>0.8835729338221292</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="30" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="30" t="s">
         <v>176</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="40">
         <f>D16/2</f>
         <v>0.4417864669110646</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="30" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="30" t="s">
         <v>205</v>
       </c>
       <c r="C20" s="1">
@@ -8503,7 +9381,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="30" t="s">
         <v>206</v>
       </c>
       <c r="C21" s="1">
@@ -8515,7 +9393,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="30" t="s">
         <v>175</v>
       </c>
       <c r="C22" s="1">
@@ -8523,7 +9401,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="30" t="s">
         <v>194</v>
       </c>
       <c r="C23" s="1">
@@ -8531,7 +9409,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="30" t="s">
         <v>207</v>
       </c>
       <c r="C24" s="1">
@@ -8539,17 +9417,17 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="30" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="30" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="30" t="s">
         <v>169</v>
       </c>
       <c r="C28" s="1">
@@ -8569,7 +9447,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="30" t="s">
         <v>170</v>
       </c>
       <c r="C29" s="1">
@@ -8591,7 +9469,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="30" t="s">
         <v>171</v>
       </c>
       <c r="C30" s="1">
@@ -8615,7 +9493,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="30" t="s">
         <v>172</v>
       </c>
       <c r="C31" s="1">
@@ -8639,7 +9517,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="30" t="s">
         <v>208</v>
       </c>
       <c r="C32" s="1">
@@ -8663,7 +9541,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="30" t="s">
         <v>209</v>
       </c>
       <c r="D33" s="1">
@@ -8684,7 +9562,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="30" t="s">
         <v>210</v>
       </c>
       <c r="D34" s="1">
@@ -8705,7 +9583,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="30" t="s">
         <v>211</v>
       </c>
       <c r="D35" s="1">
@@ -8726,7 +9604,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="30" t="s">
         <v>212</v>
       </c>
       <c r="D36" s="1">
@@ -8747,12 +9625,12 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="30" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="30" t="s">
         <v>214</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -8760,7 +9638,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="30" t="s">
         <v>215</v>
       </c>
       <c r="E39" s="1">
@@ -8769,7 +9647,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="30" t="s">
         <v>216</v>
       </c>
       <c r="E40" s="1">
@@ -8778,7 +9656,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="30" t="s">
         <v>217</v>
       </c>
       <c r="E41" s="1">
@@ -8787,7 +9665,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="30" t="s">
         <v>218</v>
       </c>
       <c r="E42" s="1">
@@ -8796,7 +9674,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="30" t="s">
         <v>219</v>
       </c>
       <c r="E43" s="1">
@@ -8805,12 +9683,12 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="30" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="30" t="s">
         <v>222</v>
       </c>
       <c r="C46" s="1">
@@ -8830,7 +9708,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="30" t="s">
         <v>223</v>
       </c>
       <c r="C47" s="1">
@@ -8853,7 +9731,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="30" t="s">
         <v>224</v>
       </c>
       <c r="C48" s="1">
@@ -8877,7 +9755,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="30" t="s">
         <v>172</v>
       </c>
       <c r="C49" s="1">
@@ -8901,7 +9779,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="30" t="s">
         <v>225</v>
       </c>
       <c r="C50" s="1">
@@ -8925,7 +9803,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="30" t="s">
         <v>226</v>
       </c>
       <c r="D51" s="1">
@@ -8946,7 +9824,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="30" t="s">
         <v>227</v>
       </c>
       <c r="D52" s="1">
@@ -8967,7 +9845,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="30" t="s">
         <v>228</v>
       </c>
       <c r="D53" s="1">
@@ -8988,7 +9866,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="30" t="s">
         <v>229</v>
       </c>
       <c r="D54" s="1">
@@ -9009,42 +9887,42 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="30" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="30" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="30" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="30" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="30" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="30" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="30" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="34" t="s">
+      <c r="A62" s="30" t="s">
         <v>237</v>
       </c>
     </row>
@@ -9057,8 +9935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9067,10 +9945,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="30" t="s">
         <v>277</v>
       </c>
     </row>
@@ -9101,8 +9979,8 @@
         <f>C2^2+C2*C3+C3^2</f>
         <v>0.68359375</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -9123,16 +10001,20 @@
       <c r="B5" s="1">
         <v>0.04</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="40">
         <f>D4*B5</f>
         <v>9.3061501131728903E-3</v>
       </c>
+      <c r="H5" s="1">
+        <f>0.1*0.2*0.28</f>
+        <v>5.6000000000000017E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="30" t="s">
         <v>277</v>
       </c>
     </row>
@@ -9183,13 +10065,13 @@
       <c r="B11" s="1">
         <v>0.04</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="40">
         <f>D10*B11</f>
         <v>1.3892960472215024</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="30" t="s">
         <v>279</v>
       </c>
     </row>
@@ -9204,6 +10086,7 @@
         <f>B14/2</f>
         <v>0.75</v>
       </c>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -9240,7 +10123,7 @@
       <c r="B17" s="1">
         <v>0.04</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="40">
         <f>D16*B17</f>
         <v>9.6211275016187411E-2</v>
       </c>
@@ -9288,7 +10171,7 @@
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="44">
+      <c r="B25" s="40">
         <f>0.000007*B24</f>
         <v>5.3474570265693452E-2</v>
       </c>
@@ -9314,10 +10197,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="41" t="s">
         <v>260</v>
       </c>
     </row>
@@ -9604,7 +10487,7 @@
       <c r="L9" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M9" s="35">
+      <c r="M9" s="31">
         <f>AVERAGE(M3,M5,M6)</f>
         <v>1.3771710530963608E-2</v>
       </c>
@@ -9704,10 +10587,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="41" t="s">
         <v>259</v>
       </c>
       <c r="F16" s="13"/>
@@ -9973,13 +10856,13 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="30" t="s">
         <v>279</v>
       </c>
     </row>
@@ -10028,7 +10911,7 @@
         <f>B27/2</f>
         <v>0.79800000000000004</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="31">
         <f>PI()*(C26+C27)*SQRT((C26-C27)^2+B28^2)</f>
         <v>2.0781234452196751</v>
       </c>
@@ -10042,7 +10925,7 @@
         <f>G27/2</f>
         <v>1.25</v>
       </c>
-      <c r="I27" s="35">
+      <c r="I27" s="31">
         <f>PI()*(H26+H27)*SQRT((H26-H27)^2+G28^2)</f>
         <v>5.6635866995694881</v>
       </c>
@@ -10086,7 +10969,7 @@
       <c r="B29" s="1">
         <v>0.38100000000000001</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="31">
         <f>2*PI()*C27*B29</f>
         <v>1.910327094424267</v>
       </c>
@@ -10159,7 +11042,7 @@
       <c r="B31" s="1">
         <v>67.7</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="31">
         <f>D29*D27*B30</f>
         <v>9.9247388074036227E-2</v>
       </c>
@@ -10239,7 +11122,7 @@
         <f>B34/2</f>
         <v>0.79800000000000004</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="31">
         <f>PI()*(C33+C34)*SQRT((C33-C34)^2+B35^2)</f>
         <v>2.0781234452196751</v>
       </c>
@@ -10289,7 +11172,7 @@
       <c r="B36" s="1">
         <v>0.73660000000000003</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="31">
         <f>2*PI()*C34*B36</f>
         <v>3.6932990492202498</v>
       </c>
@@ -10318,7 +11201,7 @@
       <c r="B38" s="1">
         <v>114.4</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="31">
         <f>D36*D34*B37</f>
         <v>0.19187828360980341</v>
       </c>

--- a/balance.xlsx
+++ b/balance.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="325">
   <si>
     <t>W/m2</t>
   </si>
@@ -91,6 +91,9 @@
     <t>dish</t>
   </si>
   <si>
+    <t>target</t>
+  </si>
+  <si>
     <t>wet</t>
   </si>
   <si>
@@ -169,9 +172,6 @@
     <t>minmus</t>
   </si>
   <si>
-    <t>duna</t>
-  </si>
-  <si>
     <t>jool</t>
   </si>
   <si>
@@ -799,6 +799,9 @@
     <t>omni</t>
   </si>
   <si>
+    <t>dish2</t>
+  </si>
+  <si>
     <t>deep</t>
   </si>
   <si>
@@ -853,6 +856,27 @@
     <t>medDishAnt</t>
   </si>
   <si>
+    <t>giga1</t>
+  </si>
+  <si>
+    <t>ori350</t>
+  </si>
+  <si>
+    <t>giga2</t>
+  </si>
+  <si>
+    <t>ori69</t>
+  </si>
+  <si>
+    <t>long2</t>
+  </si>
+  <si>
+    <t>fomal</t>
+  </si>
+  <si>
+    <t>libra</t>
+  </si>
+  <si>
     <t>L4</t>
   </si>
   <si>
@@ -886,12 +910,15 @@
     <t>DSN</t>
   </si>
   <si>
+    <t>vegaC</t>
+  </si>
+  <si>
+    <t>tantA</t>
+  </si>
+  <si>
     <t>commD</t>
   </si>
   <si>
-    <t>mega</t>
-  </si>
-  <si>
     <t>angle1</t>
   </si>
   <si>
@@ -923,6 +950,60 @@
   </si>
   <si>
     <t>&lt;--</t>
+  </si>
+  <si>
+    <t>fd</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>fo</t>
+  </si>
+  <si>
+    <t>ao</t>
+  </si>
+  <si>
+    <t>TDRS-L</t>
+  </si>
+  <si>
+    <t>mine</t>
+  </si>
+  <si>
+    <t>LKO station</t>
+  </si>
+  <si>
+    <t>LKO ship</t>
+  </si>
+  <si>
+    <t>Mun net</t>
+  </si>
+  <si>
+    <t>Minmus net</t>
+  </si>
+  <si>
+    <t>Molniya L4</t>
+  </si>
+  <si>
+    <t>long3</t>
+  </si>
+  <si>
+    <t>hga</t>
+  </si>
+  <si>
+    <t>tanta</t>
+  </si>
+  <si>
+    <t>commd</t>
+  </si>
+  <si>
+    <t>medish</t>
+  </si>
+  <si>
+    <t>vegaA</t>
+  </si>
+  <si>
+    <t>short2</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1140,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1203,6 +1284,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1664,7 +1748,7 @@
         <v>16</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O7" s="2">
         <v>1.78</v>
@@ -1753,7 +1837,7 @@
         <v>11</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O11" s="2">
         <v>0.14000000000000001</v>
@@ -1902,7 +1986,7 @@
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.25">
@@ -2336,7 +2420,7 @@
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="L1" s="37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M1" s="37"/>
       <c r="N1" s="37"/>
@@ -2345,7 +2429,7 @@
       <c r="Q1" s="37"/>
       <c r="R1" s="37"/>
       <c r="T1" s="37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U1" s="37"/>
       <c r="V1" s="37"/>
@@ -2354,7 +2438,7 @@
       <c r="Y1" s="37"/>
       <c r="Z1" s="37"/>
       <c r="AB1" s="37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC1" s="37"/>
       <c r="AD1" s="37"/>
@@ -2363,7 +2447,7 @@
       <c r="AG1" s="37"/>
       <c r="AH1" s="37"/>
       <c r="AJ1" s="37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AK1" s="37"/>
       <c r="AL1" s="37"/>
@@ -2374,108 +2458,108 @@
     </row>
     <row r="2" spans="1:47" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F2" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="J2" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="U2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="13" t="s">
+      <c r="V2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="X2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="AE2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" s="13" t="s">
+      <c r="AH2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="AK2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" s="13" t="s">
+      <c r="AL2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z2" s="13" t="s">
+      <c r="AN2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO2" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="AP2" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2">
         <v>1295</v>
@@ -2595,7 +2679,7 @@
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2">
         <v>3945</v>
@@ -2710,13 +2794,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AS4" s="30">
         <v>1.5</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU4" s="4">
         <f>AS6/AS4/9.81</f>
@@ -2725,7 +2809,7 @@
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2">
         <v>78070</v>
@@ -2836,7 +2920,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS5" s="1">
         <f>AS3+AS4</f>
@@ -2968,7 +3052,7 @@
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="AR7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS7" s="4">
         <f>AS6/AS5/9.81</f>
@@ -2983,7 +3067,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>110</v>
@@ -3019,13 +3103,13 @@
         <v>-</v>
       </c>
       <c r="AR10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AS10" s="30">
         <v>1.5</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU10" s="4">
         <f>AS12/AS10/9.81</f>
@@ -3050,7 +3134,7 @@
         <v>-</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS11" s="1">
         <f>AS9+AS10</f>
@@ -3103,7 +3187,7 @@
         <v>Hydraz-</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS13" s="4">
         <f>AS12/AS11/9.81</f>
@@ -4788,7 +4872,7 @@
   <dimension ref="A1:AA61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -4797,15 +4881,17 @@
     <col min="2" max="2" width="10.42578125" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" style="40" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="5.5703125" style="40" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.42578125" style="40" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" style="40" customWidth="1"/>
     <col min="14" max="15" width="6.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" style="40" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="40" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="5.28515625" style="40" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.42578125" style="40" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.140625" style="40" bestFit="1" customWidth="1"/>
@@ -4859,40 +4945,40 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>65</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="F1" s="41" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="K1" s="41" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="L1" s="41" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="M1" s="41"/>
       <c r="N1" s="41" t="s">
@@ -4914,13 +5000,13 @@
         <v>18</v>
       </c>
       <c r="T1" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U1" s="41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V1" s="41" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="X1" s="40">
         <v>1.06</v>
@@ -4932,7 +5018,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>210</v>
@@ -4941,7 +5027,7 @@
         <v>93000</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E2" s="40">
         <v>0.01</v>
@@ -4972,25 +5058,25 @@
         <v>61</v>
       </c>
       <c r="O2" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" s="47" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="Q2" s="47" t="s">
         <v>62</v>
       </c>
       <c r="R2" s="40">
-        <f>INDEX($O$12:$O$29,MATCH(P2,$N$12:$N$29,0))</f>
+        <f>INDEX($O$12:$O$33,MATCH(P2,$N$12:$N$33,0))</f>
         <v>100000000000</v>
       </c>
       <c r="S2" s="40">
-        <f>INDEX($O$12:$O$29,MATCH(Q2,$N$12:$N$29,0))</f>
-        <v>1</v>
-      </c>
-      <c r="T2" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(Q2,$N$12:$N$33,0))</f>
+        <v>3.5</v>
+      </c>
+      <c r="T2" s="45">
         <f>MIN(R2,S2)+SQRT(R2*S2)</f>
-        <v>316228.76601683791</v>
+        <v>591611.47830996162</v>
       </c>
       <c r="U2" s="44">
         <f>2.86875-0.6+1.2</f>
@@ -4998,15 +5084,15 @@
       </c>
       <c r="V2" s="44">
         <f>T2-U2</f>
-        <v>316225.29726683791</v>
+        <v>591608.00955996162</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C3" s="40">
         <v>32000</v>
@@ -5043,27 +5129,27 @@
         <v>1.1170107213897913</v>
       </c>
       <c r="N3" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O3" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P3" s="47" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q3" s="47" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="R3" s="40">
-        <f t="shared" ref="R3:R10" si="2">INDEX($O$12:$O$29,MATCH(P3,$N$12:$N$29,0))</f>
+        <f>INDEX($O$12:$O$33,MATCH(P3,$N$12:$N$33,0))</f>
         <v>3.5</v>
       </c>
       <c r="S3" s="40">
-        <f t="shared" ref="S3:S10" si="3">INDEX($O$12:$O$29,MATCH(Q3,$N$12:$N$29,0))</f>
+        <f>INDEX($O$12:$O$33,MATCH(Q3,$N$12:$N$33,0))</f>
         <v>3.5</v>
       </c>
       <c r="T3" s="40">
-        <f t="shared" ref="T3:T10" si="4">MIN(R3,S3)+SQRT(R3*S3)</f>
+        <f t="shared" ref="T3:T10" si="2">MIN(R3,S3)+SQRT(R3*S3)</f>
         <v>7</v>
       </c>
       <c r="U3" s="44">
@@ -5071,42 +5157,42 @@
         <v>6.9375</v>
       </c>
       <c r="V3" s="44">
-        <f t="shared" ref="V3:V10" si="5">T3-U3</f>
+        <f t="shared" ref="V3:V10" si="3">T3-U3</f>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C4" s="40">
         <v>15000</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="E4" s="40">
         <v>0.4</v>
       </c>
       <c r="F4" s="40">
-        <f t="shared" ref="F4:F6" si="6">E4/100</f>
+        <f t="shared" ref="F4:F6" si="4">E4/100</f>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G4" s="45">
         <v>1200</v>
       </c>
       <c r="H4" s="45">
-        <f t="shared" ref="H4" si="7">G4/8</f>
+        <f t="shared" ref="H4" si="5">G4/8</f>
         <v>150</v>
       </c>
       <c r="I4" s="45">
         <v>900</v>
       </c>
       <c r="J4" s="45">
-        <f t="shared" ref="J4:J6" si="8">I4/1.6</f>
+        <f t="shared" ref="J4:J6" si="6">I4/1.6</f>
         <v>562.5</v>
       </c>
       <c r="K4" s="44">
@@ -5118,27 +5204,27 @@
         <v>1.0471975516219239</v>
       </c>
       <c r="N4" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O4" s="40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P4" s="47" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q4" s="47" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="R4" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(P4,$N$12:$N$33,0))</f>
+        <v>45</v>
+      </c>
+      <c r="S4" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(Q4,$N$12:$N$33,0))</f>
+        <v>8</v>
+      </c>
+      <c r="T4" s="44">
         <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="S4" s="40">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="T4" s="44">
-        <f t="shared" si="4"/>
         <v>26.973665961010276</v>
       </c>
       <c r="U4" s="40">
@@ -5146,28 +5232,28 @@
         <v>12.700000000000001</v>
       </c>
       <c r="V4" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>14.273665961010275</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="40" t="s">
         <v>264</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>263</v>
       </c>
       <c r="C5" s="40">
         <v>8500</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E5" s="40">
         <v>1</v>
       </c>
       <c r="F5" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
       <c r="G5" s="45">
@@ -5180,7 +5266,7 @@
         <v>600</v>
       </c>
       <c r="J5" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>375</v>
       </c>
       <c r="K5" s="44">
@@ -5192,27 +5278,27 @@
         <v>1.4835298679610889</v>
       </c>
       <c r="N5" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O5" s="40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P5" s="47" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q5" s="47" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R5" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(P5,$N$12:$N$33,0))</f>
+        <v>45</v>
+      </c>
+      <c r="S5" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(Q5,$N$12:$N$33,0))</f>
+        <v>20</v>
+      </c>
+      <c r="T5" s="40">
         <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="S5" s="40">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="T5" s="40">
-        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="U5" s="40">
@@ -5220,28 +5306,28 @@
         <v>47.6</v>
       </c>
       <c r="V5" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.3999999999999986</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>266</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>265</v>
       </c>
       <c r="C6" s="40">
         <v>45</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="40">
         <v>10</v>
       </c>
       <c r="F6" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="G6" s="45">
@@ -5254,7 +5340,7 @@
         <v>400</v>
       </c>
       <c r="J6" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="K6" s="44">
@@ -5266,35 +5352,35 @@
         <v>7.853983627691441E-2</v>
       </c>
       <c r="N6" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O6" s="40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P6" s="47" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="Q6" s="47" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="R6" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(P6,$N$12:$N$33,0))</f>
+        <v>8000</v>
+      </c>
+      <c r="S6" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(Q6,$N$12:$N$33,0))</f>
+        <v>3.5</v>
+      </c>
+      <c r="T6" s="45">
         <f t="shared" si="2"/>
-        <v>8500</v>
-      </c>
-      <c r="S6" s="40">
-        <f t="shared" si="3"/>
-        <v>3.5</v>
-      </c>
-      <c r="T6" s="44">
-        <f t="shared" si="4"/>
-        <v>175.98188310660339</v>
+        <v>170.83200530681512</v>
       </c>
       <c r="U6" s="40">
         <v>85</v>
       </c>
       <c r="V6" s="44">
-        <f t="shared" si="5"/>
-        <v>90.981883106603391</v>
+        <f t="shared" si="3"/>
+        <v>85.83200530681512</v>
       </c>
       <c r="AA6" s="40">
         <f>AVERAGE(X7,Y8)</f>
@@ -5303,35 +5389,35 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="N7" s="40" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O7" s="40" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="P7" s="47" t="s">
-        <v>46</v>
+        <v>278</v>
       </c>
       <c r="Q7" s="47" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="R7" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(P7,$N$12:$N$33,0))</f>
+        <v>15000</v>
+      </c>
+      <c r="S7" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(Q7,$N$12:$N$33,0))</f>
+        <v>8000</v>
+      </c>
+      <c r="T7" s="45">
         <f t="shared" si="2"/>
-        <v>15000</v>
-      </c>
-      <c r="S7" s="40">
-        <f t="shared" si="3"/>
-        <v>8500</v>
-      </c>
-      <c r="T7" s="40">
-        <f t="shared" si="4"/>
-        <v>19791.589790636215</v>
+        <v>18954.451150103323</v>
       </c>
       <c r="U7" s="40">
         <v>19000</v>
       </c>
       <c r="V7" s="44">
-        <f t="shared" si="5"/>
-        <v>791.58979063621518</v>
+        <f t="shared" si="3"/>
+        <v>-45.548849896676984</v>
       </c>
       <c r="X7" s="40">
         <f>U7*X$1</f>
@@ -5342,7 +5428,7 @@
         <v>7116.1333333333332</v>
       </c>
       <c r="Z7" s="40">
-        <f t="shared" ref="Z7:Z10" si="9">MIN(X7,Y7)+SQRT(X7*Y7)</f>
+        <f t="shared" ref="Z7:Z10" si="7">MIN(X7,Y7)+SQRT(X7*Y7)</f>
         <v>19087.721587751934</v>
       </c>
       <c r="AA7" s="40">
@@ -5358,77 +5444,77 @@
         <v>255</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I8" s="41" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="L8" s="41" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="M8" s="41"/>
       <c r="N8" s="40" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="O8" s="40" t="s">
         <v>63</v>
       </c>
       <c r="P8" s="47" t="s">
-        <v>47</v>
+        <v>276</v>
       </c>
       <c r="Q8" s="47" t="s">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c r="R8" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(P8,$N$12:$N$33,0))</f>
+        <v>32000</v>
+      </c>
+      <c r="S8" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(Q8,$N$12:$N$33,0))</f>
+        <v>15000</v>
+      </c>
+      <c r="T8" s="45">
         <f t="shared" si="2"/>
-        <v>32000</v>
-      </c>
-      <c r="S8" s="40">
-        <f t="shared" si="3"/>
-        <v>15000</v>
-      </c>
-      <c r="T8" s="45">
-        <f t="shared" si="4"/>
         <v>36908.902300206646</v>
       </c>
       <c r="U8" s="40">
         <v>36000</v>
       </c>
       <c r="V8" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>908.90230020664603</v>
       </c>
       <c r="X8" s="40">
-        <f t="shared" ref="X8:X10" si="10">U8*X$1</f>
+        <f t="shared" ref="X8:X10" si="8">U8*X$1</f>
         <v>38160</v>
       </c>
       <c r="Y8" s="40">
-        <f t="shared" ref="Y8:Y10" si="11">X8*Y$1</f>
+        <f t="shared" ref="Y8:Y10" si="9">X8*Y$1</f>
         <v>13483.2</v>
       </c>
       <c r="Z8" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>36166.209324161551</v>
       </c>
       <c r="AA8" s="40">
@@ -5438,7 +5524,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B9" s="40" t="s">
         <v>210</v>
@@ -5447,7 +5533,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="40">
         <v>20</v>
@@ -5468,59 +5554,59 @@
         <v>210</v>
       </c>
       <c r="K9" s="44">
-        <f t="shared" ref="K9:K11" si="12">2*C9*TAN(RADIANS(E9/2))</f>
+        <f t="shared" ref="K9:K11" si="10">2*C9*TAN(RADIANS(E9/2))</f>
         <v>7.053079228338599</v>
       </c>
       <c r="L9" s="44" t="s">
         <v>210</v>
       </c>
       <c r="N9" s="40" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="O9" s="40" t="s">
         <v>64</v>
       </c>
       <c r="P9" s="47" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Q9" s="47" t="s">
-        <v>47</v>
+        <v>277</v>
       </c>
       <c r="R9" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(P9,$N$12:$N$33,0))</f>
+        <v>93000</v>
+      </c>
+      <c r="S9" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(Q9,$N$12:$N$33,0))</f>
+        <v>32000</v>
+      </c>
+      <c r="T9" s="45">
         <f t="shared" si="2"/>
-        <v>93000</v>
-      </c>
-      <c r="S9" s="40">
-        <f t="shared" si="3"/>
-        <v>32000</v>
-      </c>
-      <c r="T9" s="45">
-        <f t="shared" si="4"/>
         <v>86552.726787943422</v>
       </c>
       <c r="U9" s="40">
         <v>86000</v>
       </c>
       <c r="V9" s="44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>552.7267879434221</v>
       </c>
       <c r="X9" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>91160</v>
       </c>
       <c r="Y9" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>32209.866666666665</v>
       </c>
       <c r="Z9" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>86397.05560771926</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B10" s="40" t="s">
         <v>210</v>
@@ -5529,7 +5615,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="40">
         <v>50</v>
@@ -5550,34 +5636,34 @@
         <v>210</v>
       </c>
       <c r="K10" s="44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>7.4609225304799773</v>
       </c>
       <c r="L10" s="44" t="s">
         <v>210</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P10" s="47" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="47" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="R10" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(P10,$N$12:$N$33,0))</f>
+        <v>93000</v>
+      </c>
+      <c r="S10" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(Q10,$N$12:$N$33,0))</f>
+        <v>93000</v>
+      </c>
+      <c r="T10" s="40">
         <f t="shared" si="2"/>
-        <v>93000</v>
-      </c>
-      <c r="S10" s="40">
-        <f t="shared" si="3"/>
-        <v>93000</v>
-      </c>
-      <c r="T10" s="40">
-        <f t="shared" si="4"/>
         <v>186000</v>
       </c>
       <c r="U10" s="40">
@@ -5585,25 +5671,25 @@
         <v>186000</v>
       </c>
       <c r="V10" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X10" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>197160</v>
       </c>
       <c r="Y10" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>69663.199999999997</v>
       </c>
       <c r="Z10" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>186858.74817483471</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B11" s="40" t="s">
         <v>62</v>
@@ -5612,7 +5698,7 @@
         <v>3.5</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="40">
         <v>90</v>
@@ -5631,11 +5717,11 @@
         <v>125</v>
       </c>
       <c r="J11" s="45">
-        <f t="shared" ref="J11" si="13">I11/1.6</f>
+        <f t="shared" ref="J11" si="11">I11/1.6</f>
         <v>78.125</v>
       </c>
       <c r="K11" s="44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6.9999999999999991</v>
       </c>
       <c r="L11" s="44" t="s">
@@ -5645,71 +5731,87 @@
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="K12" s="44"/>
       <c r="N12" s="42" t="s">
-        <v>62</v>
+        <v>273</v>
       </c>
       <c r="O12" s="42">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="45">
-        <f t="shared" ref="Q12:Q19" si="14">O12^Q$22*R12/Q$23</f>
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Q12" s="40" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="L13" s="41" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="M13" s="41"/>
       <c r="N13" s="42" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="O13" s="42">
-        <v>3.5</v>
-      </c>
-      <c r="Q13" s="45">
-        <f t="shared" si="14"/>
-        <v>9.1779396462018728E-2</v>
-      </c>
-      <c r="R13" s="40">
-        <v>90</v>
+        <v>0.25</v>
+      </c>
+      <c r="Q13" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="S13" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="U13" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="V13" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="W13" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="X13" s="41" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>210</v>
@@ -5738,25 +5840,47 @@
       <c r="K14" s="44"/>
       <c r="L14" s="44"/>
       <c r="N14" s="42" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="O14" s="42">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="45">
-        <f t="shared" si="14"/>
-        <v>0.26638917793964623</v>
-      </c>
-      <c r="R14" s="40">
-        <v>50</v>
+        <v>0.25</v>
+      </c>
+      <c r="Q14" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="S14" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="T14" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(R14,$N$12:$N$33,0))</f>
+        <v>3.5</v>
+      </c>
+      <c r="U14" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(S14,$N$12:$N$33,0))</f>
+        <v>100000000000</v>
+      </c>
+      <c r="V14" s="45">
+        <f t="shared" ref="V14:V19" si="12">MIN(T14,U14)+SQRT(T14*U14)</f>
+        <v>591611.47830996162</v>
+      </c>
+      <c r="W14" s="44">
+        <f>2.86875-0.6+1.2</f>
+        <v>3.46875</v>
+      </c>
+      <c r="X14" s="45">
+        <f t="shared" ref="X14:X19" si="13">V14-W14</f>
+        <v>591608.00955996162</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="C15" s="46">
         <v>0.25</v>
@@ -5771,30 +5895,51 @@
         <v>25</v>
       </c>
       <c r="H15" s="40">
-        <f t="shared" ref="H15:H16" si="15">G15*10</f>
+        <f t="shared" ref="H15:H16" si="14">G15*10</f>
         <v>250</v>
       </c>
       <c r="I15" s="45">
         <v>50</v>
       </c>
       <c r="J15" s="45">
-        <f t="shared" ref="J15:J16" si="16">I15/1.6</f>
+        <f t="shared" ref="J15:J16" si="15">I15/1.6</f>
         <v>31.25</v>
       </c>
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
       <c r="N15" s="42" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="O15" s="42">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="45">
-        <f t="shared" si="14"/>
-        <v>0.66597294484911551</v>
-      </c>
-      <c r="R15" s="40">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="R15" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="S15" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="T15" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(R15,$N$12:$N$33,0))</f>
+        <v>3.5</v>
+      </c>
+      <c r="U15" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(S15,$N$12:$N$33,0))</f>
+        <v>45</v>
+      </c>
+      <c r="V15" s="45">
+        <f t="shared" si="12"/>
+        <v>16.049900398011133</v>
+      </c>
+      <c r="W15" s="44">
+        <v>3.8</v>
+      </c>
+      <c r="X15" s="45">
+        <f t="shared" si="13"/>
+        <v>12.249900398011132</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
@@ -5802,7 +5947,7 @@
         <v>210</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C16" s="46">
         <v>7.4999999999999997E-2</v>
@@ -5817,14 +5962,14 @@
         <v>10</v>
       </c>
       <c r="H16" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="I16" s="45">
         <v>35</v>
       </c>
       <c r="J16" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>21.875</v>
       </c>
       <c r="K16" s="40" t="s">
@@ -5832,40 +5977,83 @@
       </c>
       <c r="L16" s="44"/>
       <c r="N16" s="42" t="s">
-        <v>266</v>
+        <v>323</v>
       </c>
       <c r="O16" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="R16" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="S16" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="T16" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(R16,$N$12:$N$33,0))</f>
+        <v>8</v>
+      </c>
+      <c r="U16" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(S16,$N$12:$N$33,0))</f>
+        <v>0.25</v>
+      </c>
+      <c r="V16" s="45">
+        <f t="shared" si="12"/>
+        <v>1.6642135623730951</v>
+      </c>
+      <c r="W16" s="44">
+        <v>3.8</v>
+      </c>
+      <c r="X16" s="45">
+        <f t="shared" si="13"/>
+        <v>-2.1357864376269049</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="N17" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="O17" s="42">
+        <v>3.5</v>
+      </c>
+      <c r="Q17" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="R17" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="S17" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="T17" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(R17,$N$12:$N$33,0))</f>
         <v>45</v>
       </c>
-      <c r="Q16" s="45">
-        <f t="shared" si="14"/>
-        <v>1.6857440166493236</v>
-      </c>
-      <c r="R16" s="40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="N17" s="42" t="s">
-        <v>285</v>
-      </c>
-      <c r="O17" s="42">
-        <v>8500</v>
-      </c>
-      <c r="Q17" s="45">
-        <f t="shared" si="14"/>
-        <v>6014.568158168574</v>
-      </c>
-      <c r="R17" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="U17" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(S17,$N$12:$N$33,0))</f>
+        <v>3.5</v>
+      </c>
+      <c r="V17" s="45">
+        <f t="shared" si="12"/>
+        <v>16.049900398011133</v>
+      </c>
+      <c r="W17" s="40">
+        <f>12+0.3-0.6+1</f>
+        <v>12.700000000000001</v>
+      </c>
+      <c r="X17" s="45">
+        <f t="shared" si="13"/>
+        <v>3.3499003980111315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="45">
@@ -5876,33 +6064,57 @@
         <v>3.0067787272855528E-3</v>
       </c>
       <c r="H18" s="46">
-        <f t="shared" ref="H18:H36" si="17">H19-MAX(0.001,H19*I$37)</f>
+        <f t="shared" ref="H18:H36" si="16">H19-MAX(0.001,H19*I$37)</f>
         <v>2.647685136156706E-3</v>
       </c>
+      <c r="I18" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="J18" s="46">
+        <v>1E-3</v>
+      </c>
       <c r="N18" s="42" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="O18" s="42">
-        <v>15000</v>
-      </c>
-      <c r="P18" s="40">
-        <f>O18/O17</f>
-        <v>1.7647058823529411</v>
-      </c>
-      <c r="Q18" s="45">
-        <f t="shared" si="14"/>
-        <v>7492.1956295525497</v>
-      </c>
-      <c r="R18" s="40">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+        <v>3.5</v>
+      </c>
+      <c r="Q18" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="R18" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="S18" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="T18" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(R18,$N$12:$N$33,0))</f>
+        <v>8000</v>
+      </c>
+      <c r="U18" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(S18,$N$12:$N$33,0))</f>
+        <v>3.5</v>
+      </c>
+      <c r="V18" s="45">
+        <f t="shared" si="12"/>
+        <v>170.83200530681512</v>
+      </c>
+      <c r="W18" s="40">
+        <f>47+0.2-0.6+1</f>
+        <v>47.6</v>
+      </c>
+      <c r="X18" s="45">
+        <f t="shared" si="13"/>
+        <v>123.23200530681513</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C19" s="45"/>
       <c r="D19" s="45">
@@ -5913,33 +6125,57 @@
         <v>4.0090383030474035E-3</v>
       </c>
       <c r="H19" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>3.647685136156706E-3</v>
       </c>
+      <c r="I19" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="J19" s="46">
+        <f>J18+0.001</f>
+        <v>2E-3</v>
+      </c>
       <c r="N19" s="42" t="s">
-        <v>47</v>
+        <v>269</v>
       </c>
       <c r="O19" s="42">
-        <v>32000</v>
-      </c>
-      <c r="P19" s="40">
-        <f>O19/O18</f>
-        <v>2.1333333333333333</v>
-      </c>
-      <c r="Q19" s="45">
-        <f t="shared" si="14"/>
-        <v>17048.907388137355</v>
-      </c>
-      <c r="R19" s="40">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="R19" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="S19" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="T19" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(R19,$N$12:$N$33,0))</f>
+        <v>45</v>
+      </c>
+      <c r="U19" s="40">
+        <f>INDEX($O$12:$O$33,MATCH(S19,$N$12:$N$33,0))</f>
+        <v>45</v>
+      </c>
+      <c r="V19" s="45">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="W19" s="40">
+        <v>85</v>
+      </c>
+      <c r="X19" s="45">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C20" s="45"/>
       <c r="D20" s="45">
@@ -5950,34 +6186,30 @@
         <v>5.3453844040632047E-3</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="G20" s="40">
         <v>0.25</v>
       </c>
       <c r="H20" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>4.6476851361567061E-3</v>
       </c>
+      <c r="I20" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="J20" s="46">
+        <f t="shared" ref="J20:J36" si="17">J19+0.001</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
       <c r="N20" s="42" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="O20" s="42">
-        <v>93000</v>
-      </c>
-      <c r="P20" s="40">
-        <f>O20/O19</f>
-        <v>2.90625</v>
-      </c>
-      <c r="Q20" s="40">
-        <f>O20^Q$22*R20/Q$23</f>
-        <v>7200</v>
-      </c>
-      <c r="R20" s="40">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C21" s="45"/>
       <c r="D21" s="45">
         <v>1</v>
@@ -5987,17 +6219,24 @@
         <v>7.1271792054176056E-3</v>
       </c>
       <c r="H21" s="48">
+        <f t="shared" si="16"/>
+        <v>5.6476851361567061E-3</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="J21" s="46">
         <f t="shared" si="17"/>
-        <v>5.6476851361567061E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="N21" s="42" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="O21" s="42">
-        <v>100000000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C22" s="45"/>
       <c r="D22" s="45">
         <f t="shared" ref="D22:D61" si="18">1+D18</f>
@@ -6008,16 +6247,21 @@
         <v>9.5029056072234736E-3</v>
       </c>
       <c r="H22" s="46">
+        <f t="shared" si="16"/>
+        <v>6.6476851361567061E-3</v>
+      </c>
+      <c r="J22" s="46">
         <f t="shared" si="17"/>
-        <v>6.6476851361567061E-3</v>
-      </c>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="Q22" s="40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N22" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="O22" s="42">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D23" s="45">
         <f t="shared" si="18"/>
         <v>2</v>
@@ -6027,17 +6271,21 @@
         <v>1.2670540809631299E-2</v>
       </c>
       <c r="H23" s="46">
+        <f t="shared" si="16"/>
+        <v>7.6476851361567061E-3</v>
+      </c>
+      <c r="J23" s="46">
         <f t="shared" si="17"/>
-        <v>7.6476851361567061E-3</v>
-      </c>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="Q23" s="40">
-        <f>O20^Q22*R20/7200</f>
-        <v>12012.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N23" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="O23" s="42">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D24" s="45">
         <f t="shared" si="18"/>
         <v>2</v>
@@ -6047,13 +6295,21 @@
         <v>1.6894054412841732E-2</v>
       </c>
       <c r="H24" s="46">
+        <f t="shared" si="16"/>
+        <v>8.6476851361567061E-3</v>
+      </c>
+      <c r="J24" s="46">
         <f t="shared" si="17"/>
-        <v>8.6476851361567061E-3</v>
-      </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-    </row>
-    <row r="25" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N24" s="42" t="s">
+        <v>295</v>
+      </c>
+      <c r="O24" s="42">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D25" s="45">
         <f t="shared" si="18"/>
         <v>2</v>
@@ -6063,13 +6319,21 @@
         <v>2.2525405883788978E-2</v>
       </c>
       <c r="H25" s="48">
+        <f t="shared" si="16"/>
+        <v>9.647685136156707E-3</v>
+      </c>
+      <c r="J25" s="46">
         <f t="shared" si="17"/>
-        <v>9.647685136156707E-3</v>
-      </c>
-      <c r="N25" s="42"/>
-      <c r="O25" s="42"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N25" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="O25" s="42">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D26" s="45">
         <f t="shared" si="18"/>
         <v>3</v>
@@ -6079,13 +6343,21 @@
         <v>3.0033874511718635E-2</v>
       </c>
       <c r="H26" s="46">
+        <f t="shared" si="16"/>
+        <v>1.0647685136156708E-2</v>
+      </c>
+      <c r="J26" s="46">
         <f t="shared" si="17"/>
-        <v>1.0647685136156708E-2</v>
-      </c>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="N26" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="O26" s="42">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D27" s="45">
         <f t="shared" si="18"/>
         <v>3</v>
@@ -6095,13 +6367,21 @@
         <v>4.0045166015624849E-2</v>
       </c>
       <c r="H27" s="46">
+        <f t="shared" si="16"/>
+        <v>1.1647685136156707E-2</v>
+      </c>
+      <c r="J27" s="46">
         <f t="shared" si="17"/>
-        <v>1.1647685136156707E-2</v>
-      </c>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="N27" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="O27" s="42">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D28" s="45">
         <f t="shared" si="18"/>
         <v>3</v>
@@ -6111,13 +6391,21 @@
         <v>5.3393554687499796E-2</v>
       </c>
       <c r="H28" s="46">
+        <f t="shared" si="16"/>
+        <v>1.2660527321909464E-2</v>
+      </c>
+      <c r="J28" s="46">
         <f t="shared" si="17"/>
-        <v>1.2660527321909464E-2</v>
-      </c>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-    </row>
-    <row r="29" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1.1000000000000003E-2</v>
+      </c>
+      <c r="N28" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="O28" s="42">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D29" s="45">
         <f t="shared" si="18"/>
         <v>3</v>
@@ -6127,13 +6415,21 @@
         <v>7.1191406249999728E-2</v>
       </c>
       <c r="H29" s="48">
+        <f t="shared" si="16"/>
+        <v>1.3761442741205939E-2</v>
+      </c>
+      <c r="J29" s="46">
         <f t="shared" si="17"/>
-        <v>1.3761442741205939E-2</v>
-      </c>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1.2000000000000004E-2</v>
+      </c>
+      <c r="N29" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="O29" s="42">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D30" s="45">
         <f t="shared" si="18"/>
         <v>4</v>
@@ -6143,11 +6439,21 @@
         <v>9.4921874999999642E-2</v>
       </c>
       <c r="H30" s="46">
+        <f t="shared" si="16"/>
+        <v>1.4958089936093412E-2</v>
+      </c>
+      <c r="J30" s="46">
         <f t="shared" si="17"/>
-        <v>1.4958089936093412E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1.3000000000000005E-2</v>
+      </c>
+      <c r="N30" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="O30" s="42">
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D31" s="45">
         <f t="shared" si="18"/>
         <v>4</v>
@@ -6157,11 +6463,21 @@
         <v>0.12656249999999952</v>
       </c>
       <c r="H31" s="46">
+        <f t="shared" si="16"/>
+        <v>1.6258793408797188E-2</v>
+      </c>
+      <c r="J31" s="46">
         <f t="shared" si="17"/>
-        <v>1.6258793408797188E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1.4000000000000005E-2</v>
+      </c>
+      <c r="N31" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="O31" s="42">
+        <v>100000000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D32" s="45">
         <f t="shared" si="18"/>
         <v>4</v>
@@ -6171,15 +6487,15 @@
         <v>0.16874999999999934</v>
       </c>
       <c r="H32" s="46">
+        <f t="shared" si="16"/>
+        <v>1.7672601531301291E-2</v>
+      </c>
+      <c r="J32" s="46">
         <f t="shared" si="17"/>
-        <v>1.7672601531301291E-2</v>
-      </c>
-      <c r="N32" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="O32" s="41" t="s">
-        <v>290</v>
-      </c>
+        <v>1.5000000000000006E-2</v>
+      </c>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
     </row>
     <row r="33" spans="4:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D33" s="45">
@@ -6191,22 +6507,15 @@
         <v>0.22499999999999912</v>
       </c>
       <c r="H33" s="48">
+        <f t="shared" si="16"/>
+        <v>1.9209349490544883E-2</v>
+      </c>
+      <c r="J33" s="46">
         <f t="shared" si="17"/>
-        <v>1.9209349490544883E-2</v>
-      </c>
-      <c r="N33" s="40">
-        <v>3600</v>
-      </c>
-      <c r="O33" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="P33" s="43">
-        <f>N33/3600</f>
-        <v>1</v>
-      </c>
-      <c r="Q33" s="43" t="s">
-        <v>210</v>
-      </c>
+        <v>1.6000000000000007E-2</v>
+      </c>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D34" s="45">
@@ -6218,22 +6527,12 @@
         <v>0.29999999999999882</v>
       </c>
       <c r="H34" s="46">
+        <f t="shared" si="16"/>
+        <v>2.0879727707114003E-2</v>
+      </c>
+      <c r="J34" s="46">
         <f t="shared" si="17"/>
-        <v>2.0879727707114003E-2</v>
-      </c>
-      <c r="N34" s="45">
-        <v>2100</v>
-      </c>
-      <c r="O34" s="45">
-        <v>275</v>
-      </c>
-      <c r="P34" s="43">
-        <f t="shared" ref="P34:Q37" si="19">N34/3600</f>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="Q34" s="43">
-        <f t="shared" si="19"/>
-        <v>7.6388888888888895E-2</v>
+        <v>1.7000000000000008E-2</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.2">
@@ -6246,22 +6545,12 @@
         <v>0.39999999999999847</v>
       </c>
       <c r="H35" s="46">
+        <f t="shared" si="16"/>
+        <v>2.2695356203384788E-2</v>
+      </c>
+      <c r="J35" s="46">
         <f t="shared" si="17"/>
-        <v>2.2695356203384788E-2</v>
-      </c>
-      <c r="N35" s="45">
-        <v>1200</v>
-      </c>
-      <c r="O35" s="45">
-        <v>150</v>
-      </c>
-      <c r="P35" s="43">
-        <f t="shared" si="19"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Q35" s="43">
-        <f t="shared" si="19"/>
-        <v>4.1666666666666664E-2</v>
+        <v>1.8000000000000009E-2</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.2">
@@ -6274,22 +6563,18 @@
         <v>0.49999999999999845</v>
       </c>
       <c r="H36" s="46">
+        <f t="shared" si="16"/>
+        <v>2.4668865438461727E-2</v>
+      </c>
+      <c r="J36" s="46">
         <f t="shared" si="17"/>
-        <v>2.4668865438461727E-2</v>
-      </c>
-      <c r="N36" s="45">
-        <v>675</v>
-      </c>
-      <c r="O36" s="45">
-        <v>85</v>
-      </c>
-      <c r="P36" s="43">
-        <f t="shared" si="19"/>
-        <v>0.1875</v>
-      </c>
-      <c r="Q36" s="43">
-        <f t="shared" si="19"/>
-        <v>2.361111111111111E-2</v>
+        <v>1.900000000000001E-2</v>
+      </c>
+      <c r="N36" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="O36" s="41" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="4:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -6308,19 +6593,22 @@
       <c r="I37" s="40">
         <v>0.08</v>
       </c>
-      <c r="N37" s="45">
-        <v>375</v>
-      </c>
-      <c r="O37" s="45">
-        <v>50</v>
+      <c r="J37" s="46">
+        <f>J36+0.001</f>
+        <v>2.0000000000000011E-2</v>
+      </c>
+      <c r="N37" s="40">
+        <v>3600</v>
+      </c>
+      <c r="O37" s="40" t="s">
+        <v>210</v>
       </c>
       <c r="P37" s="43">
-        <f t="shared" si="19"/>
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="Q37" s="43">
-        <f t="shared" si="19"/>
-        <v>1.3888888888888888E-2</v>
+        <f>N37/3600</f>
+        <v>1</v>
+      </c>
+      <c r="Q37" s="43" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.2">
@@ -6343,8 +6631,25 @@
         <f>F39*0.95</f>
         <v>2.9145634969827184E-2</v>
       </c>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46">
+        <f>J37+0.001</f>
+        <v>2.1000000000000012E-2</v>
+      </c>
+      <c r="N38" s="45">
+        <v>2100</v>
+      </c>
+      <c r="O38" s="45">
+        <v>275</v>
+      </c>
+      <c r="P38" s="43">
+        <f t="shared" ref="P38:Q41" si="19">N38/3600</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="Q38" s="43">
+        <f t="shared" si="19"/>
+        <v>7.6388888888888895E-2</v>
+      </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D39" s="45">
@@ -6363,14 +6668,25 @@
         <f>F39</f>
         <v>3.0679615757712827E-2</v>
       </c>
-      <c r="N39" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="O39" s="41" t="s">
-        <v>290</v>
-      </c>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46">
+        <f>J38+0.001</f>
+        <v>2.2000000000000013E-2</v>
+      </c>
+      <c r="N39" s="45">
+        <v>1200</v>
+      </c>
+      <c r="O39" s="45">
+        <v>150</v>
+      </c>
+      <c r="P39" s="43">
+        <f t="shared" si="19"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q39" s="43">
+        <f t="shared" si="19"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="40" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D40" s="45">
@@ -6385,18 +6701,24 @@
         <f>H39*1.05</f>
         <v>3.2213596545598466E-2</v>
       </c>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46">
+        <f>J39+0.001</f>
+        <v>2.3000000000000013E-2</v>
+      </c>
       <c r="N40" s="45">
-        <v>275</v>
-      </c>
-      <c r="O40" s="40" t="s">
-        <v>210</v>
+        <v>675</v>
+      </c>
+      <c r="O40" s="45">
+        <v>85</v>
       </c>
       <c r="P40" s="43">
-        <f t="shared" ref="P40:Q42" si="20">N40/3600</f>
-        <v>7.6388888888888895E-2</v>
-      </c>
-      <c r="Q40" s="43" t="s">
-        <v>210</v>
+        <f t="shared" si="19"/>
+        <v>0.1875</v>
+      </c>
+      <c r="Q40" s="43">
+        <f t="shared" si="19"/>
+        <v>2.361111111111111E-2</v>
       </c>
     </row>
     <row r="41" spans="4:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -6412,18 +6734,24 @@
         <f>H40*1.05</f>
         <v>3.3824276372878388E-2</v>
       </c>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46">
+        <f>J40+0.001</f>
+        <v>2.4000000000000014E-2</v>
+      </c>
       <c r="N41" s="45">
-        <v>175</v>
-      </c>
-      <c r="O41" s="40" t="s">
-        <v>210</v>
+        <v>375</v>
+      </c>
+      <c r="O41" s="45">
+        <v>50</v>
       </c>
       <c r="P41" s="43">
-        <f t="shared" si="20"/>
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="Q41" s="43" t="s">
-        <v>210</v>
+        <f t="shared" si="19"/>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="Q41" s="43">
+        <f t="shared" si="19"/>
+        <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="42" spans="4:17" x14ac:dyDescent="0.2">
@@ -6446,20 +6774,12 @@
         <f>F43*0.95</f>
         <v>0.11658253987930874</v>
       </c>
-      <c r="N42" s="45">
-        <v>125</v>
-      </c>
-      <c r="O42" s="40">
-        <v>1250</v>
-      </c>
-      <c r="P42" s="43">
-        <f t="shared" si="20"/>
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="Q42" s="43">
-        <f t="shared" si="20"/>
-        <v>0.34722222222222221</v>
-      </c>
+      <c r="I42" s="46">
+        <f>(F42/F46)^3*H46</f>
+        <v>7.7721693252872481E-2</v>
+      </c>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
     </row>
     <row r="43" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D43" s="45">
@@ -6478,6 +6798,16 @@
         <f>F43</f>
         <v>0.12271846303085131</v>
       </c>
+      <c r="I43" s="46">
+        <f>(F42/F46)^3*H47</f>
+        <v>8.1812308687234186E-2</v>
+      </c>
+      <c r="N43" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="O43" s="41" t="s">
+        <v>299</v>
+      </c>
       <c r="P43" s="43"/>
       <c r="Q43" s="43"/>
     </row>
@@ -6494,14 +6824,23 @@
         <f>H43*1.05</f>
         <v>0.12885438618239387</v>
       </c>
-      <c r="N44" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="O44" s="41" t="s">
-        <v>290</v>
-      </c>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
+      <c r="I44" s="46">
+        <f>(F42/F46)^3*H48</f>
+        <v>8.5902924121595906E-2</v>
+      </c>
+      <c r="N44" s="45">
+        <v>275</v>
+      </c>
+      <c r="O44" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="P44" s="43">
+        <f t="shared" ref="P44:Q46" si="20">N44/3600</f>
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="Q44" s="43" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="45" spans="4:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D45" s="45">
@@ -6516,15 +6855,19 @@
         <f>H44*1.05</f>
         <v>0.13529710549151355</v>
       </c>
+      <c r="I45" s="46">
+        <f>(F42/F46)^3*H49</f>
+        <v>9.0198070327675711E-2</v>
+      </c>
       <c r="N45" s="45">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="O45" s="40" t="s">
         <v>210</v>
       </c>
       <c r="P45" s="43">
-        <f t="shared" ref="P45:Q47" si="21">N45/3600</f>
-        <v>1.3888888888888888E-2</v>
+        <f t="shared" si="20"/>
+        <v>4.8611111111111112E-2</v>
       </c>
       <c r="Q45" s="43" t="s">
         <v>210</v>
@@ -6550,19 +6893,23 @@
         <f>F47*0.95</f>
         <v>0.26231071472844464</v>
       </c>
+      <c r="I46" s="46">
+        <f>(F46/F50)^3*H50</f>
+        <v>0.19673303604633349</v>
+      </c>
       <c r="N46" s="45">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="O46" s="40">
-        <v>250</v>
+        <v>1250</v>
       </c>
       <c r="P46" s="43">
-        <f t="shared" si="21"/>
-        <v>6.9444444444444441E-3</v>
+        <f t="shared" si="20"/>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="Q46" s="43">
-        <f t="shared" si="21"/>
-        <v>6.9444444444444448E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="47" spans="4:17" x14ac:dyDescent="0.2">
@@ -6582,20 +6929,12 @@
         <f>F47</f>
         <v>0.27611654181941542</v>
       </c>
-      <c r="N47" s="45">
-        <v>10</v>
-      </c>
-      <c r="O47" s="40">
-        <v>100</v>
-      </c>
-      <c r="P47" s="43">
-        <f t="shared" si="21"/>
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="Q47" s="43">
-        <f t="shared" si="21"/>
-        <v>2.7777777777777776E-2</v>
-      </c>
+      <c r="I47" s="46">
+        <f>(F46/F50)^3*H51</f>
+        <v>0.20708740636456158</v>
+      </c>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43"/>
     </row>
     <row r="48" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D48" s="45">
@@ -6610,10 +6949,20 @@
         <f>H47*1.05</f>
         <v>0.2899223689103862</v>
       </c>
+      <c r="I48" s="46">
+        <f>(F46/F50)^3*H52</f>
+        <v>0.21744177668278963</v>
+      </c>
+      <c r="N48" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="O48" s="41" t="s">
+        <v>299</v>
+      </c>
       <c r="P48" s="43"/>
       <c r="Q48" s="43"/>
     </row>
-    <row r="49" spans="4:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D49" s="45">
         <f t="shared" si="18"/>
         <v>8</v>
@@ -6626,8 +6975,25 @@
         <f>H48*1.05</f>
         <v>0.30441848735590554</v>
       </c>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="I49" s="46">
+        <f>(F46/F50)^3*H53</f>
+        <v>0.22831386551692912</v>
+      </c>
+      <c r="N49" s="45">
+        <v>50</v>
+      </c>
+      <c r="O49" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="P49" s="43">
+        <f t="shared" ref="P49:Q51" si="21">N49/3600</f>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="Q49" s="43" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D50" s="45">
         <f t="shared" si="18"/>
         <v>9</v>
@@ -6647,8 +7013,26 @@
         <f>F51*0.95</f>
         <v>0.46633015951723494</v>
       </c>
-    </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="I50" s="46">
+        <f>(F50/F54)^3*H54</f>
+        <v>0.31088677301148993</v>
+      </c>
+      <c r="N50" s="45">
+        <v>25</v>
+      </c>
+      <c r="O50" s="40">
+        <v>250</v>
+      </c>
+      <c r="P50" s="43">
+        <f t="shared" si="21"/>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="Q50" s="43">
+        <f t="shared" si="21"/>
+        <v>6.9444444444444448E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D51" s="45">
         <f t="shared" si="18"/>
         <v>9</v>
@@ -6665,8 +7049,26 @@
         <f>F51</f>
         <v>0.49087385212340523</v>
       </c>
-    </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="I51" s="46">
+        <f>(F50/F54)^3*H55</f>
+        <v>0.32724923474893675</v>
+      </c>
+      <c r="N51" s="45">
+        <v>10</v>
+      </c>
+      <c r="O51" s="40">
+        <v>100</v>
+      </c>
+      <c r="P51" s="43">
+        <f t="shared" si="21"/>
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="Q51" s="43">
+        <f t="shared" si="21"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D52" s="45">
         <f t="shared" si="18"/>
         <v>9</v>
@@ -6679,8 +7081,14 @@
         <f>H51*1.05</f>
         <v>0.51541754472957546</v>
       </c>
-    </row>
-    <row r="53" spans="4:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="46">
+        <f>(F50/F54)^3*H56</f>
+        <v>0.34361169648638362</v>
+      </c>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="43"/>
+    </row>
+    <row r="53" spans="4:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D53" s="45">
         <f t="shared" si="18"/>
         <v>9</v>
@@ -6693,8 +7101,12 @@
         <f>H52*1.05</f>
         <v>0.54118842196605421</v>
       </c>
-    </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="I53" s="46">
+        <f>(F50/F54)^3*H57</f>
+        <v>0.36079228131070284</v>
+      </c>
+    </row>
+    <row r="54" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D54" s="45">
         <f t="shared" si="18"/>
         <v>10</v>
@@ -6714,8 +7126,12 @@
         <f>F55*0.95</f>
         <v>1.0492428589137786</v>
       </c>
-    </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="I54" s="46">
+        <f>(F54/F58)^3*H58</f>
+        <v>0.78693214418533397</v>
+      </c>
+    </row>
+    <row r="55" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D55" s="45">
         <f t="shared" si="18"/>
         <v>10</v>
@@ -6732,8 +7148,12 @@
         <f>F55</f>
         <v>1.1044661672776617</v>
       </c>
-    </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="I55" s="46">
+        <f>(F54/F58)^3*H59</f>
+        <v>0.82834962545824631</v>
+      </c>
+    </row>
+    <row r="56" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D56" s="45">
         <f t="shared" si="18"/>
         <v>10</v>
@@ -6746,8 +7166,12 @@
         <f>H55*1.05</f>
         <v>1.1596894756415448</v>
       </c>
-    </row>
-    <row r="57" spans="4:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="46">
+        <f>(F54/F58)^3*H60</f>
+        <v>0.86976710673115853</v>
+      </c>
+    </row>
+    <row r="57" spans="4:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D57" s="45">
         <f t="shared" si="18"/>
         <v>10</v>
@@ -6760,8 +7184,12 @@
         <f>H56*1.05</f>
         <v>1.2176739494236222</v>
       </c>
-    </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="I57" s="46">
+        <f>(F54/F58)^3*H61</f>
+        <v>0.91325546206771646</v>
+      </c>
+    </row>
+    <row r="58" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D58" s="45">
         <f t="shared" si="18"/>
         <v>11</v>
@@ -6782,7 +7210,7 @@
         <v>1.8653206380689398</v>
       </c>
     </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D59" s="45">
         <f t="shared" si="18"/>
         <v>11</v>
@@ -6800,7 +7228,7 @@
         <v>1.9634954084936209</v>
       </c>
     </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D60" s="45">
         <f t="shared" si="18"/>
         <v>11</v>
@@ -6814,7 +7242,7 @@
         <v>2.0616701789183018</v>
       </c>
     </row>
-    <row r="61" spans="4:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D61" s="45">
         <f t="shared" si="18"/>
         <v>11</v>
@@ -7104,7 +7532,7 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="19">
         <f>N5+O5</f>
@@ -7177,7 +7605,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="19">
         <f>N7+O7</f>
@@ -7511,7 +7939,7 @@
         <v>88</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="19">
         <f>N16+O16</f>
@@ -7587,7 +8015,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>72</v>
@@ -7691,7 +8119,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>73</v>
@@ -7868,7 +8296,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>73</v>

--- a/balance.xlsx
+++ b/balance.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="377">
   <si>
     <t>W/m2</t>
   </si>
@@ -5758,10 +5758,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5780,7 +5780,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>50</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>52</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
@@ -6087,12 +6087,12 @@
         <v>1078.29414</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="R6" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>50410</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>2285.0311415809701</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>69</v>
       </c>
@@ -6258,8 +6258,28 @@
         <f>2*PI()*SQRT(H10^3/I10)</f>
         <v>2369.1375366329148</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R10" s="1">
+        <v>3629</v>
+      </c>
+      <c r="S10" s="1">
+        <v>4265</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R11" s="1">
+        <v>2290</v>
+      </c>
+      <c r="S11" s="1">
+        <v>2009</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
@@ -6314,8 +6334,19 @@
         <f>2*PI()*SQRT(H12^3/I12)</f>
         <v>1427.6270025663123</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R12" s="1">
+        <f>R10+R11</f>
+        <v>5919</v>
+      </c>
+      <c r="S12" s="1">
+        <f>S10+S11</f>
+        <v>6274</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>71</v>
       </c>
@@ -6368,8 +6399,18 @@
         <f>2*PI()*SQRT(H13^3/I13)</f>
         <v>1572.7432833522748</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" s="1">
+        <f>U12/U11*U10</f>
+        <v>1516.8539325842696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
@@ -6426,7 +6467,7 @@
         <v>9701.5389058065757</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>90</v>
       </c>
@@ -6480,23 +6521,6 @@
       <c r="P16" s="15">
         <f>2*PI()*SQRT(H16^3/I16)</f>
         <v>21599.993227655697</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="1">
-        <v>308</v>
-      </c>
-      <c r="F20" s="1">
-        <f>F21/E21*E20</f>
-        <v>430.1675977653631</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E21" s="1">
-        <v>1432</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2000</v>
       </c>
     </row>
   </sheetData>
@@ -9410,7 +9434,7 @@
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9468,10 +9492,10 @@
         <v>92</v>
       </c>
       <c r="Q2" s="1">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="R2" s="1">
-        <v>0.8</v>
+        <v>0.22</v>
       </c>
       <c r="S2" s="60" t="s">
         <v>108</v>
@@ -9568,31 +9592,31 @@
       </c>
       <c r="Q4" s="6">
         <f>(P4/P5)^2*Q5</f>
-        <v>25.919999999999998</v>
+        <v>25.40484922356897</v>
       </c>
       <c r="R4" s="6">
-        <f>(P4/P5)^Q$2*R5*$R2</f>
-        <v>3.2768000000000002</v>
+        <f t="shared" ref="R4:R6" si="2">Q4*R$2</f>
+        <v>5.5890668291851737</v>
       </c>
       <c r="S4" s="62">
         <f>2*Q4</f>
-        <v>51.839999999999996</v>
+        <v>50.80969844713794</v>
       </c>
       <c r="T4" s="62">
         <f>Q4*5</f>
-        <v>129.6</v>
+        <v>127.02424611784485</v>
       </c>
       <c r="U4" s="62">
         <f>Q4*9</f>
-        <v>233.27999999999997</v>
+        <v>228.64364301212072</v>
       </c>
       <c r="V4" s="6">
         <f>2*R4</f>
-        <v>6.5536000000000003</v>
+        <v>11.178133658370347</v>
       </c>
       <c r="W4" s="6">
         <f>R4*5</f>
-        <v>16.384</v>
+        <v>27.94533414592587</v>
       </c>
       <c r="X4" s="6"/>
     </row>
@@ -9605,31 +9629,31 @@
       </c>
       <c r="Q5" s="6">
         <f>(P5/P6)^2*Q6</f>
-        <v>112.5</v>
+        <v>110.26410253285144</v>
       </c>
       <c r="R5" s="6">
-        <f>(P5/P6)^Q$2*R6*$R2</f>
-        <v>17.777777777777779</v>
+        <f t="shared" si="2"/>
+        <v>24.258102557227318</v>
       </c>
       <c r="S5" s="62">
-        <f t="shared" ref="S5:T10" si="2">2*Q5</f>
-        <v>225</v>
+        <f t="shared" ref="S5:T10" si="3">2*Q5</f>
+        <v>220.52820506570288</v>
       </c>
       <c r="T5" s="62">
-        <f t="shared" ref="T5:T10" si="3">Q5*5</f>
-        <v>562.5</v>
+        <f t="shared" ref="T5:T10" si="4">Q5*5</f>
+        <v>551.32051266425719</v>
       </c>
       <c r="U5" s="62">
-        <f t="shared" ref="U5:U10" si="4">Q5*9</f>
-        <v>1012.5</v>
+        <f t="shared" ref="U5:U10" si="5">Q5*9</f>
+        <v>992.37692279566295</v>
       </c>
       <c r="V5" s="6">
-        <f t="shared" ref="V5:V10" si="5">2*R5</f>
-        <v>35.555555555555557</v>
+        <f t="shared" ref="V5:V10" si="6">2*R5</f>
+        <v>48.516205114454635</v>
       </c>
       <c r="W5" s="6">
-        <f t="shared" ref="W5:W10" si="6">R5*5</f>
-        <v>88.888888888888886</v>
+        <f t="shared" ref="W5:W10" si="7">R5*5</f>
+        <v>121.29051278613659</v>
       </c>
       <c r="X5" s="6"/>
     </row>
@@ -9659,31 +9683,31 @@
         <v>0.6</v>
       </c>
       <c r="I6" s="22">
-        <f t="shared" ref="I6:O6" si="7">5%+H6</f>
+        <f t="shared" ref="I6:O6" si="8">5%+H6</f>
         <v>0.65</v>
       </c>
       <c r="J6" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="K6" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.75000000000000011</v>
       </c>
       <c r="L6" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.80000000000000016</v>
       </c>
       <c r="M6" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.8500000000000002</v>
       </c>
       <c r="N6" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.90000000000000024</v>
       </c>
       <c r="O6" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.95000000000000029</v>
       </c>
       <c r="P6" s="60">
@@ -9691,31 +9715,31 @@
       </c>
       <c r="Q6" s="6">
         <f>(P6/P7)^2*Q7</f>
-        <v>450</v>
+        <v>441.05641013140576</v>
       </c>
       <c r="R6" s="6">
-        <f>(P6/P7)^Q$2*R7*$R2</f>
-        <v>88.888888888888886</v>
+        <f t="shared" si="2"/>
+        <v>97.032410228909271</v>
       </c>
       <c r="S6" s="62">
-        <f t="shared" si="2"/>
-        <v>900</v>
+        <f t="shared" si="3"/>
+        <v>882.11282026281151</v>
       </c>
       <c r="T6" s="62">
-        <f t="shared" si="3"/>
-        <v>2250</v>
+        <f t="shared" si="4"/>
+        <v>2205.2820506570288</v>
       </c>
       <c r="U6" s="62">
-        <f t="shared" si="4"/>
-        <v>4050</v>
+        <f t="shared" si="5"/>
+        <v>3969.5076911826518</v>
       </c>
       <c r="V6" s="6">
-        <f t="shared" si="5"/>
-        <v>177.77777777777777</v>
+        <f t="shared" si="6"/>
+        <v>194.06482045781854</v>
       </c>
       <c r="W6" s="6">
-        <f t="shared" si="6"/>
-        <v>444.44444444444446</v>
+        <f t="shared" si="7"/>
+        <v>485.16205114454635</v>
       </c>
       <c r="X6" s="6"/>
     </row>
@@ -9751,31 +9775,31 @@
         <v>157.07963267948966</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" ref="I7:O8" si="8">$G7*I$6</f>
+        <f t="shared" ref="I7:O8" si="9">$G7*I$6</f>
         <v>170.16960206944714</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>183.25957145940461</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>196.34954084936211</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>209.43951023931959</v>
       </c>
       <c r="M7" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>222.52947962927706</v>
       </c>
       <c r="N7" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>235.61944901923454</v>
       </c>
       <c r="O7" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>248.70941840919204</v>
       </c>
       <c r="P7" s="60">
@@ -9783,30 +9807,31 @@
       </c>
       <c r="Q7" s="6">
         <f>(P7/P8)^Q$2*Q8</f>
-        <v>1012.5</v>
-      </c>
-      <c r="R7" s="1">
-        <v>250</v>
+        <v>992.37692279566295</v>
+      </c>
+      <c r="R7" s="6">
+        <f>Q7*R$2</f>
+        <v>218.32292301504586</v>
       </c>
       <c r="S7" s="62">
-        <f t="shared" si="2"/>
-        <v>2025</v>
+        <f t="shared" si="3"/>
+        <v>1984.7538455913259</v>
       </c>
       <c r="T7" s="62">
-        <f t="shared" si="3"/>
-        <v>5062.5</v>
+        <f t="shared" si="4"/>
+        <v>4961.8846139783145</v>
       </c>
       <c r="U7" s="62">
-        <f t="shared" si="4"/>
-        <v>9112.5</v>
+        <f t="shared" si="5"/>
+        <v>8931.3923051609672</v>
       </c>
       <c r="V7" s="6">
-        <f t="shared" si="5"/>
-        <v>500</v>
+        <f t="shared" si="6"/>
+        <v>436.64584603009172</v>
       </c>
       <c r="W7" s="6">
-        <f t="shared" si="6"/>
-        <v>1250</v>
+        <f t="shared" si="7"/>
+        <v>1091.6146150752293</v>
       </c>
       <c r="X7" s="6"/>
     </row>
@@ -9842,62 +9867,62 @@
         <v>51.050880620834143</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>55.305120672570318</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>59.559360724306501</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>63.813600776042684</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>68.067840827778866</v>
       </c>
       <c r="M8" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>72.322080879515056</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>76.576320931251232</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>80.830560982987421</v>
       </c>
       <c r="P8" s="60">
         <v>2.5</v>
       </c>
-      <c r="Q8" s="1">
-        <v>1800</v>
+      <c r="Q8" s="2">
+        <v>1550</v>
       </c>
       <c r="R8" s="6">
-        <f>(P8/P7)^Q$2*R7*$R2</f>
-        <v>355.55555555555554</v>
+        <f t="shared" ref="R8:R10" si="10">Q8*R$2</f>
+        <v>341</v>
       </c>
       <c r="S8" s="62">
-        <f t="shared" si="2"/>
-        <v>3600</v>
+        <f t="shared" si="3"/>
+        <v>3100</v>
       </c>
       <c r="T8" s="62">
-        <f t="shared" si="3"/>
-        <v>9000</v>
+        <f t="shared" si="4"/>
+        <v>7750</v>
       </c>
       <c r="U8" s="62">
-        <f t="shared" si="4"/>
-        <v>16200</v>
+        <f t="shared" si="5"/>
+        <v>13950</v>
       </c>
       <c r="V8" s="6">
-        <f t="shared" si="5"/>
-        <v>711.11111111111109</v>
+        <f t="shared" si="6"/>
+        <v>682</v>
       </c>
       <c r="W8" s="6">
-        <f t="shared" si="6"/>
-        <v>1777.7777777777778</v>
+        <f t="shared" si="7"/>
+        <v>1705</v>
       </c>
       <c r="X8" s="6"/>
     </row>
@@ -9907,31 +9932,31 @@
       </c>
       <c r="Q9" s="6">
         <f>(P9/P8)^Q$2*Q8</f>
-        <v>4050</v>
+        <v>2905.8497153033331</v>
       </c>
       <c r="R9" s="6">
-        <f>(P9/P8)^Q$2*R8*$R2</f>
-        <v>640</v>
+        <f t="shared" si="10"/>
+        <v>639.28693736673324</v>
       </c>
       <c r="S9" s="62">
-        <f t="shared" si="2"/>
-        <v>8100</v>
+        <f t="shared" si="3"/>
+        <v>5811.6994306066663</v>
       </c>
       <c r="T9" s="62">
-        <f t="shared" si="3"/>
-        <v>20250</v>
+        <f t="shared" si="4"/>
+        <v>14529.248576516666</v>
       </c>
       <c r="U9" s="62">
-        <f t="shared" si="4"/>
-        <v>36450</v>
+        <f t="shared" si="5"/>
+        <v>26152.647437729996</v>
       </c>
       <c r="V9" s="6">
-        <f t="shared" si="5"/>
-        <v>1280</v>
+        <f t="shared" si="6"/>
+        <v>1278.5738747334665</v>
       </c>
       <c r="W9" s="6">
-        <f t="shared" si="6"/>
-        <v>3200</v>
+        <f t="shared" si="7"/>
+        <v>3196.4346868336661</v>
       </c>
       <c r="X9" s="6"/>
     </row>
@@ -9990,31 +10015,31 @@
       </c>
       <c r="Q10" s="6">
         <f>(P10/P9)^Q$2*Q9</f>
-        <v>7200</v>
+        <v>4538.6656574314384</v>
       </c>
       <c r="R10" s="6">
-        <f>(P10/P9)^Q$2*R9*$R2</f>
-        <v>910.22222222222229</v>
+        <f t="shared" si="10"/>
+        <v>998.50644463491642</v>
       </c>
       <c r="S10" s="62">
-        <f t="shared" si="2"/>
-        <v>14400</v>
+        <f t="shared" si="3"/>
+        <v>9077.3313148628768</v>
       </c>
       <c r="T10" s="62">
-        <f t="shared" si="3"/>
-        <v>36000</v>
+        <f t="shared" si="4"/>
+        <v>22693.328287157194</v>
       </c>
       <c r="U10" s="62">
-        <f t="shared" si="4"/>
-        <v>64800</v>
+        <f t="shared" si="5"/>
+        <v>40847.990916882947</v>
       </c>
       <c r="V10" s="6">
-        <f t="shared" si="5"/>
-        <v>1820.4444444444446</v>
+        <f t="shared" si="6"/>
+        <v>1997.0128892698328</v>
       </c>
       <c r="W10" s="6">
-        <f t="shared" si="6"/>
-        <v>4551.1111111111113</v>
+        <f t="shared" si="7"/>
+        <v>4992.5322231745822</v>
       </c>
       <c r="X10" s="6"/>
     </row>
@@ -10026,51 +10051,51 @@
         <v>0.5</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ref="C11:C22" si="9">A11/2</f>
+        <f t="shared" ref="C11:C22" si="11">A11/2</f>
         <v>0.625</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" ref="D11:D22" si="10">PI()*C11^2*B11*1000</f>
+        <f t="shared" ref="D11:D22" si="12">PI()*C11^2*B11*1000</f>
         <v>613.59231515425654</v>
       </c>
       <c r="E11" s="6">
-        <f t="shared" ref="E11:N22" si="11">$D11*E$10</f>
+        <f t="shared" ref="E11:N22" si="13">$D11*E$10</f>
         <v>368.15538909255389</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>398.83500485026678</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>429.51462060797962</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>460.19423636569246</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>490.8738521234053</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>521.55346788111819</v>
       </c>
       <c r="K11" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>533.82531418420319</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>552.23308363883109</v>
       </c>
       <c r="M11" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>564.50492994191609</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>582.91269939654387</v>
       </c>
     </row>
@@ -10082,51 +10107,51 @@
         <v>4.75</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.25</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>23316.507975861747</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>13989.904785517048</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>15155.730184310136</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>16321.555583103223</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>17487.380981896313</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18653.2063806894</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19819.031779482488</v>
       </c>
       <c r="K12" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20285.361938999718</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20984.857178275579</v>
       </c>
       <c r="M12" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21451.18733779281</v>
       </c>
       <c r="N12" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>22150.682577068666</v>
       </c>
     </row>
@@ -10138,51 +10163,51 @@
         <v>0.5</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.625</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>613.59231515425654</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>368.15538909255389</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>398.83500485026678</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>429.51462060797962</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>460.19423636569246</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>490.8738521234053</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>521.55346788111819</v>
       </c>
       <c r="K13" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>533.82531418420319</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>552.23308363883109</v>
       </c>
       <c r="M13" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>564.50492994191609</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>582.91269939654387</v>
       </c>
     </row>
@@ -10194,51 +10219,51 @@
         <v>1.8</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.25</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>8835.7293382212938</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5301.4376029327759</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5743.2240698438409</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6185.0105367549058</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6626.7970036659717</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7068.5834705770367</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7510.3699374881016</v>
       </c>
       <c r="K14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7687.0845242525256</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7952.1564043991666</v>
       </c>
       <c r="M14" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8128.8709911635906</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8393.9428713102316</v>
       </c>
       <c r="Q14" s="4"/>
@@ -10251,52 +10276,65 @@
         <v>6</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.25</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>29452.43112740431</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>17671.458676442584</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19144.080232812801</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20616.701789183018</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>22089.323345553235</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>23561.944901923453</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>25034.56645829367</v>
       </c>
       <c r="K15" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>25623.615080841751</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>26507.188014663887</v>
       </c>
       <c r="M15" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>27096.236637211965</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>27979.809571034104</v>
+      </c>
+      <c r="P15" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>5</v>
+      </c>
+      <c r="S15" s="1">
+        <f>0.4*(5-R15)+1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -10307,55 +10345,68 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.25</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9817.4770424681046</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5890.4862254808622</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6381.3600776042686</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6872.233929727674</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7363.1077818510794</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7853.9816339744848</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8344.8554860978911</v>
       </c>
       <c r="K16" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8541.2050269472511</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8835.7293382212974</v>
       </c>
       <c r="M16" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9032.0788790706574</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9326.6031903447019</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>3</v>
+      </c>
+      <c r="R16" s="1">
+        <v>4</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" ref="S16:S21" si="14">0.4*(5-R16)+1</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2.5</v>
       </c>
@@ -10363,55 +10414,62 @@
         <v>2.4</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.25</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>11780.972450961724</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7068.5834705770349</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7657.6320931251212</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8246.6807156732084</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8835.7293382212938</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9424.777960769381</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10013.826583317468</v>
       </c>
       <c r="K17" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10249.4460323367</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10602.875205865555</v>
       </c>
       <c r="M17" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10838.494654884787</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>11191.923828413641</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R17" s="1">
+        <v>3</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="14"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>3.75</v>
       </c>
@@ -10419,55 +10477,62 @@
         <v>3.5</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.875</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>38656.315854718159</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>23193.789512830896</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>25126.605305566805</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>27059.421098302715</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>28992.236891038625</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>30925.052683774535</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>32857.868476510441</v>
       </c>
       <c r="K18" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>33630.994793604797</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>34790.684269246354</v>
       </c>
       <c r="M18" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>35563.810586340711</v>
       </c>
       <c r="N18" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>36723.50006198226</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R18" s="1">
+        <v>2</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="14"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2.5</v>
       </c>
@@ -10475,55 +10540,62 @@
         <v>1.9</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.25</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9326.6031903446983</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5595.9619142068186</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6062.2920737240538</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6528.622233241289</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6994.9523927585251</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7461.2825522757603</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7927.6127117929955</v>
       </c>
       <c r="K19" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8114.1447755998879</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8393.9428713102316</v>
       </c>
       <c r="M19" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8580.4749351171231</v>
       </c>
       <c r="N19" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8860.2730308274658</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R19" s="1">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="14"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2.5</v>
       </c>
@@ -10531,55 +10603,62 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.25</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>22580.197197676636</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>13548.118318605981</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>14677.128178489815</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>15806.138038373647</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>16935.147898257481</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18064.157758141311</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19193.167618025145</v>
       </c>
       <c r="K20" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19644.771561978672</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20322.177477908979</v>
       </c>
       <c r="M20" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20773.781421862506</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21451.18733779281</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R20" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="14"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>3.75</v>
       </c>
@@ -10587,55 +10666,62 @@
         <v>6</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.875</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>66267.97003665971</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>39760.782021995823</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>43074.180523828814</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>46387.579025661798</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>49700.97752749479</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>53014.376029327781</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>56327.774531160765</v>
       </c>
       <c r="K21" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>57653.13393189395</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>59641.173032993756</v>
       </c>
       <c r="M21" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>60966.532433726934</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>62954.57153482674</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="R21" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="14"/>
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1.875</v>
       </c>
@@ -10643,55 +10729,55 @@
         <v>3.5</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.9375</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9664.0789636795398</v>
       </c>
       <c r="E22" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5798.4473782077239</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6281.6513263917013</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6764.8552745756788</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7248.0592227596562</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7731.2631709436337</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8214.4671191276102</v>
       </c>
       <c r="K22" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8407.7486984011994</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8697.6710673115886</v>
       </c>
       <c r="M22" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8890.9526465851777</v>
       </c>
       <c r="N22" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9180.8750154955651</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E24" s="1">
         <v>0.96</v>
       </c>
@@ -10703,7 +10789,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E25" s="1">
         <f>F24/F25*E24</f>
         <v>1.1771117166212535</v>
@@ -11894,7 +11980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
